--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -162,14 +158,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -883,7 +871,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1102,6 +1090,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1105,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,6 +1323,12 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -1372,7 +1372,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1591,6 +1591,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,7 +1606,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1818,6 +1824,12 @@
                   <c:v>1038.9221920577138</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
               </c:numCache>
@@ -1861,7 +1873,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2080,6 +2092,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,7 +2107,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2307,6 +2325,12 @@
                   <c:v>400.30401440956427</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
               </c:numCache>
@@ -2329,11 +2353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468270464"/>
-        <c:axId val="468305408"/>
+        <c:axId val="532400384"/>
+        <c:axId val="621854720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468270464"/>
+        <c:axId val="532400384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,14 +2400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468305408"/>
+        <c:crossAx val="621854720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468305408"/>
+        <c:axId val="621854720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468270464"/>
+        <c:crossAx val="532400384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,7 +2670,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2865,6 +2889,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,7 +2904,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3092,6 +3122,12 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -3135,7 +3171,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3354,6 +3390,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,7 +3405,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3582,6 +3624,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1735.2438323190659</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1736.385632525677</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1737.2281518785637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,7 +3672,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3843,6 +3891,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,7 +3906,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4071,6 +4125,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>786.83135369426805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>787.9731539008792</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>788.81567325376591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468920576"/>
-        <c:axId val="469020672"/>
+        <c:axId val="623270912"/>
+        <c:axId val="623285760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468920576"/>
+        <c:axId val="623270912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469020672"/>
+        <c:crossAx val="623285760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469020672"/>
+        <c:axId val="623285760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,7 +4255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468920576"/>
+        <c:crossAx val="623270912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4409,7 +4469,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4628,6 +4688,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,7 +4703,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4855,6 +4921,12 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -4898,7 +4970,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5117,6 +5189,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,7 +5204,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5344,6 +5422,12 @@
                   <c:v>997.01821690428267</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5387,7 +5471,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5606,6 +5690,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5705,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5833,6 +5923,12 @@
                   <c:v>390.33094813854075</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -5855,11 +5951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470137856"/>
-        <c:axId val="471966080"/>
+        <c:axId val="625891968"/>
+        <c:axId val="625918336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470137856"/>
+        <c:axId val="625891968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5902,14 +5998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471966080"/>
+        <c:crossAx val="625918336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471966080"/>
+        <c:axId val="625918336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470137856"/>
+        <c:crossAx val="625891968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6172,7 +6268,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6391,6 +6487,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6400,7 +6502,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6618,6 +6720,12 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -6661,7 +6769,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6880,6 +6988,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6889,7 +7003,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7107,6 +7221,12 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -7150,7 +7270,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7369,6 +7489,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7378,7 +7504,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7596,6 +7722,12 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -7618,11 +7750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485620352"/>
-        <c:axId val="485651200"/>
+        <c:axId val="625965696"/>
+        <c:axId val="626188672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485620352"/>
+        <c:axId val="625965696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7665,14 +7797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485651200"/>
+        <c:crossAx val="626188672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485651200"/>
+        <c:axId val="626188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7721,7 +7853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485620352"/>
+        <c:crossAx val="625965696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,7 +8067,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8154,6 +8286,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8163,7 +8301,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8381,6 +8519,12 @@
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
               </c:numCache>
@@ -8424,7 +8568,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8643,6 +8787,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8652,7 +8802,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8870,6 +9020,12 @@
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
               </c:numCache>
@@ -8913,7 +9069,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9132,6 +9288,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9141,7 +9303,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9359,6 +9521,12 @@
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
               </c:numCache>
@@ -9381,11 +9549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574384000"/>
-        <c:axId val="574385536"/>
+        <c:axId val="626272128"/>
+        <c:axId val="626273664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574384000"/>
+        <c:axId val="626272128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9428,14 +9596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574385536"/>
+        <c:crossAx val="626273664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574385536"/>
+        <c:axId val="626273664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9484,7 +9652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574384000"/>
+        <c:crossAx val="626272128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9698,7 +9866,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9917,6 +10085,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9926,7 +10100,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10144,6 +10318,12 @@
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
               </c:numCache>
@@ -10187,7 +10367,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10406,6 +10586,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10415,7 +10601,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10634,6 +10820,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>385.66967279429002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>385.77719580127933</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>385.8367831379033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10676,7 +10868,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10895,6 +11087,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10904,7 +11102,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11123,6 +11321,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>182.8570661140491</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>182.96458912103841</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>183.02417645766238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11144,11 +11348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599631360"/>
-        <c:axId val="599632896"/>
+        <c:axId val="626602752"/>
+        <c:axId val="626604672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="599631360"/>
+        <c:axId val="626602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11191,14 +11395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599632896"/>
+        <c:crossAx val="626604672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="599632896"/>
+        <c:axId val="626604672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11247,7 +11451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599631360"/>
+        <c:crossAx val="626602752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11461,7 +11665,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11680,6 +11884,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11689,7 +11899,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11907,6 +12117,12 @@
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
               </c:numCache>
@@ -11950,7 +12166,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12169,6 +12385,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12178,7 +12400,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12396,6 +12618,12 @@
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
               </c:numCache>
@@ -12439,7 +12667,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12658,6 +12886,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12667,7 +12901,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12885,6 +13119,12 @@
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
               </c:numCache>
@@ -12907,11 +13147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="660564224"/>
-        <c:axId val="663335296"/>
+        <c:axId val="627478528"/>
+        <c:axId val="627480832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="660564224"/>
+        <c:axId val="627478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12954,14 +13194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663335296"/>
+        <c:crossAx val="627480832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="663335296"/>
+        <c:axId val="627480832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13010,7 +13250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660564224"/>
+        <c:crossAx val="627478528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13224,7 +13464,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13443,6 +13683,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13452,7 +13698,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13670,6 +13916,12 @@
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
               </c:numCache>
@@ -13713,7 +13965,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13932,6 +14184,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13941,7 +14199,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14159,6 +14417,12 @@
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
               </c:numCache>
@@ -14202,7 +14466,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14421,6 +14685,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14430,7 +14700,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14648,6 +14918,12 @@
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
               </c:numCache>
@@ -14670,11 +14946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469212160"/>
-        <c:axId val="469222144"/>
+        <c:axId val="512924288"/>
+        <c:axId val="512942464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469212160"/>
+        <c:axId val="512924288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14717,14 +14993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469222144"/>
+        <c:crossAx val="512942464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469222144"/>
+        <c:axId val="512942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14773,7 +15049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469212160"/>
+        <c:crossAx val="512924288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14881,7 +15157,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14924,7 +15200,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14967,7 +15243,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15010,7 +15286,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15053,7 +15329,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15096,7 +15372,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15139,7 +15415,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15182,7 +15458,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15495,7 +15771,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18637,6 +18913,76 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="J77" s="22">
+        <v>399.28543200589718</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="J78" s="22">
+        <v>399.28543200589718</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18653,7 +18999,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18728,16 +19074,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -18762,7 +19108,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -22676,6 +23022,100 @@
         <v>66.8045673873455</v>
       </c>
       <c r="O76" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-16.185987171182685</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-11.310962429003865</v>
+      </c>
+      <c r="F77" s="22">
+        <v>64.809123938851741</v>
+      </c>
+      <c r="G77" s="22">
+        <v>92.741855985656059</v>
+      </c>
+      <c r="H77" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1736.385632525677</v>
+      </c>
+      <c r="J77" s="22">
+        <v>787.9731539008792</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1643.643776540021</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-17.545650969491497</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-12.1507277700585</v>
+      </c>
+      <c r="F78" s="22">
+        <v>52.658396168793239</v>
+      </c>
+      <c r="G78" s="22">
+        <v>76.038724369051195</v>
+      </c>
+      <c r="H78" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I78" s="22">
+        <v>1737.2281518785637</v>
+      </c>
+      <c r="J78" s="22">
+        <v>788.81567325376591</v>
+      </c>
+      <c r="K78" s="21">
+        <v>1661.1894275095126</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -22697,7 +23137,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22739,7 +23179,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -22772,19 +23212,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26900,6 +27340,106 @@
         <v>94.815894850860488</v>
       </c>
       <c r="P76" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I77" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J77" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K77" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I78" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J78" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K78" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26921,7 +27461,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26977,10 +27517,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -30513,6 +31053,88 @@
         <v>195.67538981277875</v>
       </c>
       <c r="M76" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K77" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L77" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M77" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K78" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L78" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M78" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -30534,7 +31156,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30576,7 +31198,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33673,6 +34295,76 @@
         <v>93.135317593954241</v>
       </c>
       <c r="K76" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>127.90859509815668</v>
+      </c>
+      <c r="I77" s="22">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="J77" s="22">
+        <v>93.135317593954241</v>
+      </c>
+      <c r="K77" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>127.90859509815668</v>
+      </c>
+      <c r="I78" s="22">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="J78" s="22">
+        <v>93.135317593954241</v>
+      </c>
+      <c r="K78" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -33692,7 +34384,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33734,7 +34426,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33767,16 +34459,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33801,7 +34493,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -37715,6 +38407,100 @@
         <v>66.8045673873455</v>
       </c>
       <c r="O76" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>-3.6985197387383169</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-2.5845700583699127</v>
+      </c>
+      <c r="F77" s="22">
+        <v>4.5836372437205091</v>
+      </c>
+      <c r="G77" s="22">
+        <v>6.5591848695362662</v>
+      </c>
+      <c r="H77" s="22">
+        <v>202.81260668024092</v>
+      </c>
+      <c r="I77" s="22">
+        <v>385.77719580127933</v>
+      </c>
+      <c r="J77" s="22">
+        <v>182.96458912103841</v>
+      </c>
+      <c r="K77" s="21">
+        <v>379.21801093174309</v>
+      </c>
+      <c r="L77" s="26">
+        <v>5.5983571383853049E-2</v>
+      </c>
+      <c r="M77" s="27">
+        <v>8.3802011708645194E-2</v>
+      </c>
+      <c r="N77" s="27">
+        <v>66.8045673873455</v>
+      </c>
+      <c r="O77" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-4.1742012308849903</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-2.890721062565202</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1.6929161811553071</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2.4445709752752074</v>
+      </c>
+      <c r="H78" s="22">
+        <v>202.81260668024092</v>
+      </c>
+      <c r="I78" s="22">
+        <v>385.8367831379033</v>
+      </c>
+      <c r="J78" s="22">
+        <v>183.02417645766238</v>
+      </c>
+      <c r="K78" s="21">
+        <v>383.39221216262808</v>
+      </c>
+      <c r="L78" s="26">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="M78" s="27">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N78" s="27">
+        <v>67.951847320001079</v>
+      </c>
+      <c r="O78" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -37736,7 +38522,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37778,7 +38564,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37811,19 +38597,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41938,6 +42724,106 @@
         <v>94.815894850860488</v>
       </c>
       <c r="P76" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0</v>
+      </c>
+      <c r="F77" s="22">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>121.51316534324882</v>
+      </c>
+      <c r="I77" s="22">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="J77" s="22">
+        <v>88.408210499858924</v>
+      </c>
+      <c r="K77" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L77" s="26">
+        <v>68.835098442807833</v>
+      </c>
+      <c r="M77" s="27">
+        <v>68.645170694118619</v>
+      </c>
+      <c r="N77" s="27">
+        <v>55.559808615747677</v>
+      </c>
+      <c r="O77" s="27">
+        <v>94.815894850860488</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>121.51316534324882</v>
+      </c>
+      <c r="I78" s="22">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="J78" s="22">
+        <v>88.408210499858924</v>
+      </c>
+      <c r="K78" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L78" s="26">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="M78" s="27">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="N78" s="27">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="O78" s="27">
+        <v>88.005042619937171</v>
+      </c>
+      <c r="P78" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -41959,7 +42845,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42015,10 +42901,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -45554,6 +46440,88 @@
         <v>111.55292633180204</v>
       </c>
     </row>
+    <row r="77" spans="1:13" ht="12.75">
+      <c r="A77" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2024986554579709</v>
+      </c>
+      <c r="D77" s="20">
+        <v>827300</v>
+      </c>
+      <c r="E77" s="20">
+        <v>2183975.1230284986</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>0</v>
+      </c>
+      <c r="J77" s="22">
+        <v>65.722120285934778</v>
+      </c>
+      <c r="K77" s="22">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="L77" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M77" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75">
+      <c r="A78" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.2060948269319787</v>
+      </c>
+      <c r="D78" s="20">
+        <v>443699.03125</v>
+      </c>
+      <c r="E78" s="20">
+        <v>2166399.987299507</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>65.722120285934778</v>
+      </c>
+      <c r="K78" s="22">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="L78" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M78" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +166,18 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -871,7 +891,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1096,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,7 +1128,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,6 +1352,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -1372,7 +1398,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1597,6 +1623,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,7 +1635,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1830,6 +1859,9 @@
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
               </c:numCache>
@@ -1873,7 +1905,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2098,6 +2130,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,7 +2142,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2331,6 +2366,9 @@
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
               </c:numCache>
@@ -2353,11 +2391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532400384"/>
-        <c:axId val="621854720"/>
+        <c:axId val="526275712"/>
+        <c:axId val="526277632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532400384"/>
+        <c:axId val="526275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,14 +2438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621854720"/>
+        <c:crossAx val="526277632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="621854720"/>
+        <c:axId val="526277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532400384"/>
+        <c:crossAx val="526275712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,7 +2708,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2895,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,7 +2945,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3128,6 +3169,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -3171,7 +3215,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3396,6 +3440,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,7 +3452,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3630,6 +3677,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1737.2281518785637</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1734.2266211375272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,7 +3722,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3897,6 +3947,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,7 +3959,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4131,6 +4184,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>788.81567325376591</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>785.8141425127294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,11 +4208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623270912"/>
-        <c:axId val="623285760"/>
+        <c:axId val="528478208"/>
+        <c:axId val="528480128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="623270912"/>
+        <c:axId val="528478208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623285760"/>
+        <c:crossAx val="528480128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623285760"/>
+        <c:axId val="528480128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4311,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623270912"/>
+        <c:crossAx val="528478208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4469,7 +4525,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4694,6 +4750,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4762,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4927,6 +4986,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -4970,7 +5032,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5195,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,7 +5269,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5428,6 +5493,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5471,7 +5539,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5696,6 +5764,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,7 +5776,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5929,6 +6000,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -5951,11 +6025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625891968"/>
-        <c:axId val="625918336"/>
+        <c:axId val="528748544"/>
+        <c:axId val="528750464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625891968"/>
+        <c:axId val="528748544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,14 +6072,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625918336"/>
+        <c:crossAx val="528750464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625918336"/>
+        <c:axId val="528750464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6054,7 +6128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625891968"/>
+        <c:crossAx val="528748544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6268,7 +6342,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6493,6 +6567,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,7 +6579,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6726,6 +6803,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -6769,7 +6849,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6994,6 +7074,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,7 +7086,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7227,6 +7310,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -7270,7 +7356,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7495,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,7 +7593,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7728,6 +7817,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -7750,11 +7842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625965696"/>
-        <c:axId val="626188672"/>
+        <c:axId val="541572480"/>
+        <c:axId val="541652096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625965696"/>
+        <c:axId val="541572480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,14 +7889,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626188672"/>
+        <c:crossAx val="541652096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626188672"/>
+        <c:axId val="541652096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7853,7 +7945,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625965696"/>
+        <c:crossAx val="541572480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8067,7 +8159,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8292,6 +8384,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8301,7 +8396,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8525,6 +8620,9 @@
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
               </c:numCache>
@@ -8568,7 +8666,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8793,6 +8891,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8802,7 +8903,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9026,6 +9127,9 @@
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
               </c:numCache>
@@ -9069,7 +9173,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9294,6 +9398,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9303,7 +9410,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9527,6 +9634,9 @@
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
               </c:numCache>
@@ -9549,11 +9659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626272128"/>
-        <c:axId val="626273664"/>
+        <c:axId val="542199168"/>
+        <c:axId val="542390144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626272128"/>
+        <c:axId val="542199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,14 +9706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626273664"/>
+        <c:crossAx val="542390144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626273664"/>
+        <c:axId val="542390144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9652,7 +9762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626272128"/>
+        <c:crossAx val="542199168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9866,7 +9976,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10091,6 +10201,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10100,7 +10213,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10324,6 +10437,9 @@
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
               </c:numCache>
@@ -10367,7 +10483,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10592,6 +10708,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10601,7 +10720,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10826,6 +10945,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>385.8367831379033</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>385.74028684615433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,7 +10990,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11093,6 +11215,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11102,7 +11227,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11327,6 +11452,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>183.02417645766238</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>182.92768016591342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11348,11 +11476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626602752"/>
-        <c:axId val="626604672"/>
+        <c:axId val="547793536"/>
+        <c:axId val="547796096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626602752"/>
+        <c:axId val="547793536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11395,14 +11523,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626604672"/>
+        <c:crossAx val="547796096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626604672"/>
+        <c:axId val="547796096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11451,7 +11579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626602752"/>
+        <c:crossAx val="547793536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11665,7 +11793,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11890,6 +12018,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11899,7 +12030,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12123,6 +12254,9 @@
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
               </c:numCache>
@@ -12166,7 +12300,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12391,6 +12525,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12400,7 +12537,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12624,6 +12761,9 @@
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
               </c:numCache>
@@ -12667,7 +12807,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12892,6 +13032,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12901,7 +13044,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13125,6 +13268,9 @@
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
               </c:numCache>
@@ -13147,11 +13293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627478528"/>
-        <c:axId val="627480832"/>
+        <c:axId val="554646144"/>
+        <c:axId val="564973952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627478528"/>
+        <c:axId val="554646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13194,14 +13340,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627480832"/>
+        <c:crossAx val="564973952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627480832"/>
+        <c:axId val="564973952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13250,7 +13396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627478528"/>
+        <c:crossAx val="554646144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13464,7 +13610,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13689,6 +13835,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13698,7 +13847,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13922,6 +14071,9 @@
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
               </c:numCache>
@@ -13965,7 +14117,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14190,6 +14342,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14199,7 +14354,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14423,6 +14578,9 @@
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
               </c:numCache>
@@ -14466,7 +14624,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14691,6 +14849,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14700,7 +14861,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14924,6 +15085,9 @@
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
               </c:numCache>
@@ -14946,11 +15110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512924288"/>
-        <c:axId val="512942464"/>
+        <c:axId val="619734144"/>
+        <c:axId val="619736064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512924288"/>
+        <c:axId val="619734144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14993,14 +15157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512942464"/>
+        <c:crossAx val="619736064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512942464"/>
+        <c:axId val="619736064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15049,7 +15213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512924288"/>
+        <c:crossAx val="619734144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15771,7 +15935,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18983,6 +19147,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="J79" s="22">
+        <v>399.28543200589718</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -18999,7 +19198,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19041,7 +19240,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -19074,16 +19273,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23116,6 +23315,53 @@
         <v>67.951847320001079</v>
       </c>
       <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-9.8144589615775342</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-7.0760340384009481</v>
+      </c>
+      <c r="F79" s="22">
+        <v>45.582362130392291</v>
+      </c>
+      <c r="G79" s="22">
+        <v>63.222734666437169</v>
+      </c>
+      <c r="H79" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1734.2266211375272</v>
+      </c>
+      <c r="J79" s="22">
+        <v>785.8141425127294</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1671.00388647109</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -23137,7 +23383,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23179,7 +23425,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23212,19 +23458,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27440,6 +27686,56 @@
         <v>88.005042619937171</v>
       </c>
       <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I79" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J79" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K79" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -27461,7 +27757,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27508,7 +27804,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27517,10 +27813,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31135,6 +31431,47 @@
         <v>195.67538981277875</v>
       </c>
       <c r="M78" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K79" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L79" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M79" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -31156,7 +31493,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31198,7 +31535,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34365,6 +34702,41 @@
         <v>93.135317593954241</v>
       </c>
       <c r="K78" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>127.90859509815668</v>
+      </c>
+      <c r="I79" s="22">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="J79" s="22">
+        <v>93.135317593954241</v>
+      </c>
+      <c r="K79" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -34384,7 +34756,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34426,13 +34798,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -34459,16 +34831,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -38501,6 +38873,53 @@
         <v>67.951847320001079</v>
       </c>
       <c r="O78" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="21">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-1.7462993733687311</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-1.2590478859375858</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0.4338682952177213</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0.60177531015752461</v>
+      </c>
+      <c r="H79" s="22">
+        <v>202.81260668024092</v>
+      </c>
+      <c r="I79" s="22">
+        <v>385.74028684615433</v>
+      </c>
+      <c r="J79" s="22">
+        <v>182.92768016591342</v>
+      </c>
+      <c r="K79" s="21">
+        <v>385.13851153599683</v>
+      </c>
+      <c r="L79" s="26">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="M79" s="27">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N79" s="27">
+        <v>69.063814485901545</v>
+      </c>
+      <c r="O79" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -38522,7 +38941,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38564,7 +38983,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -38597,19 +39016,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42824,6 +43243,56 @@
         <v>88.005042619937171</v>
       </c>
       <c r="P78" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>121.51316534324882</v>
+      </c>
+      <c r="I79" s="22">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="J79" s="22">
+        <v>88.408210499858924</v>
+      </c>
+      <c r="K79" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L79" s="26">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="M79" s="27">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="N79" s="27">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="O79" s="27">
+        <v>84.629816630020372</v>
+      </c>
+      <c r="P79" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -42845,7 +43314,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42892,7 +43361,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -42901,10 +43370,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46522,6 +46991,47 @@
         <v>111.55292633180204</v>
       </c>
     </row>
+    <row r="79" spans="1:13" ht="12.75">
+      <c r="A79" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.2090686716896166</v>
+      </c>
+      <c r="D79" s="20">
+        <v>589925</v>
+      </c>
+      <c r="E79" s="20">
+        <v>2143295.723269396</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>65.722120285934778</v>
+      </c>
+      <c r="K79" s="22">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="L79" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M79" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -169,16 +165,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -891,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1119,6 +1107,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1119,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1355,6 +1346,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -1398,7 +1392,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1626,6 +1620,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,7 +1632,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1862,6 +1859,9 @@
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
               </c:numCache>
@@ -1905,7 +1905,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2133,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,7 +2145,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2369,6 +2372,9 @@
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
               </c:numCache>
@@ -2391,11 +2397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526275712"/>
-        <c:axId val="526277632"/>
+        <c:axId val="638249600"/>
+        <c:axId val="638300544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526275712"/>
+        <c:axId val="638249600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,14 +2444,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526277632"/>
+        <c:crossAx val="638300544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526277632"/>
+        <c:axId val="638300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526275712"/>
+        <c:crossAx val="638249600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,7 +2714,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2936,6 +2942,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2954,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3172,6 +3181,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -3215,7 +3227,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3443,6 +3455,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3467,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3680,6 +3695,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1734.2266211375272</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1730.3065395592596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,7 +3740,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3950,6 +3968,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,7 +3980,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4187,6 +4208,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>785.8141425127294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>781.89406093446178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,11 +4232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528478208"/>
-        <c:axId val="528480128"/>
+        <c:axId val="640616320"/>
+        <c:axId val="640617856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528478208"/>
+        <c:axId val="640616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,14 +4279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528480128"/>
+        <c:crossAx val="640617856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528480128"/>
+        <c:axId val="640617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +4335,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528478208"/>
+        <c:crossAx val="640616320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4525,7 +4549,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4753,6 +4777,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,7 +4789,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4989,6 +5016,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -5032,7 +5062,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5260,6 +5290,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,7 +5302,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5496,6 +5529,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5539,7 +5575,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5767,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5776,7 +5815,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6003,6 +6042,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -6025,11 +6067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528748544"/>
-        <c:axId val="528750464"/>
+        <c:axId val="640935424"/>
+        <c:axId val="640936960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528748544"/>
+        <c:axId val="640935424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,14 +6114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528750464"/>
+        <c:crossAx val="640936960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528750464"/>
+        <c:axId val="640936960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,7 +6170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528748544"/>
+        <c:crossAx val="640935424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6342,7 +6384,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6570,6 +6612,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,7 +6624,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6806,6 +6851,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -6849,7 +6897,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7077,6 +7125,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7086,7 +7137,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7313,6 +7364,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -7356,7 +7410,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7584,6 +7638,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7650,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7820,6 +7877,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -7842,11 +7902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541572480"/>
-        <c:axId val="541652096"/>
+        <c:axId val="640991232"/>
+        <c:axId val="640993152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541572480"/>
+        <c:axId val="640991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7889,14 +7949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541652096"/>
+        <c:crossAx val="640993152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541652096"/>
+        <c:axId val="640993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7945,7 +8005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541572480"/>
+        <c:crossAx val="640991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8159,7 +8219,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8387,6 +8447,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8396,7 +8459,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8623,6 +8686,9 @@
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
               </c:numCache>
@@ -8666,7 +8732,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8894,6 +8960,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8903,7 +8972,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9130,6 +9199,9 @@
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
               </c:numCache>
@@ -9173,7 +9245,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9401,6 +9473,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9410,7 +9485,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9637,6 +9712,9 @@
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
               </c:numCache>
@@ -9659,11 +9737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542199168"/>
-        <c:axId val="542390144"/>
+        <c:axId val="641436672"/>
+        <c:axId val="641451136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542199168"/>
+        <c:axId val="641436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9706,14 +9784,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542390144"/>
+        <c:crossAx val="641451136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542390144"/>
+        <c:axId val="641451136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9762,7 +9840,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542199168"/>
+        <c:crossAx val="641436672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9976,7 +10054,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10204,6 +10282,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10213,7 +10294,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10440,6 +10521,9 @@
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
               </c:numCache>
@@ -10483,7 +10567,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10711,6 +10795,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10720,7 +10807,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10948,6 +11035,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>385.74028684615433</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>385.70297418766131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10990,7 +11080,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11218,6 +11308,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11227,7 +11320,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11455,6 +11548,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>182.92768016591342</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>182.89036750742039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11476,11 +11572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547793536"/>
-        <c:axId val="547796096"/>
+        <c:axId val="641755392"/>
+        <c:axId val="641975424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547793536"/>
+        <c:axId val="641755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11523,14 +11619,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547796096"/>
+        <c:crossAx val="641975424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547796096"/>
+        <c:axId val="641975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11579,7 +11675,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547793536"/>
+        <c:crossAx val="641755392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11793,7 +11889,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12021,6 +12117,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12030,7 +12129,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12257,6 +12356,9 @@
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
               </c:numCache>
@@ -12300,7 +12402,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12528,6 +12630,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12537,7 +12642,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12764,6 +12869,9 @@
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
               </c:numCache>
@@ -12807,7 +12915,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13035,6 +13143,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13044,7 +13155,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13271,6 +13382,9 @@
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
               </c:numCache>
@@ -13293,11 +13407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554646144"/>
-        <c:axId val="564973952"/>
+        <c:axId val="654845824"/>
+        <c:axId val="654847360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554646144"/>
+        <c:axId val="654845824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13340,14 +13454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564973952"/>
+        <c:crossAx val="654847360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564973952"/>
+        <c:axId val="654847360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13396,7 +13510,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554646144"/>
+        <c:crossAx val="654845824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13610,7 +13724,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13838,6 +13952,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13847,7 +13964,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14074,6 +14191,9 @@
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
               </c:numCache>
@@ -14117,7 +14237,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14345,6 +14465,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14354,7 +14477,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14581,6 +14704,9 @@
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
               </c:numCache>
@@ -14624,7 +14750,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14852,6 +14978,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14861,7 +14990,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15088,6 +15217,9 @@
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
               </c:numCache>
@@ -15110,11 +15242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619734144"/>
-        <c:axId val="619736064"/>
+        <c:axId val="655778560"/>
+        <c:axId val="549842944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619734144"/>
+        <c:axId val="655778560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15157,14 +15289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619736064"/>
+        <c:crossAx val="549842944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619736064"/>
+        <c:axId val="549842944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15213,7 +15345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619734144"/>
+        <c:crossAx val="655778560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15321,7 +15453,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15364,7 +15496,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15407,7 +15539,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15450,7 +15582,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15493,7 +15625,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15536,7 +15668,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15579,7 +15711,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15622,7 +15754,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15935,7 +16067,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19182,6 +19314,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="J80" s="22">
+        <v>399.28543200589718</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19198,7 +19365,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19240,7 +19407,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -19273,16 +19440,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -19371,7 +19538,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -23362,6 +23529,53 @@
         <v>69.063814485901545</v>
       </c>
       <c r="O79" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-2.5121506363294013</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-1.9309382307232033</v>
+      </c>
+      <c r="F80" s="22">
+        <v>43.651423899669091</v>
+      </c>
+      <c r="G80" s="22">
+        <v>56.790502451840247</v>
+      </c>
+      <c r="H80" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1730.3065395592596</v>
+      </c>
+      <c r="J80" s="22">
+        <v>781.89406093446178</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1673.5160371074194</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -23383,7 +23597,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23425,7 +23639,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23458,19 +23672,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27736,6 +27950,56 @@
         <v>84.629816630020372</v>
       </c>
       <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I80" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J80" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K80" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -27757,7 +28021,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27804,7 +28068,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27813,10 +28077,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -31472,6 +31736,47 @@
         <v>195.67538981277875</v>
       </c>
       <c r="M79" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K80" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L80" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M80" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -31493,7 +31798,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34740,6 +35045,41 @@
         <v>221.04391269211092</v>
       </c>
     </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>127.90859509815668</v>
+      </c>
+      <c r="I80" s="22">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="J80" s="22">
+        <v>93.135317593954241</v>
+      </c>
+      <c r="K80" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -34756,7 +35096,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34798,13 +35138,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -34831,16 +35171,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -38920,6 +39260,53 @@
         <v>69.063814485901545</v>
       </c>
       <c r="O79" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="21">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-0.22614535369832486</v>
+      </c>
+      <c r="E80" s="22">
+        <v>-0.17382425354657693</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0.26004404167114437</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0.3383172979661615</v>
+      </c>
+      <c r="H80" s="22">
+        <v>202.81260668024092</v>
+      </c>
+      <c r="I80" s="22">
+        <v>385.70297418766131</v>
+      </c>
+      <c r="J80" s="22">
+        <v>182.89036750742039</v>
+      </c>
+      <c r="K80" s="21">
+        <v>385.36465688969514</v>
+      </c>
+      <c r="L80" s="26">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="M80" s="27">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N80" s="27">
+        <v>58.40203652570424</v>
+      </c>
+      <c r="O80" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -38941,7 +39328,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38983,7 +39370,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -39016,19 +39403,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43293,6 +43680,56 @@
         <v>84.629816630020372</v>
       </c>
       <c r="P79" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>121.51316534324882</v>
+      </c>
+      <c r="I80" s="22">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="J80" s="22">
+        <v>88.408210499858924</v>
+      </c>
+      <c r="K80" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L80" s="26">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="M80" s="27">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="N80" s="27">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="O80" s="27">
+        <v>70.20939819255247</v>
+      </c>
+      <c r="P80" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -43314,7 +43751,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43361,7 +43798,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -43370,10 +43807,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -47032,6 +47469,47 @@
         <v>111.55292633180204</v>
       </c>
     </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="A80" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.2109793806853366</v>
+      </c>
+      <c r="D80" s="20">
+        <v>543149</v>
+      </c>
+      <c r="E80" s="20">
+        <v>2120463.4883643081</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>65.722120285934778</v>
+      </c>
+      <c r="K80" s="22">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="L80" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M80" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -165,8 +165,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -191,6 +191,10 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +883,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1110,6 +1114,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1126,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1349,6 +1356,9 @@
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>638.61817764814953</c:v>
                 </c:pt>
               </c:numCache>
@@ -1392,7 +1402,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1623,6 +1633,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1645,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1862,6 +1875,9 @@
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1037.9036096540467</c:v>
                 </c:pt>
               </c:numCache>
@@ -1905,7 +1921,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2136,6 +2152,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,7 +2164,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2375,6 +2394,9 @@
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>399.28543200589718</c:v>
                 </c:pt>
               </c:numCache>
@@ -2397,11 +2419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638249600"/>
-        <c:axId val="638300544"/>
+        <c:axId val="530457728"/>
+        <c:axId val="531284736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638249600"/>
+        <c:axId val="530457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,14 +2466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638300544"/>
+        <c:crossAx val="531284736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638300544"/>
+        <c:axId val="531284736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638249600"/>
+        <c:crossAx val="530457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,7 +2736,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2945,6 +2967,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,7 +2979,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3184,6 +3209,9 @@
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>948.41247862479781</c:v>
                 </c:pt>
               </c:numCache>
@@ -3227,7 +3255,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3458,6 +3486,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3498,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3698,6 +3729,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1730.3065395592596</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1727.687456623034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,7 +3774,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3971,6 +4005,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3980,7 +4017,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4211,6 +4248,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>781.89406093446178</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>779.27497799823618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,11 +4272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640616320"/>
-        <c:axId val="640617856"/>
+        <c:axId val="610122368"/>
+        <c:axId val="616571264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640616320"/>
+        <c:axId val="610122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,14 +4319,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640617856"/>
+        <c:crossAx val="616571264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640617856"/>
+        <c:axId val="616571264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4335,7 +4375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640616320"/>
+        <c:crossAx val="610122368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4549,7 +4589,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4780,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,7 +4832,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5019,6 +5062,9 @@
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>606.68726876574192</c:v>
                 </c:pt>
               </c:numCache>
@@ -5062,7 +5108,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5293,6 +5339,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,7 +5351,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5532,6 +5581,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5575,7 +5627,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5806,6 +5858,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,7 +5870,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6045,6 +6100,9 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
               </c:numCache>
@@ -6067,11 +6125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640935424"/>
-        <c:axId val="640936960"/>
+        <c:axId val="616596992"/>
+        <c:axId val="616598528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640935424"/>
+        <c:axId val="616596992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6114,14 +6172,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640936960"/>
+        <c:crossAx val="616598528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640936960"/>
+        <c:axId val="616598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6170,7 +6228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640935424"/>
+        <c:crossAx val="616596992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6384,7 +6442,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6615,6 +6673,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6624,7 +6685,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6854,6 +6915,9 @@
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>317.51541321901169</c:v>
                 </c:pt>
               </c:numCache>
@@ -6897,7 +6961,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7128,6 +7192,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7137,7 +7204,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7367,6 +7434,9 @@
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>513.19080303179044</c:v>
                 </c:pt>
               </c:numCache>
@@ -7410,7 +7480,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7641,6 +7711,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,7 +7723,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7880,6 +7953,9 @@
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>195.67538981277875</c:v>
                 </c:pt>
               </c:numCache>
@@ -7902,11 +7978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640991232"/>
-        <c:axId val="640993152"/>
+        <c:axId val="616903424"/>
+        <c:axId val="616905344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640991232"/>
+        <c:axId val="616903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,14 +8025,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640993152"/>
+        <c:crossAx val="616905344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640993152"/>
+        <c:axId val="616905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8005,7 +8081,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640991232"/>
+        <c:crossAx val="616903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8219,7 +8295,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8450,6 +8526,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8459,7 +8538,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8689,6 +8768,9 @@
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>127.90859509815668</c:v>
                 </c:pt>
               </c:numCache>
@@ -8732,7 +8814,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8963,6 +9045,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,7 +9057,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9202,6 +9287,9 @@
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>221.04391269211092</c:v>
                 </c:pt>
               </c:numCache>
@@ -9245,7 +9333,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9476,6 +9564,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9485,7 +9576,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9715,6 +9806,9 @@
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>93.135317593954241</c:v>
                 </c:pt>
               </c:numCache>
@@ -9737,11 +9831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641436672"/>
-        <c:axId val="641451136"/>
+        <c:axId val="617083264"/>
+        <c:axId val="617084800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="641436672"/>
+        <c:axId val="617083264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,14 +9878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641451136"/>
+        <c:crossAx val="617084800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641451136"/>
+        <c:axId val="617084800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9840,7 +9934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641436672"/>
+        <c:crossAx val="617083264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10054,7 +10148,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10285,6 +10379,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10294,7 +10391,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10524,6 +10621,9 @@
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>202.81260668024092</c:v>
                 </c:pt>
               </c:numCache>
@@ -10567,7 +10667,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10798,6 +10898,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10807,7 +10910,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11038,6 +11141,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>385.70297418766131</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>385.6873715600409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11080,7 +11186,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11311,6 +11417,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11320,7 +11429,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11551,6 +11660,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>182.89036750742039</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>182.87476487979998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11572,11 +11684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641755392"/>
-        <c:axId val="641975424"/>
+        <c:axId val="617413632"/>
+        <c:axId val="617436672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="641755392"/>
+        <c:axId val="617413632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11619,14 +11731,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641975424"/>
+        <c:crossAx val="617436672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641975424"/>
+        <c:axId val="617436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11675,7 +11787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641755392"/>
+        <c:crossAx val="617413632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11889,7 +12001,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12120,6 +12232,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12129,7 +12244,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12359,6 +12474,9 @@
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>121.51316534324882</c:v>
                 </c:pt>
               </c:numCache>
@@ -12402,7 +12520,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12633,6 +12751,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12642,7 +12763,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12872,6 +12993,9 @@
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>209.92137584310774</c:v>
                 </c:pt>
               </c:numCache>
@@ -12915,7 +13039,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13146,6 +13270,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13155,7 +13282,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13385,6 +13512,9 @@
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>88.408210499858924</c:v>
                 </c:pt>
               </c:numCache>
@@ -13407,11 +13537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654845824"/>
-        <c:axId val="654847360"/>
+        <c:axId val="617688448"/>
+        <c:axId val="617870464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654845824"/>
+        <c:axId val="617688448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13454,14 +13584,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654847360"/>
+        <c:crossAx val="617870464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654847360"/>
+        <c:axId val="617870464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13510,7 +13640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654845824"/>
+        <c:crossAx val="617688448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13724,7 +13854,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13955,6 +14085,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13964,7 +14097,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14194,6 +14327,9 @@
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>65.722120285934778</c:v>
                 </c:pt>
               </c:numCache>
@@ -14237,7 +14373,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14468,6 +14604,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14477,7 +14616,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14707,6 +14846,9 @@
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>111.55292633180204</c:v>
                 </c:pt>
               </c:numCache>
@@ -14750,7 +14892,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14981,6 +15123,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14990,7 +15135,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15220,6 +15365,9 @@
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
               </c:numCache>
@@ -15242,11 +15390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655778560"/>
-        <c:axId val="549842944"/>
+        <c:axId val="619048960"/>
+        <c:axId val="619052032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="655778560"/>
+        <c:axId val="619048960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15289,14 +15437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549842944"/>
+        <c:crossAx val="619052032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549842944"/>
+        <c:axId val="619052032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15345,7 +15493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655778560"/>
+        <c:crossAx val="619048960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15453,7 +15601,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15496,7 +15644,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15539,7 +15687,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15582,7 +15730,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15625,7 +15773,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15668,7 +15816,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15711,7 +15859,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15754,7 +15902,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16067,7 +16215,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19349,6 +19497,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>638.61817764814953</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="J81" s="22">
+        <v>399.28543200589718</v>
+      </c>
+      <c r="K81" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19365,7 +19548,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19538,7 +19721,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -23576,6 +23759,53 @@
         <v>58.40203652570424</v>
       </c>
       <c r="O80" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-0.271223196698192</v>
+      </c>
+      <c r="E81" s="22">
+        <v>-0.21855212280496919</v>
+      </c>
+      <c r="F81" s="22">
+        <v>43.432871776864118</v>
+      </c>
+      <c r="G81" s="22">
+        <v>53.900196318916414</v>
+      </c>
+      <c r="H81" s="22">
+        <v>948.41247862479781</v>
+      </c>
+      <c r="I81" s="22">
+        <v>1727.687456623034</v>
+      </c>
+      <c r="J81" s="22">
+        <v>779.27497799823618</v>
+      </c>
+      <c r="K81" s="21">
+        <v>1673.7872603041176</v>
+      </c>
+      <c r="L81" s="26">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="M81" s="27">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N81" s="27">
+        <v>45.644383786504008</v>
+      </c>
+      <c r="O81" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -23597,7 +23827,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28003,6 +28233,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="81" spans="1:16" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>606.68726876574192</v>
+      </c>
+      <c r="I81" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J81" s="22">
+        <v>389.36329485505701</v>
+      </c>
+      <c r="K81" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L81" s="26">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="M81" s="27">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="N81" s="27">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="O81" s="27">
+        <v>49.725162677307495</v>
+      </c>
+      <c r="P81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -28021,7 +28301,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31780,6 +32060,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="81" spans="1:13" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="20">
+        <v>336800</v>
+      </c>
+      <c r="E81" s="20">
+        <v>2097484.440812361</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>317.51541321901169</v>
+      </c>
+      <c r="K81" s="22">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="L81" s="22">
+        <v>195.67538981277875</v>
+      </c>
+      <c r="M81" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -31798,7 +32119,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35080,6 +35401,41 @@
         <v>221.04391269211092</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>127.90859509815668</v>
+      </c>
+      <c r="I81" s="22">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="J81" s="22">
+        <v>93.135317593954241</v>
+      </c>
+      <c r="K81" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -35096,7 +35452,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35138,7 +35494,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -39307,6 +39663,53 @@
         <v>58.40203652570424</v>
       </c>
       <c r="O80" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="21">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-8.0224939566690863E-3</v>
+      </c>
+      <c r="E81" s="22">
+        <v>-6.4645395591702102E-3</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0.25357950211197416</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0.31469217638906316</v>
+      </c>
+      <c r="H81" s="22">
+        <v>202.81260668024092</v>
+      </c>
+      <c r="I81" s="22">
+        <v>385.6873715600409</v>
+      </c>
+      <c r="J81" s="22">
+        <v>182.87476487979998</v>
+      </c>
+      <c r="K81" s="21">
+        <v>385.37267938365181</v>
+      </c>
+      <c r="L81" s="26">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="M81" s="27">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N81" s="27">
+        <v>45.644383786504008</v>
+      </c>
+      <c r="O81" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -39328,7 +39731,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43733,6 +44136,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="81" spans="1:16" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>121.51316534324882</v>
+      </c>
+      <c r="I81" s="22">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="J81" s="22">
+        <v>88.408210499858924</v>
+      </c>
+      <c r="K81" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L81" s="26">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="M81" s="27">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="N81" s="27">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="O81" s="27">
+        <v>49.725162677307495</v>
+      </c>
+      <c r="P81" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43751,7 +44204,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43924,7 +44377,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -47507,6 +47960,47 @@
         <v>45.830806045867263</v>
       </c>
       <c r="M80" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.75">
+      <c r="A81" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.2114211188663961</v>
+      </c>
+      <c r="D81" s="20">
+        <v>336800</v>
+      </c>
+      <c r="E81" s="20">
+        <v>2097484.440812361</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>65.722120285934778</v>
+      </c>
+      <c r="K81" s="22">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="L81" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M81" s="21">
         <v>111.55292633180204</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -191,10 +183,6 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,7 +871,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1117,6 +1105,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1117,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1360,6 +1351,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>638.61817764814953</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>640.54557679566869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,7 +1396,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1636,6 +1630,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,7 +1642,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1879,6 +1876,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1037.9036096540467</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1039.831008801566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1921,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2155,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,7 +2167,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2398,6 +2401,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>399.28543200589718</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>399.28543200589729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530457728"/>
-        <c:axId val="531284736"/>
+        <c:axId val="573243776"/>
+        <c:axId val="573245312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530457728"/>
+        <c:axId val="573243776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,14 +2472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531284736"/>
+        <c:crossAx val="573245312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531284736"/>
+        <c:axId val="573245312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530457728"/>
+        <c:crossAx val="573243776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2736,7 +2742,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2970,6 +2976,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,7 +2988,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3213,6 +3222,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>948.41247862479781</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>950.24350781494104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,7 +3267,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3489,6 +3501,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,7 +3513,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3732,6 +3747,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1727.687456623034</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1726.7486187892623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,7 +3792,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4008,6 +4026,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,7 +4038,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4251,6 +4272,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>779.27497799823618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>776.50511097432127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,11 +4296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610122368"/>
-        <c:axId val="616571264"/>
+        <c:axId val="573291136"/>
+        <c:axId val="573879424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610122368"/>
+        <c:axId val="573291136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,14 +4343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616571264"/>
+        <c:crossAx val="573879424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616571264"/>
+        <c:axId val="573879424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610122368"/>
+        <c:crossAx val="573291136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,7 +4613,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4823,6 +4847,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +4859,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5066,6 +5093,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>606.68726876574192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>608.51829795588515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5108,7 +5138,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5342,6 +5372,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5351,7 +5384,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5584,6 +5617,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5627,7 +5663,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5861,6 +5897,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,7 +5909,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6104,6 +6143,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>389.36329485505701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>387.53226566491378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,11 +6167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616596992"/>
-        <c:axId val="616598528"/>
+        <c:axId val="574765312"/>
+        <c:axId val="574771968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616596992"/>
+        <c:axId val="574765312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,14 +6214,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616598528"/>
+        <c:crossAx val="574771968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616598528"/>
+        <c:axId val="574771968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,7 +6270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616596992"/>
+        <c:crossAx val="574765312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6442,7 +6484,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6676,6 +6718,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6685,7 +6730,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6919,6 +6964,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>317.51541321901169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317.73541628871601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6961,7 +7009,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7195,6 +7243,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7204,7 +7255,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7438,6 +7489,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>513.19080303179044</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>513.4108061014947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,7 +7534,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7714,6 +7768,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7723,7 +7780,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7957,6 +8014,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>195.67538981277875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>195.67538981277869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7978,11 +8038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616903424"/>
-        <c:axId val="616905344"/>
+        <c:axId val="595834752"/>
+        <c:axId val="595836288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616903424"/>
+        <c:axId val="595834752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,14 +8085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616905344"/>
+        <c:crossAx val="595836288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616905344"/>
+        <c:axId val="595836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8081,7 +8141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616903424"/>
+        <c:crossAx val="595834752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8295,7 +8355,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8529,6 +8589,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8538,7 +8601,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8772,6 +8835,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>127.90859509815668</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>127.97656108776468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8814,7 +8880,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9048,6 +9114,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9057,7 +9126,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9291,6 +9360,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>221.04391269211092</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>221.11187868171891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9333,7 +9405,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9567,6 +9639,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9576,7 +9651,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9810,6 +9885,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>93.135317593954241</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>93.135317593954227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9831,11 +9909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617083264"/>
-        <c:axId val="617084800"/>
+        <c:axId val="596570496"/>
+        <c:axId val="596572416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617083264"/>
+        <c:axId val="596570496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9878,14 +9956,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617084800"/>
+        <c:crossAx val="596572416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617084800"/>
+        <c:axId val="596572416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9934,7 +10012,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617083264"/>
+        <c:crossAx val="596570496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10148,7 +10226,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10382,6 +10460,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10391,7 +10472,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10625,6 +10706,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>202.81260668024092</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>202.87717437036852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,7 +10751,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10901,6 +10985,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10910,7 +10997,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11143,7 +11230,10 @@
                   <c:v>385.70297418766131</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>385.6873715600409</c:v>
+                  <c:v>385.68737156004084</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>385.73703230092593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11186,7 +11276,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11420,6 +11510,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,7 +11522,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11662,7 +11755,10 @@
                   <c:v>182.89036750742039</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>182.87476487979998</c:v>
+                  <c:v>182.87476487979993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>182.85985793055741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11684,11 +11780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617413632"/>
-        <c:axId val="617436672"/>
+        <c:axId val="667362048"/>
+        <c:axId val="667363584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617413632"/>
+        <c:axId val="667362048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11731,14 +11827,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617436672"/>
+        <c:crossAx val="667363584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617436672"/>
+        <c:axId val="667363584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11787,7 +11883,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617413632"/>
+        <c:crossAx val="667362048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12001,7 +12097,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12235,6 +12331,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12244,7 +12343,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12478,6 +12577,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>121.51316534324882</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>121.5777330333764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12520,7 +12622,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12754,6 +12856,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12763,7 +12868,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12997,6 +13102,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>209.92137584310774</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>209.98594353323534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13039,7 +13147,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13273,6 +13381,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13282,7 +13393,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13516,6 +13627,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>88.408210499858924</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88.408210499858939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13537,11 +13651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617688448"/>
-        <c:axId val="617870464"/>
+        <c:axId val="669753728"/>
+        <c:axId val="669755264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617688448"/>
+        <c:axId val="669753728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13584,14 +13698,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617870464"/>
+        <c:crossAx val="669755264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617870464"/>
+        <c:axId val="669755264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13640,7 +13754,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617688448"/>
+        <c:crossAx val="669753728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13854,7 +13968,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14088,6 +14202,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14097,7 +14214,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14331,6 +14448,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>65.722120285934778</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65.729878267133685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14373,7 +14493,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14607,6 +14727,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14616,7 +14739,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14850,6 +14973,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>111.55292633180204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>111.56068431300095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14892,7 +15018,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15126,6 +15252,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15135,7 +15264,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15368,6 +15497,9 @@
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>45.830806045867263</c:v>
                 </c:pt>
               </c:numCache>
@@ -15390,11 +15522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619048960"/>
-        <c:axId val="619052032"/>
+        <c:axId val="669798400"/>
+        <c:axId val="669800320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619048960"/>
+        <c:axId val="669798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15437,14 +15569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619052032"/>
+        <c:crossAx val="669800320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619052032"/>
+        <c:axId val="669800320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15493,7 +15625,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619048960"/>
+        <c:crossAx val="669798400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16212,10 +16344,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19532,6 +19662,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.9273991475192054</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1.638944854661756</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1.638944854661756</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1.9273991475192054</v>
+      </c>
+      <c r="H82" s="22">
+        <v>640.54557679566869</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1039.831008801566</v>
+      </c>
+      <c r="J82" s="22">
+        <v>399.28543200589729</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19548,7 +19713,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19590,7 +19755,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -19623,16 +19788,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23609,13 +23774,13 @@
         <v>1643.643776540021</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -23656,13 +23821,13 @@
         <v>1661.1894275095126</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -23703,13 +23868,13 @@
         <v>1671.00388647109</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -23750,13 +23915,13 @@
         <v>1673.5160371074194</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -23773,16 +23938,16 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-0.271223196698192</v>
+        <v>-1.288310184316412</v>
       </c>
       <c r="E81" s="22">
-        <v>-0.21855212280496919</v>
+        <v>-1.0381225833236036</v>
       </c>
       <c r="F81" s="22">
-        <v>43.432871776864118</v>
+        <v>42.613301316345485</v>
       </c>
       <c r="G81" s="22">
-        <v>53.900196318916414</v>
+        <v>52.883109331298193</v>
       </c>
       <c r="H81" s="22">
         <v>948.41247862479781</v>
@@ -23794,19 +23959,66 @@
         <v>779.27497799823618</v>
       </c>
       <c r="K81" s="21">
-        <v>1673.7872603041176</v>
+        <v>1674.8043472917359</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>1.5569976119286679</v>
+      </c>
+      <c r="F82" s="22">
+        <v>44.17029892827415</v>
+      </c>
+      <c r="G82" s="22">
+        <v>51.944271497526323</v>
+      </c>
+      <c r="H82" s="22">
+        <v>950.24350781494104</v>
+      </c>
+      <c r="I82" s="22">
+        <v>1726.7486187892623</v>
+      </c>
+      <c r="J82" s="22">
+        <v>776.50511097432127</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -23824,10 +24036,8 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23902,19 +24112,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28068,16 +28278,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -28118,16 +28328,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -28168,16 +28378,16 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -28218,19 +28428,19 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -28268,19 +28478,69 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.8310291901432449</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>608.51829795588515</v>
+      </c>
+      <c r="I82" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J82" s="22">
+        <v>387.53226566491378</v>
+      </c>
+      <c r="K82" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -28298,10 +28558,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28357,10 +28615,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32101,6 +32359,47 @@
         <v>513.19080303179044</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="H82" s="22">
+        <v>0.18707744037644836</v>
+      </c>
+      <c r="I82" s="22">
+        <v>0.22000306970429231</v>
+      </c>
+      <c r="J82" s="22">
+        <v>317.73541628871601</v>
+      </c>
+      <c r="K82" s="22">
+        <v>513.4108061014947</v>
+      </c>
+      <c r="L82" s="22">
+        <v>195.67538981277869</v>
+      </c>
+      <c r="M82" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">
@@ -32116,10 +32415,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32161,7 +32458,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -35433,6 +35730,41 @@
         <v>93.135317593954241</v>
       </c>
       <c r="K81" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>6.7965989607992341E-2</v>
+      </c>
+      <c r="E82" s="22">
+        <v>5.7794208897201695E-2</v>
+      </c>
+      <c r="F82" s="22">
+        <v>5.7794208897201695E-2</v>
+      </c>
+      <c r="G82" s="22">
+        <v>6.7965989607992341E-2</v>
+      </c>
+      <c r="H82" s="22">
+        <v>127.97656108776468</v>
+      </c>
+      <c r="I82" s="22">
+        <v>221.11187868171891</v>
+      </c>
+      <c r="J82" s="22">
+        <v>93.135317593954227</v>
+      </c>
+      <c r="K82" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -35452,7 +35784,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35494,7 +35826,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -35527,16 +35859,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -39513,13 +39845,13 @@
         <v>379.21801093174309</v>
       </c>
       <c r="L77" s="26">
-        <v>5.5983571383853049E-2</v>
+        <v>4.9152973769025082E-2</v>
       </c>
       <c r="M77" s="27">
-        <v>8.3802011708645194E-2</v>
+        <v>7.2335007373018539E-2</v>
       </c>
       <c r="N77" s="27">
-        <v>66.8045673873455</v>
+        <v>67.951847320001079</v>
       </c>
       <c r="O77" s="27">
         <v>0.2</v>
@@ -39560,13 +39892,13 @@
         <v>383.39221216262808</v>
       </c>
       <c r="L78" s="26">
-        <v>4.9152973769025082E-2</v>
+        <v>4.3127480048202861E-2</v>
       </c>
       <c r="M78" s="27">
-        <v>7.2335007373018539E-2</v>
+        <v>6.2445841384864087E-2</v>
       </c>
       <c r="N78" s="27">
-        <v>67.951847320001079</v>
+        <v>69.063814485901545</v>
       </c>
       <c r="O78" s="27">
         <v>0.2</v>
@@ -39607,13 +39939,13 @@
         <v>385.13851153599683</v>
       </c>
       <c r="L79" s="26">
-        <v>4.3127480048202861E-2</v>
+        <v>3.5939566706835714E-2</v>
       </c>
       <c r="M79" s="27">
-        <v>6.2445841384864087E-2</v>
+        <v>6.153820798871934E-2</v>
       </c>
       <c r="N79" s="27">
-        <v>69.063814485901545</v>
+        <v>58.40203652570424</v>
       </c>
       <c r="O79" s="27">
         <v>0.2</v>
@@ -39654,13 +39986,13 @@
         <v>385.36465688969514</v>
       </c>
       <c r="L80" s="26">
-        <v>3.5939566706835714E-2</v>
+        <v>2.9949638922363093E-2</v>
       </c>
       <c r="M80" s="27">
-        <v>6.153820798871934E-2</v>
+        <v>6.561516760188689E-2</v>
       </c>
       <c r="N80" s="27">
-        <v>58.40203652570424</v>
+        <v>45.644383786504008</v>
       </c>
       <c r="O80" s="27">
         <v>0.2</v>
@@ -39677,40 +40009,87 @@
         <v>1.2114211188663961</v>
       </c>
       <c r="D81" s="21">
-        <v>-8.0224939566690863E-3</v>
+        <v>-3.8106846294178154E-2</v>
       </c>
       <c r="E81" s="22">
-        <v>-6.4645395591702102E-3</v>
+        <v>-3.0706562906058495E-2</v>
       </c>
       <c r="F81" s="22">
-        <v>0.25357950211197416</v>
+        <v>0.22933747876508587</v>
       </c>
       <c r="G81" s="22">
-        <v>0.31469217638906316</v>
+        <v>0.2846078240515541</v>
       </c>
       <c r="H81" s="22">
         <v>202.81260668024092</v>
       </c>
       <c r="I81" s="22">
-        <v>385.6873715600409</v>
+        <v>385.68737156004084</v>
       </c>
       <c r="J81" s="22">
-        <v>182.87476487979998</v>
+        <v>182.87476487979993</v>
       </c>
       <c r="K81" s="21">
-        <v>385.37267938365181</v>
+        <v>385.40276373598931</v>
       </c>
       <c r="L81" s="26">
-        <v>2.9949638922363093E-2</v>
+        <v>2.4958032435302577E-2</v>
       </c>
       <c r="M81" s="27">
-        <v>6.561516760188689E-2</v>
+        <v>6.4679296798162575E-2</v>
       </c>
       <c r="N81" s="27">
-        <v>45.644383786504008</v>
+        <v>38.587358970809944</v>
       </c>
       <c r="O81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="21">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>6.4567690127592725E-2</v>
+      </c>
+      <c r="E82" s="22">
+        <v>5.4904498452341612E-2</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0.2842419772174275</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0.33426856493662049</v>
+      </c>
+      <c r="H82" s="22">
+        <v>202.87717437036852</v>
+      </c>
+      <c r="I82" s="22">
+        <v>385.73703230092593</v>
+      </c>
+      <c r="J82" s="22">
+        <v>182.85985793055741</v>
+      </c>
+      <c r="K82" s="21">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="L82" s="26">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="M82" s="27">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N82" s="27">
+        <v>38.587358970809944</v>
+      </c>
+      <c r="O82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -39728,10 +40107,8 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39806,19 +40183,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43971,16 +44348,16 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L77" s="26">
-        <v>68.835098442807833</v>
+        <v>71.104385321535176</v>
       </c>
       <c r="M77" s="27">
-        <v>68.645170694118619</v>
+        <v>69.464908903257466</v>
       </c>
       <c r="N77" s="27">
-        <v>55.559808615747677</v>
+        <v>60.194842044917607</v>
       </c>
       <c r="O77" s="27">
-        <v>94.815894850860488</v>
+        <v>88.005042619937171</v>
       </c>
       <c r="P77" s="27">
         <v>0.95</v>
@@ -44021,16 +44398,16 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L78" s="26">
-        <v>71.104385321535176</v>
+        <v>73.071104223370014</v>
       </c>
       <c r="M78" s="27">
-        <v>69.464908903257466</v>
+        <v>70.666974009961649</v>
       </c>
       <c r="N78" s="27">
-        <v>60.194842044917607</v>
+        <v>63.685552699932288</v>
       </c>
       <c r="O78" s="27">
-        <v>88.005042619937171</v>
+        <v>84.629816630020372</v>
       </c>
       <c r="P78" s="27">
         <v>0.95</v>
@@ -44071,16 +44448,16 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L79" s="26">
-        <v>73.071104223370014</v>
+        <v>58.110511427528067</v>
       </c>
       <c r="M79" s="27">
-        <v>70.666974009961649</v>
+        <v>66.481486482483788</v>
       </c>
       <c r="N79" s="27">
-        <v>63.685552699932288</v>
+        <v>64.617530627449455</v>
       </c>
       <c r="O79" s="27">
-        <v>84.629816630020372</v>
+        <v>70.20939819255247</v>
       </c>
       <c r="P79" s="27">
         <v>0.95</v>
@@ -44121,19 +44498,19 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L80" s="26">
-        <v>58.110511427528067</v>
+        <v>41.742288695769702</v>
       </c>
       <c r="M80" s="27">
-        <v>66.481486482483788</v>
+        <v>58.235087220245759</v>
       </c>
       <c r="N80" s="27">
-        <v>64.617530627449455</v>
+        <v>62.490049491714892</v>
       </c>
       <c r="O80" s="27">
-        <v>70.20939819255247</v>
+        <v>49.725162677307495</v>
       </c>
       <c r="P80" s="27">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75">
@@ -44171,19 +44548,69 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L81" s="26">
-        <v>41.742288695769702</v>
+        <v>30.853007280392731</v>
       </c>
       <c r="M81" s="27">
-        <v>58.235087220245759</v>
+        <v>49.107727240294743</v>
       </c>
       <c r="N81" s="27">
-        <v>62.490049491714892</v>
+        <v>58.02927540790818</v>
       </c>
       <c r="O81" s="27">
-        <v>49.725162677307495</v>
+        <v>31.264630905067875</v>
       </c>
       <c r="P81" s="27">
-        <v>0.2</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="21">
+        <v>6.4567690127592725E-2</v>
+      </c>
+      <c r="E82" s="22">
+        <v>5.4904498452341612E-2</v>
+      </c>
+      <c r="F82" s="22">
+        <v>5.4904498452341612E-2</v>
+      </c>
+      <c r="G82" s="22">
+        <v>6.4567690127592725E-2</v>
+      </c>
+      <c r="H82" s="22">
+        <v>121.5777330333764</v>
+      </c>
+      <c r="I82" s="22">
+        <v>209.98594353323534</v>
+      </c>
+      <c r="J82" s="22">
+        <v>88.408210499858939</v>
+      </c>
+      <c r="K82" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L82" s="26">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="M82" s="27">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="N82" s="27">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="O82" s="27">
+        <v>31.264630905067875</v>
+      </c>
+      <c r="P82" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -44201,10 +44628,8 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44260,10 +44685,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -44377,7 +44802,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>13</v>
@@ -48001,6 +48426,47 @@
         <v>45.830806045867263</v>
       </c>
       <c r="M81" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="12.75">
+      <c r="A82" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.2112630579179002</v>
+      </c>
+      <c r="D82" s="20">
+        <v>237500</v>
+      </c>
+      <c r="E82" s="20">
+        <v>2080685.9565690882</v>
+      </c>
+      <c r="F82" s="21">
+        <v>7.7579811989095804E-3</v>
+      </c>
+      <c r="G82" s="22">
+        <v>6.5969227935381769E-3</v>
+      </c>
+      <c r="H82" s="22">
+        <v>6.5969227935381769E-3</v>
+      </c>
+      <c r="I82" s="22">
+        <v>7.7579811989095804E-3</v>
+      </c>
+      <c r="J82" s="22">
+        <v>65.729878267133685</v>
+      </c>
+      <c r="K82" s="22">
+        <v>111.56068431300095</v>
+      </c>
+      <c r="L82" s="22">
+        <v>45.830806045867263</v>
+      </c>
+      <c r="M82" s="21">
         <v>111.55292633180204</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -143,6 +143,14 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMA之MAX</t>
@@ -871,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1108,6 +1116,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,7 +1131,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1354,6 +1368,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>640.54557679566869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>640.59237487532187</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>640.68070588965088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,7 +1416,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1633,6 +1653,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1668,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1879,6 +1905,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1039.831008801566</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1039.9269751799684</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1040.0119507390311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1953,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2158,6 +2190,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2167,7 +2205,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2404,6 +2442,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>399.28543200589729</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>399.33460030464653</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>399.33124484938025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,11 +2469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573243776"/>
-        <c:axId val="573245312"/>
+        <c:axId val="534726912"/>
+        <c:axId val="534862464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573243776"/>
+        <c:axId val="534726912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,14 +2516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573245312"/>
+        <c:crossAx val="534862464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573245312"/>
+        <c:axId val="534862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573243776"/>
+        <c:crossAx val="534726912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2742,7 +2786,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2979,6 +3023,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +3038,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3225,6 +3275,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>950.24350781494104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>950.28796599061161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>950.37188045422408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,7 +3323,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3504,6 +3560,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3513,7 +3575,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3750,6 +3812,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1726.7486187892623</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1728.1181846690586</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1728.1136859447943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3860,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4029,6 +4097,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4038,7 +4112,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4275,6 +4349,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>776.50511097432127</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>777.83021867844695</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>777.74180549057019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,11 +4376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573291136"/>
-        <c:axId val="573879424"/>
+        <c:axId val="602110592"/>
+        <c:axId val="602169728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573291136"/>
+        <c:axId val="602110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,14 +4423,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573879424"/>
+        <c:crossAx val="602169728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573879424"/>
+        <c:axId val="602169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,7 +4479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573291136"/>
+        <c:crossAx val="602110592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4613,7 +4693,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4850,6 +4930,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,7 +4945,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5096,6 +5182,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>608.51829795588515</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>608.56275613155572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>608.64667059516819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5138,7 +5230,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5375,6 +5467,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5384,7 +5482,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5620,6 +5718,12 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5663,7 +5767,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5900,6 +6004,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5909,7 +6019,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6146,6 +6256,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>387.53226566491378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>387.48780748924321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>387.40389302563074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,11 +6283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574765312"/>
-        <c:axId val="574771968"/>
+        <c:axId val="603579520"/>
+        <c:axId val="603581056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574765312"/>
+        <c:axId val="603579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6214,14 +6330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574771968"/>
+        <c:crossAx val="603581056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574771968"/>
+        <c:axId val="603581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574765312"/>
+        <c:crossAx val="603579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6484,7 +6600,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6721,6 +6837,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6730,7 +6852,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6967,6 +7089,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>317.73541628871601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>317.74076568201389</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>317.75778856327963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7009,7 +7137,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7246,6 +7374,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7255,7 +7389,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7492,6 +7626,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>513.4108061014947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>513.42176781265152</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>513.43840767266863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7534,7 +7674,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7771,6 +7911,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7780,7 +7926,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8017,6 +8163,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>195.67538981277869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>195.68100213063764</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>195.680619109389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8038,11 +8190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595834752"/>
-        <c:axId val="595836288"/>
+        <c:axId val="607764864"/>
+        <c:axId val="607766400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595834752"/>
+        <c:axId val="607764864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8085,14 +8237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595836288"/>
+        <c:crossAx val="607766400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595836288"/>
+        <c:axId val="607766400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8141,7 +8293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595834752"/>
+        <c:crossAx val="607764864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8355,7 +8507,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8592,6 +8744,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8601,7 +8759,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8838,6 +8996,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>127.97656108776468</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>127.97681823164866</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>127.97748504452456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8880,7 +9044,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9117,6 +9281,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9126,7 +9296,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9363,6 +9533,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>221.11187868171891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>221.11386965021632</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>221.11442044972711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9405,7 +9581,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9642,6 +9818,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9651,7 +9833,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9888,6 +10070,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>93.135317593954227</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>93.137051418567651</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>93.13693540520255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9909,11 +10097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596570496"/>
-        <c:axId val="596572416"/>
+        <c:axId val="607840512"/>
+        <c:axId val="608075776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596570496"/>
+        <c:axId val="607840512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9956,14 +10144,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596572416"/>
+        <c:crossAx val="608075776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596572416"/>
+        <c:axId val="608075776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10012,7 +10200,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596570496"/>
+        <c:crossAx val="607840512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10226,7 +10414,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10463,6 +10651,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10472,7 +10666,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10709,6 +10903,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>202.87717437036852</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>202.87741865705831</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>202.87805212929041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10751,7 +10951,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10988,6 +11188,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10997,7 +11203,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11234,6 +11440,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>385.73703230092593</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>385.74580383879999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>385.74586842928301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11276,7 +11488,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11513,6 +11725,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11522,7 +11740,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11759,6 +11977,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>182.85985793055741</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>182.86838518174167</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>182.8678162999926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11780,11 +12004,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="667362048"/>
-        <c:axId val="667363584"/>
+        <c:axId val="608663424"/>
+        <c:axId val="608664960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="667362048"/>
+        <c:axId val="608663424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11827,14 +12051,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667363584"/>
+        <c:crossAx val="608664960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="667363584"/>
+        <c:axId val="608664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11883,7 +12107,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667362048"/>
+        <c:crossAx val="608663424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12097,7 +12321,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12334,6 +12558,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12343,7 +12573,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12580,6 +12810,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>121.5777330333764</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>121.57797732006618</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>121.57861079229829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12622,7 +12858,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12859,6 +13095,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12868,7 +13110,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13105,6 +13347,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>209.98594353323534</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>209.98783495330787</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>209.98835821284311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13147,7 +13395,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13384,6 +13632,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13393,7 +13647,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13630,6 +13884,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>88.408210499858939</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>88.409857633241685</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>88.409747420544818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13651,11 +13911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669753728"/>
-        <c:axId val="669755264"/>
+        <c:axId val="608899456"/>
+        <c:axId val="608900992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669753728"/>
+        <c:axId val="608899456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13698,14 +13958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669755264"/>
+        <c:crossAx val="608900992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669755264"/>
+        <c:axId val="608900992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13754,7 +14014,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669753728"/>
+        <c:crossAx val="608899456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13968,7 +14228,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14205,6 +14465,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14214,7 +14480,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14451,6 +14717,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>65.729878267133685</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.729907660728031</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>65.730036166853537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14493,7 +14765,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14730,6 +15002,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14739,7 +15017,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14976,6 +15254,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>111.56068431300095</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>111.56091161409036</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>111.56102687779517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15018,7 +15302,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15255,6 +15539,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15264,7 +15554,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15501,6 +15791,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45.830806045867263</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.831003953362327</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.830990710941634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15522,11 +15818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669798400"/>
-        <c:axId val="669800320"/>
+        <c:axId val="618904576"/>
+        <c:axId val="618910848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669798400"/>
+        <c:axId val="618904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15569,14 +15865,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669800320"/>
+        <c:crossAx val="618910848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669800320"/>
+        <c:axId val="618910848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15625,7 +15921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669798400"/>
+        <c:crossAx val="618904576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15733,7 +16029,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15761,22 +16057,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15819,7 +16115,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15862,7 +16158,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15905,7 +16201,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15948,7 +16244,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15991,7 +16287,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16034,7 +16330,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16345,7 +16641,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19697,6 +19993,76 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.6798079653182528E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3.8804378773127236E-2</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1.6777492334348831</v>
+      </c>
+      <c r="G83" s="22">
+        <v>2.0233655259216521</v>
+      </c>
+      <c r="H83" s="22">
+        <v>640.59237487532187</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1039.9269751799684</v>
+      </c>
+      <c r="J83" s="22">
+        <v>399.33460030464653</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.8331014328970323E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>7.3364630073782536E-2</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1.7511138635086656</v>
+      </c>
+      <c r="G84" s="22">
+        <v>2.1083410849844642</v>
+      </c>
+      <c r="H84" s="22">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1040.0119507390311</v>
+      </c>
+      <c r="J84" s="22">
+        <v>399.33124484938025</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -19713,7 +20079,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19755,7 +20121,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -19788,16 +20154,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -20389,7 +20755,7 @@
         <v>0.89945005661134425</v>
       </c>
       <c r="X9" s="9">
-        <v>0.18231906499101025</v>
+        <v>0.18265924412834744</v>
       </c>
       <c r="AH9" s="2">
         <f>IRR(AH4:AH8)</f>
@@ -20811,7 +21177,7 @@
         <v>44561</v>
       </c>
       <c r="AB15" s="1">
-        <v>1579.9723250738123</v>
+        <v>1581.717080642338</v>
       </c>
       <c r="AC15" s="29">
         <v>44925</v>
@@ -20873,7 +21239,7 @@
       <c r="P16" s="27"/>
       <c r="AB16" s="2">
         <f>IRR(AB10:AB15)</f>
-        <v>0.18231906499101025</v>
+        <v>0.18265924412834744</v>
       </c>
       <c r="AC16" s="29">
         <v>44925</v>
@@ -24009,15 +24375,109 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3.6864159834470875E-2</v>
+      </c>
+      <c r="F83" s="22">
+        <v>44.207163088108622</v>
+      </c>
+      <c r="G83" s="22">
+        <v>53.313837377322685</v>
+      </c>
+      <c r="H83" s="22">
+        <v>950.28796599061161</v>
+      </c>
+      <c r="I83" s="22">
+        <v>1728.1181846690586</v>
+      </c>
+      <c r="J83" s="22">
+        <v>777.83021867844695</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>6.969639857009341E-2</v>
+      </c>
+      <c r="F84" s="22">
+        <v>44.276859486678717</v>
+      </c>
+      <c r="G84" s="22">
+        <v>53.309338653058362</v>
+      </c>
+      <c r="H84" s="22">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="I84" s="22">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="J84" s="22">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -24037,7 +24497,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24079,7 +24539,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -24112,19 +24572,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28528,18 +28988,118 @@
         <v>996.05056362079893</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>4.4458175670523403E-2</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>608.56275613155572</v>
+      </c>
+      <c r="I83" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J83" s="22">
+        <v>387.48780748924321</v>
+      </c>
+      <c r="K83" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>8.3914463612521806E-2</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="I84" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J84" s="22">
+        <v>387.40389302563074</v>
+      </c>
+      <c r="K84" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -28559,7 +29119,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28606,7 +29166,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -28615,10 +29175,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32397,6 +32957,88 @@
         <v>195.67538981277869</v>
       </c>
       <c r="M82" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>5.3493932978510546E-3</v>
+      </c>
+      <c r="G83" s="22">
+        <v>4.4356496094412707E-3</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0.19151308998588962</v>
+      </c>
+      <c r="I83" s="22">
+        <v>0.2309647808611083</v>
+      </c>
+      <c r="J83" s="22">
+        <v>317.74076568201389</v>
+      </c>
+      <c r="K83" s="22">
+        <v>513.42176781265152</v>
+      </c>
+      <c r="L83" s="22">
+        <v>195.68100213063764</v>
+      </c>
+      <c r="M83" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1.7022881265750859E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.4138605747246976E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0.2056516957331366</v>
+      </c>
+      <c r="I84" s="22">
+        <v>0.2476046408781975</v>
+      </c>
+      <c r="J84" s="22">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="K84" s="22">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="L84" s="22">
+        <v>195.680619109389</v>
+      </c>
+      <c r="M84" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -32416,7 +33058,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32458,7 +33100,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -35765,6 +36407,76 @@
         <v>93.135317593954227</v>
       </c>
       <c r="K82" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>2.5714388398077079E-4</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2.1322047287263709E-4</v>
+      </c>
+      <c r="F83" s="22">
+        <v>5.8007429370074332E-2</v>
+      </c>
+      <c r="G83" s="22">
+        <v>6.9956958105383577E-2</v>
+      </c>
+      <c r="H83" s="22">
+        <v>127.97681823164866</v>
+      </c>
+      <c r="I83" s="22">
+        <v>221.11386965021632</v>
+      </c>
+      <c r="J83" s="22">
+        <v>93.137051418567651</v>
+      </c>
+      <c r="K83" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>6.6681287589806222E-4</v>
+      </c>
+      <c r="E84" s="22">
+        <v>5.538312940288712E-4</v>
+      </c>
+      <c r="F84" s="22">
+        <v>5.85612606641032E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>7.0507757616186773E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <v>127.97748504452456</v>
+      </c>
+      <c r="I84" s="22">
+        <v>221.11442044972711</v>
+      </c>
+      <c r="J84" s="22">
+        <v>93.13693540520255</v>
+      </c>
+      <c r="K84" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -35784,7 +36496,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35826,7 +36538,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -35859,16 +36571,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -40080,15 +40792,109 @@
         <v>385.40276373598931</v>
       </c>
       <c r="L82" s="26">
-        <v>2.4958032435302577E-2</v>
+        <v>2.0798360362752146E-2</v>
       </c>
       <c r="M82" s="27">
-        <v>6.4679296798162575E-2</v>
+        <v>6.4732756868545308E-2</v>
       </c>
       <c r="N82" s="27">
-        <v>38.587358970809944</v>
+        <v>32.129576073807549</v>
       </c>
       <c r="O82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="21">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>2.4428668978173225E-4</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2.0255944922900523E-4</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0.28444453666665648</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0.3430401028106968</v>
+      </c>
+      <c r="H83" s="22">
+        <v>202.87741865705831</v>
+      </c>
+      <c r="I83" s="22">
+        <v>385.74580383879999</v>
+      </c>
+      <c r="J83" s="22">
+        <v>182.86838518174167</v>
+      </c>
+      <c r="K83" s="21">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="L83" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M83" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N83" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="21">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>6.3347223210315912E-4</v>
+      </c>
+      <c r="E84" s="22">
+        <v>5.2613972932742767E-4</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0.28497067639598389</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0.34310469329368776</v>
+      </c>
+      <c r="H84" s="22">
+        <v>202.87805212929041</v>
+      </c>
+      <c r="I84" s="22">
+        <v>385.74586842928301</v>
+      </c>
+      <c r="J84" s="22">
+        <v>182.8678162999926</v>
+      </c>
+      <c r="K84" s="21">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="L84" s="26">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="M84" s="27">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N84" s="27">
+        <v>37.886769857434714</v>
+      </c>
+      <c r="O84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -40108,7 +40914,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40150,7 +40956,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -40183,19 +40989,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44598,18 +45404,118 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L82" s="26">
-        <v>30.853007280392731</v>
+        <v>9.3495941806654201</v>
       </c>
       <c r="M82" s="27">
-        <v>49.107727240294743</v>
+        <v>35.8550162204183</v>
       </c>
       <c r="N82" s="27">
-        <v>58.02927540790818</v>
+        <v>50.637855678744891</v>
       </c>
       <c r="O82" s="27">
-        <v>31.264630905067875</v>
+        <v>6.289337303765123</v>
       </c>
       <c r="P82" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="21">
+        <v>2.4428668978173225E-4</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2.0255944922900523E-4</v>
+      </c>
+      <c r="F83" s="22">
+        <v>5.5107057901570618E-2</v>
+      </c>
+      <c r="G83" s="22">
+        <v>6.6459110200114413E-2</v>
+      </c>
+      <c r="H83" s="22">
+        <v>121.57797732006618</v>
+      </c>
+      <c r="I83" s="22">
+        <v>209.98783495330787</v>
+      </c>
+      <c r="J83" s="22">
+        <v>88.409857633241685</v>
+      </c>
+      <c r="K83" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L83" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M83" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N83" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O83" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P83" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="21">
+        <v>6.3347223210315912E-4</v>
+      </c>
+      <c r="E84" s="22">
+        <v>5.2613972932742767E-4</v>
+      </c>
+      <c r="F84" s="22">
+        <v>5.5633197630898044E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <v>6.6982369735377439E-2</v>
+      </c>
+      <c r="H84" s="22">
+        <v>121.57861079229829</v>
+      </c>
+      <c r="I84" s="22">
+        <v>209.98835821284311</v>
+      </c>
+      <c r="J84" s="22">
+        <v>88.409747420544818</v>
+      </c>
+      <c r="K84" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L84" s="26">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="M84" s="27">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="N84" s="27">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="O84" s="27">
+        <v>0.27177821283979142</v>
+      </c>
+      <c r="P84" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44629,7 +45535,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44676,7 +45582,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -44685,10 +45591,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -48470,6 +49376,88 @@
         <v>111.55292633180204</v>
       </c>
     </row>
+    <row r="83" spans="1:13" ht="12.75">
+      <c r="A83" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.2114947233380624</v>
+      </c>
+      <c r="D83" s="20">
+        <v>235100</v>
+      </c>
+      <c r="E83" s="20">
+        <v>2056724.5505921205</v>
+      </c>
+      <c r="F83" s="21">
+        <v>2.9393594347125706E-5</v>
+      </c>
+      <c r="G83" s="22">
+        <v>2.4372798563582736E-5</v>
+      </c>
+      <c r="H83" s="22">
+        <v>6.6212955921017592E-3</v>
+      </c>
+      <c r="I83" s="22">
+        <v>7.9852822883233754E-3</v>
+      </c>
+      <c r="J83" s="22">
+        <v>65.729907660728031</v>
+      </c>
+      <c r="K83" s="22">
+        <v>111.56091161409036</v>
+      </c>
+      <c r="L83" s="22">
+        <v>45.831003953362327</v>
+      </c>
+      <c r="M83" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75">
+      <c r="A84" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.2115490193790663</v>
+      </c>
+      <c r="D84" s="20">
+        <v>392114</v>
+      </c>
+      <c r="E84" s="20">
+        <v>2034663.0404028799</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1.2850612549983719E-4</v>
+      </c>
+      <c r="G84" s="22">
+        <v>1.0673266271344683E-4</v>
+      </c>
+      <c r="H84" s="22">
+        <v>6.7280282548152059E-3</v>
+      </c>
+      <c r="I84" s="22">
+        <v>8.1005459931321171E-3</v>
+      </c>
+      <c r="J84" s="22">
+        <v>65.730036166853537</v>
+      </c>
+      <c r="K84" s="22">
+        <v>111.56102687779517</v>
+      </c>
+      <c r="L84" s="22">
+        <v>45.830990710941634</v>
+      </c>
+      <c r="M84" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,8 +145,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>累计投入本金</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SMA之MAX</t>
@@ -162,6 +166,14 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -181,11 +193,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +895,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1121,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1153,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1376,6 +1399,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>726.09631035864925</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>726.57652418300199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,7 +1444,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1664,6 +1690,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,7 +1702,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1919,6 +1948,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1125.0265501817157</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1144.8078422493913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1993,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2207,6 +2239,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2251,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2462,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>398.93023982306647</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>418.23131806638935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,11 +2521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459775360"/>
-        <c:axId val="461544064"/>
+        <c:axId val="464393344"/>
+        <c:axId val="464421632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459775360"/>
+        <c:axId val="464393344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,14 +2568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461544064"/>
+        <c:crossAx val="464421632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461544064"/>
+        <c:axId val="464421632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2624,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459775360"/>
+        <c:crossAx val="464393344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,7 +2838,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3046,6 +3084,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,7 +3096,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3301,6 +3342,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1031.5167046997726</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1031.9729078329078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,7 +3387,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3589,6 +3633,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,7 +3645,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3844,6 +3891,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1799.1191105924386</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1827.1158094748534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,7 +3936,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4132,6 +4182,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,7 +4194,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4387,6 +4440,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>767.60240589266596</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>795.14290164194563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,11 +4464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461785344"/>
-        <c:axId val="462562816"/>
+        <c:axId val="475581056"/>
+        <c:axId val="476807168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461785344"/>
+        <c:axId val="475581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,14 +4511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462562816"/>
+        <c:crossAx val="476807168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462562816"/>
+        <c:axId val="476807168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,7 +4567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461785344"/>
+        <c:crossAx val="475581056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4725,7 +4781,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4971,6 +5027,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,7 +5039,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5226,6 +5285,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>689.79149484071661</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>690.27170866506935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,7 +5330,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5514,6 +5576,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,7 +5588,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5768,6 +5833,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5811,7 +5879,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6057,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +6137,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6312,6 +6383,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>306.25906878008232</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>305.77885495572957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6333,11 +6407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534404480"/>
-        <c:axId val="534421504"/>
+        <c:axId val="536706048"/>
+        <c:axId val="536708608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534404480"/>
+        <c:axId val="536706048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,14 +6454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534421504"/>
+        <c:crossAx val="536708608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534421504"/>
+        <c:axId val="536708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,7 +6510,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534404480"/>
+        <c:crossAx val="536706048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6650,7 +6724,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6896,6 +6970,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,7 +6982,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7151,6 +7228,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>346.12732616203544</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>346.35166585996393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7193,7 +7273,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7439,6 +7519,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7448,7 +7531,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7694,6 +7777,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>541.76085103878916</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>548.31455391774386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7736,7 +7822,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7982,6 +8068,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7991,7 +8080,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8237,6 +8326,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>195.63352487675371</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>201.96288805777994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8258,11 +8350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536974848"/>
-        <c:axId val="536976768"/>
+        <c:axId val="558148608"/>
+        <c:axId val="558166784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536974848"/>
+        <c:axId val="558148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8305,14 +8397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536976768"/>
+        <c:crossAx val="558166784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536976768"/>
+        <c:axId val="558166784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8361,7 +8453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536974848"/>
+        <c:crossAx val="558148608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8575,7 +8667,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8821,6 +8913,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,7 +8925,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9076,6 +9171,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>148.02866703937929</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>148.03711955804346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9118,7 +9216,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9364,6 +9462,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9373,7 +9474,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9619,6 +9720,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>241.15219191750936</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>245.61540076461421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9661,7 +9765,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9907,6 +10011,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9916,7 +10023,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10162,6 +10269,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>93.12352487813007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.57828120657075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10183,11 +10293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537053824"/>
-        <c:axId val="537256704"/>
+        <c:axId val="558405120"/>
+        <c:axId val="558406656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537053824"/>
+        <c:axId val="558405120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10230,14 +10340,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537256704"/>
+        <c:crossAx val="558406656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537256704"/>
+        <c:axId val="558406656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10286,7 +10396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537053824"/>
+        <c:crossAx val="558405120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10500,7 +10610,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10746,6 +10856,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10755,7 +10868,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11001,6 +11114,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>221.92667502440241</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>221.93470491713336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11043,7 +11159,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11289,6 +11405,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11298,7 +11417,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11544,6 +11663,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>404.72923304738163</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>409.01881833857726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11586,7 +11708,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11832,6 +11954,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11841,7 +11966,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12087,6 +12212,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>182.80255802297921</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>187.0841134214439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12108,11 +12236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537537536"/>
-        <c:axId val="537585152"/>
+        <c:axId val="558722048"/>
+        <c:axId val="558859776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537537536"/>
+        <c:axId val="558722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12155,14 +12283,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537585152"/>
+        <c:crossAx val="558859776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537585152"/>
+        <c:axId val="558859776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12211,7 +12339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537537536"/>
+        <c:crossAx val="558722048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12425,7 +12553,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12671,6 +12799,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12680,7 +12811,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12926,6 +13057,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>140.6272336874103</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>140.63568620607447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12968,7 +13102,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13214,6 +13348,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13223,7 +13360,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13469,6 +13606,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>229.02424110723626</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>233.26471213791908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13511,7 +13651,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13757,6 +13897,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13766,7 +13909,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14012,6 +14155,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>88.397007419825968</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92.629025931844609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14033,11 +14179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538099072"/>
-        <c:axId val="538371200"/>
+        <c:axId val="559183744"/>
+        <c:axId val="559185280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538099072"/>
+        <c:axId val="559183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14080,14 +14226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538371200"/>
+        <c:crossAx val="559185280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538371200"/>
+        <c:axId val="559185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14136,7 +14282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538099072"/>
+        <c:crossAx val="559183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14350,7 +14496,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14596,6 +14742,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14605,7 +14754,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14851,6 +15000,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>72.389741557207458</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>72.39369028876763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14893,7 +15045,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15139,6 +15291,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15148,7 +15303,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15394,6 +15549,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>118.21919154986482</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>119.69997411858992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15436,7 +15594,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15682,6 +15840,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15691,7 +15852,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15937,6 +16098,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45.829449992657359</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47.306283829822291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15958,11 +16122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539215744"/>
-        <c:axId val="539279744"/>
+        <c:axId val="559929600"/>
+        <c:axId val="560375680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539215744"/>
+        <c:axId val="559929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16005,14 +16169,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539279744"/>
+        <c:crossAx val="560375680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539279744"/>
+        <c:axId val="560375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16061,7 +16225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539215744"/>
+        <c:crossAx val="559929600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16169,7 +16333,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16212,7 +16376,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16255,7 +16419,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16298,7 +16462,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16341,7 +16505,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16384,7 +16548,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16427,7 +16591,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16470,7 +16634,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16781,7 +16945,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20238,6 +20402,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0.40320220865253903</v>
+      </c>
+      <c r="F86" s="22">
+        <v>89.760062103253091</v>
+      </c>
+      <c r="G86" s="22">
+        <v>106.90423259534458</v>
+      </c>
+      <c r="H86" s="22">
+        <v>726.57652418300199</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1144.8078422493913</v>
+      </c>
+      <c r="J86" s="22">
+        <v>418.23131806638935</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20254,7 +20453,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20296,7 +20495,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20329,16 +20528,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -20363,7 +20562,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -20430,7 +20629,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -24700,6 +24899,53 @@
         <v>37.631402431181847</v>
       </c>
       <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.4562031331351567</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0.38304209821991209</v>
+      </c>
+      <c r="F86" s="22">
+        <v>127.88536031443593</v>
+      </c>
+      <c r="G86" s="22">
+        <v>152.31146218311744</v>
+      </c>
+      <c r="H86" s="22">
+        <v>1031.9729078329078</v>
+      </c>
+      <c r="I86" s="22">
+        <v>1827.1158094748534</v>
+      </c>
+      <c r="J86" s="22">
+        <v>795.14290164194563</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -24719,7 +24965,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24761,7 +25007,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -24794,19 +25040,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -24902,7 +25148,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -29373,6 +29619,56 @@
       </c>
       <c r="P85" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0.48021382435279653</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>690.27170866506935</v>
+      </c>
+      <c r="I86" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J86" s="22">
+        <v>305.77885495572957</v>
+      </c>
+      <c r="K86" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29391,7 +29687,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29447,10 +29743,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -29567,7 +29863,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -33352,6 +33648,47 @@
         <v>195.63352487675371</v>
       </c>
       <c r="M85" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0.22433969792849093</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0.18836246918780361</v>
+      </c>
+      <c r="H86" s="22">
+        <v>29.49097509315704</v>
+      </c>
+      <c r="I86" s="22">
+        <v>35.12375088595347</v>
+      </c>
+      <c r="J86" s="22">
+        <v>346.35166585996393</v>
+      </c>
+      <c r="K86" s="22">
+        <v>548.31455391774386</v>
+      </c>
+      <c r="L86" s="22">
+        <v>201.96288805777994</v>
+      </c>
+      <c r="M86" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -33371,7 +33708,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33469,7 +33806,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -33526,7 +33863,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>14</v>
@@ -36825,6 +37162,41 @@
         <v>93.12352487813007</v>
       </c>
       <c r="K85" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>8.452518664163829E-3</v>
+      </c>
+      <c r="E86" s="22">
+        <v>7.0969930919020565E-3</v>
+      </c>
+      <c r="F86" s="22">
+        <v>20.630972617386192</v>
+      </c>
+      <c r="G86" s="22">
+        <v>24.571488072503296</v>
+      </c>
+      <c r="H86" s="22">
+        <v>148.03711955804346</v>
+      </c>
+      <c r="I86" s="22">
+        <v>245.61540076461421</v>
+      </c>
+      <c r="J86" s="22">
+        <v>97.57828120657075</v>
+      </c>
+      <c r="K86" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -36844,7 +37216,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36886,7 +37258,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -36919,16 +37291,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -36953,7 +37325,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -37020,7 +37392,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -41290,6 +41662,53 @@
         <v>37.631402431181847</v>
       </c>
       <c r="O85" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="21">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>8.0298927309556366E-3</v>
+      </c>
+      <c r="E86" s="22">
+        <v>6.7421434373069527E-3</v>
+      </c>
+      <c r="F86" s="22">
+        <v>19.828761465281964</v>
+      </c>
+      <c r="G86" s="22">
+        <v>23.61605460258793</v>
+      </c>
+      <c r="H86" s="22">
+        <v>221.93470491713336</v>
+      </c>
+      <c r="I86" s="22">
+        <v>409.01881833857726</v>
+      </c>
+      <c r="J86" s="22">
+        <v>187.0841134214439</v>
+      </c>
+      <c r="K86" s="21">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="L86" s="26">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="M86" s="27">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N86" s="27">
+        <v>19.537349924268998</v>
+      </c>
+      <c r="O86" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -41309,7 +41728,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41351,7 +41770,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -41384,19 +41803,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41421,7 +41840,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41492,7 +41911,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -45962,6 +46381,56 @@
       </c>
       <c r="P85" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="21">
+        <v>8.452518664163829E-3</v>
+      </c>
+      <c r="E86" s="22">
+        <v>7.0969930919020565E-3</v>
+      </c>
+      <c r="F86" s="22">
+        <v>19.599778836171474</v>
+      </c>
+      <c r="G86" s="22">
+        <v>23.343336294811333</v>
+      </c>
+      <c r="H86" s="22">
+        <v>140.63568620607447</v>
+      </c>
+      <c r="I86" s="22">
+        <v>233.26471213791908</v>
+      </c>
+      <c r="J86" s="22">
+        <v>92.629025931844609</v>
+      </c>
+      <c r="K86" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="N86" s="27">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="O86" s="27">
+        <v>-11.524831830463491</v>
+      </c>
+      <c r="P86" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -45980,7 +46449,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46036,10 +46505,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46093,7 +46562,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -46156,7 +46625,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -49941,6 +50410,47 @@
         <v>45.829449992657359</v>
       </c>
       <c r="M85" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75">
+      <c r="A86" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.2086015576979154</v>
+      </c>
+      <c r="D86" s="20">
+        <v>937400</v>
+      </c>
+      <c r="E86" s="20">
+        <v>2006566.1276400539</v>
+      </c>
+      <c r="F86" s="21">
+        <v>3.948731560173383E-3</v>
+      </c>
+      <c r="G86" s="22">
+        <v>3.3154757437141294E-3</v>
+      </c>
+      <c r="H86" s="22">
+        <v>6.8405104040015043</v>
+      </c>
+      <c r="I86" s="22">
+        <v>8.147047786787887</v>
+      </c>
+      <c r="J86" s="22">
+        <v>72.39369028876763</v>
+      </c>
+      <c r="K86" s="22">
+        <v>119.69997411858992</v>
+      </c>
+      <c r="L86" s="22">
+        <v>47.306283829822291</v>
+      </c>
+      <c r="M86" s="21">
         <v>111.55292633180204</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,8 +145,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单位：元</t>
@@ -169,14 +169,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -193,19 +185,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1144,6 +1128,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,7 +1140,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1389,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>726.57652418300199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1434,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1693,6 +1683,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1695,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1951,6 +1944,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1144.8078422493913</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1145.3430325426239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +1989,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2242,6 +2238,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,7 +2250,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2500,6 +2499,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>418.23131806638935</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>418.3210823229839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,11 +2523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464393344"/>
-        <c:axId val="464421632"/>
+        <c:axId val="489478016"/>
+        <c:axId val="491841024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464393344"/>
+        <c:axId val="489478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,14 +2570,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464421632"/>
+        <c:crossAx val="491841024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464421632"/>
+        <c:axId val="491841024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2626,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464393344"/>
+        <c:crossAx val="489478016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2838,7 +2840,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3087,6 +3089,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,7 +3101,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3345,6 +3350,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1031.9729078329078</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,7 +3395,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3636,6 +3644,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3645,7 +3656,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3894,6 +3905,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1827.1158094748534</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1828.1345528845318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3936,7 +3950,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4185,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,7 +4211,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4443,6 +4460,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>795.14290164194563</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>795.27079297834803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,11 +4484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475581056"/>
-        <c:axId val="476807168"/>
+        <c:axId val="603156480"/>
+        <c:axId val="603158784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475581056"/>
+        <c:axId val="603156480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,14 +4531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476807168"/>
+        <c:crossAx val="603158784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476807168"/>
+        <c:axId val="603158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475581056"/>
+        <c:crossAx val="603156480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4781,7 +4801,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5030,6 +5050,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,7 +5062,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5288,6 +5311,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>690.27170866506935</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,7 +5356,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5579,6 +5605,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5588,7 +5617,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5836,6 +5865,9 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
               </c:numCache>
@@ -5879,7 +5911,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6128,6 +6160,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6137,7 +6172,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6386,6 +6421,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>305.77885495572957</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>305.3557002209235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6407,11 +6445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536706048"/>
-        <c:axId val="536708608"/>
+        <c:axId val="615290752"/>
+        <c:axId val="615302272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536706048"/>
+        <c:axId val="615290752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,14 +6492,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536708608"/>
+        <c:crossAx val="615302272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536708608"/>
+        <c:axId val="615302272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536706048"/>
+        <c:crossAx val="615290752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6724,7 +6762,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6973,6 +7011,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6982,7 +7023,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7231,6 +7272,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>346.35166585996393</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7273,7 +7317,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7522,6 +7566,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,7 +7578,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7780,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>548.31455391774386</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>548.42358853725318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7822,7 +7872,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8071,6 +8121,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8080,7 +8133,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8329,6 +8382,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>201.96288805777994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>201.99238041098755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8350,11 +8406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558148608"/>
-        <c:axId val="558166784"/>
+        <c:axId val="615373440"/>
+        <c:axId val="615379328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558148608"/>
+        <c:axId val="615373440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8397,14 +8453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558166784"/>
+        <c:crossAx val="615379328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558166784"/>
+        <c:axId val="615379328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8453,7 +8509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558148608"/>
+        <c:crossAx val="615373440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8667,7 +8723,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8916,6 +8972,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8925,7 +8984,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9174,6 +9233,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>148.03711955804346</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>148.04467043772325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9216,7 +9278,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9465,6 +9527,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9474,7 +9539,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9723,6 +9788,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>245.61540076461421</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>245.64358358099761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9765,7 +9833,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10014,6 +10082,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10023,7 +10094,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10272,6 +10343,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.57828120657075</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>97.598913143274359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10293,11 +10367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558405120"/>
-        <c:axId val="558406656"/>
+        <c:axId val="615606528"/>
+        <c:axId val="615609472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558405120"/>
+        <c:axId val="615606528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10340,14 +10414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558406656"/>
+        <c:crossAx val="615609472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558406656"/>
+        <c:axId val="615609472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10396,7 +10470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558405120"/>
+        <c:crossAx val="615606528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10610,7 +10684,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10859,6 +10933,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,7 +10945,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11117,6 +11194,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>221.93470491713336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>221.94980667649295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11159,7 +11239,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11408,6 +11488,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11417,7 +11500,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11666,6 +11749,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>409.01881833857726</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>409.05374978600099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11708,7 +11794,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11957,6 +12043,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11966,7 +12055,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12215,6 +12304,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>187.0841134214439</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>187.10394310950804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12236,11 +12328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558722048"/>
-        <c:axId val="558859776"/>
+        <c:axId val="615732736"/>
+        <c:axId val="615734272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558722048"/>
+        <c:axId val="615732736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12283,14 +12375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558859776"/>
+        <c:crossAx val="615734272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558859776"/>
+        <c:axId val="615734272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12339,7 +12431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558722048"/>
+        <c:crossAx val="615732736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12553,7 +12645,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12802,6 +12894,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12811,7 +12906,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13060,6 +13155,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>140.63568620607447</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>140.64285954177026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13102,7 +13200,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13351,6 +13449,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13360,7 +13461,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13609,6 +13710,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>233.26471213791908</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>233.29148616834954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13651,7 +13755,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13900,6 +14004,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13909,7 +14016,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14158,6 +14265,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>92.629025931844609</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>92.648626626579272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14179,11 +14289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559183744"/>
-        <c:axId val="559185280"/>
+        <c:axId val="616964864"/>
+        <c:axId val="616966784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559183744"/>
+        <c:axId val="616964864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14226,14 +14336,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559185280"/>
+        <c:crossAx val="616966784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559185280"/>
+        <c:axId val="616966784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14282,7 +14392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559183744"/>
+        <c:crossAx val="616964864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14496,7 +14606,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14745,6 +14855,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14754,7 +14867,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15003,6 +15116,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>72.39369028876763</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72.395038692392248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15045,7 +15161,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15294,6 +15410,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15303,7 +15422,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15552,6 +15671,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>119.69997411858992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>119.70816335227589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15594,7 +15716,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15843,6 +15965,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15852,7 +15977,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16101,6 +16226,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>47.306283829822291</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>47.313124659883641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16122,11 +16250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559929600"/>
-        <c:axId val="560375680"/>
+        <c:axId val="617188736"/>
+        <c:axId val="617295232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559929600"/>
+        <c:axId val="617188736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16169,14 +16297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560375680"/>
+        <c:crossAx val="617295232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560375680"/>
+        <c:axId val="617295232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16225,7 +16353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559929600"/>
+        <c:crossAx val="617188736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16945,7 +17073,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20437,6 +20565,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.44542603663796299</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.37367955107197942</v>
+      </c>
+      <c r="F87" s="22">
+        <v>90.133741654325064</v>
+      </c>
+      <c r="G87" s="22">
+        <v>107.43942288857721</v>
+      </c>
+      <c r="H87" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1145.3430325426239</v>
+      </c>
+      <c r="J87" s="22">
+        <v>418.3210823229839</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1037.9036096540467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20453,7 +20616,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20562,7 +20725,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -20629,7 +20792,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -24947,6 +25110,53 @@
       </c>
       <c r="O86" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.89085207327592597</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.74735910214395884</v>
+      </c>
+      <c r="F87" s="22">
+        <v>128.63271941657987</v>
+      </c>
+      <c r="G87" s="22">
+        <v>153.33020559279601</v>
+      </c>
+      <c r="H87" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I87" s="22">
+        <v>1828.1345528845318</v>
+      </c>
+      <c r="J87" s="22">
+        <v>795.27079297834803</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24965,7 +25175,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25007,7 +25217,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25040,16 +25250,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>25</v>
@@ -25148,7 +25358,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -29669,6 +29879,56 @@
       </c>
       <c r="P86" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.4231547348060648</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I87" s="22">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="J87" s="22">
+        <v>305.3557002209235</v>
+      </c>
+      <c r="K87" s="21">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -29687,7 +29947,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29743,10 +30003,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -29863,7 +30123,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -33689,6 +33949,47 @@
         <v>201.96288805777994</v>
       </c>
       <c r="M86" s="21">
+        <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>7.9542266301689715E-2</v>
+      </c>
+      <c r="G87" s="22">
+        <v>6.6730087417458298E-2</v>
+      </c>
+      <c r="H87" s="22">
+        <v>29.557705180574498</v>
+      </c>
+      <c r="I87" s="22">
+        <v>35.2327855054628</v>
+      </c>
+      <c r="J87" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K87" s="22">
+        <v>548.42358853725318</v>
+      </c>
+      <c r="L87" s="22">
+        <v>201.99238041098755</v>
+      </c>
+      <c r="M87" s="21">
         <v>513.19080303179044</v>
       </c>
     </row>
@@ -33708,7 +34009,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33750,7 +34051,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33863,7 +34164,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>14</v>
@@ -37197,6 +37498,41 @@
         <v>97.57828120657075</v>
       </c>
       <c r="K86" s="21">
+        <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>7.5508796797998075E-3</v>
+      </c>
+      <c r="E87" s="22">
+        <v>6.3346304366116227E-3</v>
+      </c>
+      <c r="F87" s="22">
+        <v>20.637307247822804</v>
+      </c>
+      <c r="G87" s="22">
+        <v>24.599670888886688</v>
+      </c>
+      <c r="H87" s="22">
+        <v>148.04467043772325</v>
+      </c>
+      <c r="I87" s="22">
+        <v>245.64358358099761</v>
+      </c>
+      <c r="J87" s="22">
+        <v>97.598913143274359</v>
+      </c>
+      <c r="K87" s="21">
         <v>221.04391269211092</v>
       </c>
     </row>
@@ -37216,7 +37552,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37258,7 +37594,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37325,7 +37661,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -37392,7 +37728,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -41710,6 +42046,53 @@
       </c>
       <c r="O86" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="21">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>1.5101759359599615E-2</v>
+      </c>
+      <c r="E87" s="22">
+        <v>1.2669260873223245E-2</v>
+      </c>
+      <c r="F87" s="22">
+        <v>19.841430726155188</v>
+      </c>
+      <c r="G87" s="22">
+        <v>23.65098605001166</v>
+      </c>
+      <c r="H87" s="22">
+        <v>221.94980667649295</v>
+      </c>
+      <c r="I87" s="22">
+        <v>409.05374978600099</v>
+      </c>
+      <c r="J87" s="22">
+        <v>187.10394310950804</v>
+      </c>
+      <c r="K87" s="21">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="L87" s="26">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="M87" s="27">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N87" s="27">
+        <v>47.894750202325042</v>
+      </c>
+      <c r="O87" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -41728,7 +42111,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41770,7 +42153,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -41803,16 +42186,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>25</v>
@@ -41840,7 +42223,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -41911,7 +42294,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -46431,6 +46814,56 @@
       </c>
       <c r="P86" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="21">
+        <v>7.1733356958098172E-3</v>
+      </c>
+      <c r="E87" s="22">
+        <v>6.0178989147810415E-3</v>
+      </c>
+      <c r="F87" s="22">
+        <v>19.605796735086255</v>
+      </c>
+      <c r="G87" s="22">
+        <v>23.370110325241793</v>
+      </c>
+      <c r="H87" s="22">
+        <v>140.64285954177026</v>
+      </c>
+      <c r="I87" s="22">
+        <v>233.29148616834954</v>
+      </c>
+      <c r="J87" s="22">
+        <v>92.648626626579272</v>
+      </c>
+      <c r="K87" s="21">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="L87" s="26">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="M87" s="27">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="N87" s="27">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="O87" s="27">
+        <v>15.580532829582921</v>
+      </c>
+      <c r="P87" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -46449,7 +46882,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46505,10 +46938,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -46562,7 +46995,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -46625,7 +47058,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -50451,6 +50884,47 @@
         <v>47.306283829822291</v>
       </c>
       <c r="M86" s="21">
+        <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75">
+      <c r="A87" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.2089520707745522</v>
+      </c>
+      <c r="D87" s="20">
+        <v>356409</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1995842.6591715976</v>
+      </c>
+      <c r="F87" s="21">
+        <v>1.3484036246197836E-3</v>
+      </c>
+      <c r="G87" s="22">
+        <v>1.1312110646133848E-3</v>
+      </c>
+      <c r="H87" s="22">
+        <v>6.8416416150661181</v>
+      </c>
+      <c r="I87" s="22">
+        <v>8.1552370204738427</v>
+      </c>
+      <c r="J87" s="22">
+        <v>72.395038692392248</v>
+      </c>
+      <c r="K87" s="22">
+        <v>119.70816335227589</v>
+      </c>
+      <c r="L87" s="22">
+        <v>47.313124659883641</v>
+      </c>
+      <c r="M87" s="21">
         <v>111.55292633180204</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +183,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -879,7 +883,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1131,6 +1135,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1147,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1391,6 +1398,9 @@
                   <c:v>726.57652418300199</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,7 +1444,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1686,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1708,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1947,6 +1960,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1145.3430325426239</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1147.8667770510704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +2005,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2241,6 +2257,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2269,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2502,6 +2521,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>418.3210823229839</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>420.8448268314304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,11 +2545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489478016"/>
-        <c:axId val="491841024"/>
+        <c:axId val="510416768"/>
+        <c:axId val="510418304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489478016"/>
+        <c:axId val="510416768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,14 +2592,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491841024"/>
+        <c:crossAx val="510418304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491841024"/>
+        <c:axId val="510418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489478016"/>
+        <c:crossAx val="510416768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,7 +2862,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3092,6 +3114,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,7 +3126,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3352,6 +3377,9 @@
                   <c:v>1031.9729078329078</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>1032.8637599061838</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1032.8637599061838</c:v>
                 </c:pt>
               </c:numCache>
@@ -3395,7 +3423,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3647,6 +3675,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3687,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3908,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1828.1345528845318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1831.736268660175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,7 +3984,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4202,6 +4236,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,7 +4248,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4463,6 +4500,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>795.27079297834803</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>798.87250875399127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,11 +4524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603156480"/>
-        <c:axId val="603158784"/>
+        <c:axId val="584062848"/>
+        <c:axId val="585006080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603156480"/>
+        <c:axId val="584062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,14 +4571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603158784"/>
+        <c:crossAx val="585006080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603158784"/>
+        <c:axId val="585006080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603156480"/>
+        <c:crossAx val="584062848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4801,7 +4841,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5053,6 +5093,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,7 +5105,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5313,6 +5356,9 @@
                   <c:v>690.27170866506935</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>690.69486339987543</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>690.69486339987543</c:v>
                 </c:pt>
               </c:numCache>
@@ -5356,7 +5402,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5608,6 +5654,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5617,7 +5666,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5869,6 +5918,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>996.05056362079893</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>996.24639355269744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5911,7 +5963,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6163,6 +6215,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,7 +6227,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6424,6 +6479,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>305.3557002209235</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>305.55153015282201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6445,11 +6503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615290752"/>
-        <c:axId val="615302272"/>
+        <c:axId val="621257088"/>
+        <c:axId val="621259776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615290752"/>
+        <c:axId val="621257088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6492,14 +6550,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615302272"/>
+        <c:crossAx val="621259776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615302272"/>
+        <c:axId val="621259776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615290752"/>
+        <c:crossAx val="621257088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6762,7 +6820,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7014,6 +7072,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,7 +7084,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7274,6 +7335,9 @@
                   <c:v>346.35166585996393</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
                 </c:pt>
               </c:numCache>
@@ -7317,7 +7381,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7569,6 +7633,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7578,7 +7645,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7830,6 +7897,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>548.42358853725318</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>549.25120419774407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +7942,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8124,6 +8194,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8133,7 +8206,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8385,6 +8458,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>201.99238041098755</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>202.81999607147844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8406,11 +8482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615373440"/>
-        <c:axId val="615379328"/>
+        <c:axId val="623644032"/>
+        <c:axId val="623645824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615373440"/>
+        <c:axId val="623644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8453,14 +8529,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615379328"/>
+        <c:crossAx val="623645824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615379328"/>
+        <c:axId val="623645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8509,7 +8585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615373440"/>
+        <c:crossAx val="623644032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8723,7 +8799,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8975,6 +9051,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8984,7 +9063,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9235,6 +9314,9 @@
                   <c:v>148.03711955804346</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>148.04467043772325</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>148.04467043772325</c:v>
                 </c:pt>
               </c:numCache>
@@ -9278,7 +9360,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9530,6 +9612,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9539,7 +9624,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9791,6 +9876,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>245.64358358099761</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>246.22142812489284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9833,7 +9921,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10085,6 +10173,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10094,7 +10185,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10346,6 +10437,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>97.598913143274359</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>98.176757687169584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10367,11 +10461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615606528"/>
-        <c:axId val="615609472"/>
+        <c:axId val="623843584"/>
+        <c:axId val="623890816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615606528"/>
+        <c:axId val="623843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10414,14 +10508,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615609472"/>
+        <c:crossAx val="623890816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615609472"/>
+        <c:axId val="623890816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10470,7 +10564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615606528"/>
+        <c:crossAx val="623843584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10684,7 +10778,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10936,6 +11030,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10945,7 +11042,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11196,6 +11293,9 @@
                   <c:v>221.93470491713336</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>221.94980667649295</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>221.94980667649295</c:v>
                 </c:pt>
               </c:numCache>
@@ -11239,7 +11339,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11491,6 +11591,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11500,7 +11603,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11752,6 +11855,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>409.05374978600099</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>409.60930978956651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11794,7 +11900,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12046,6 +12152,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12055,7 +12164,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12307,6 +12416,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>187.10394310950804</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>187.65950311307355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12328,11 +12440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615732736"/>
-        <c:axId val="615734272"/>
+        <c:axId val="624304128"/>
+        <c:axId val="624306048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615732736"/>
+        <c:axId val="624304128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12375,14 +12487,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615734272"/>
+        <c:crossAx val="624306048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615734272"/>
+        <c:axId val="624306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12431,7 +12543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615732736"/>
+        <c:crossAx val="624304128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12645,7 +12757,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12897,6 +13009,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12906,7 +13021,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13157,6 +13272,9 @@
                   <c:v>140.63568620607447</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>140.64285954177026</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>140.64285954177026</c:v>
                 </c:pt>
               </c:numCache>
@@ -13200,7 +13318,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13452,6 +13570,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13461,7 +13582,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13713,6 +13834,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>233.29148616834954</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>233.84044842083932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13755,7 +13879,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14007,6 +14131,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14016,7 +14143,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14268,6 +14395,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>92.648626626579272</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>93.197588879069059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14289,11 +14419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616964864"/>
-        <c:axId val="616966784"/>
+        <c:axId val="624458368"/>
+        <c:axId val="624481024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616964864"/>
+        <c:axId val="624458368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14336,14 +14466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616966784"/>
+        <c:crossAx val="624481024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616966784"/>
+        <c:axId val="624481024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14392,7 +14522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616964864"/>
+        <c:crossAx val="624458368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14606,7 +14736,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14858,6 +14988,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14867,7 +15000,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15118,6 +15251,9 @@
                   <c:v>72.39369028876763</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>72.395038692392248</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>72.395038692392248</c:v>
                 </c:pt>
               </c:numCache>
@@ -15161,7 +15297,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15413,6 +15549,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15422,7 +15561,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15674,6 +15813,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>119.70816335227589</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>119.89972929792364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15716,7 +15858,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15968,6 +16110,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15977,7 +16122,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16229,6 +16374,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>47.313124659883641</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.504690605531394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16250,11 +16398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617188736"/>
-        <c:axId val="617295232"/>
+        <c:axId val="624578560"/>
+        <c:axId val="624580480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617188736"/>
+        <c:axId val="624578560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16297,14 +16445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617295232"/>
+        <c:crossAx val="624580480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617295232"/>
+        <c:axId val="624580480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16353,7 +16501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617188736"/>
+        <c:crossAx val="624578560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16461,7 +16609,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16504,7 +16652,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16547,7 +16695,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16590,7 +16738,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16633,7 +16781,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16676,7 +16824,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16719,7 +16867,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16762,7 +16910,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17073,7 +17221,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20600,6 +20748,41 @@
         <v>1037.9036096540467</v>
       </c>
     </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.20613677041944856</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-0.16896456195519152</v>
+      </c>
+      <c r="F88" s="22">
+        <v>89.964777092369872</v>
+      </c>
+      <c r="G88" s="22">
+        <v>109.75703062660416</v>
+      </c>
+      <c r="H88" s="22">
+        <v>727.02195021963996</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1147.8667770510704</v>
+      </c>
+      <c r="J88" s="22">
+        <v>420.8448268314304</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1038.1097464244663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -20616,7 +20799,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20658,7 +20841,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -20691,16 +20874,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25157,6 +25340,53 @@
       </c>
       <c r="O87" s="27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-0.16051633385743194</v>
+      </c>
+      <c r="F88" s="22">
+        <v>128.47220308272244</v>
+      </c>
+      <c r="G88" s="22">
+        <v>156.73609143654059</v>
+      </c>
+      <c r="H88" s="22">
+        <v>1032.8637599061838</v>
+      </c>
+      <c r="I88" s="22">
+        <v>1831.736268660175</v>
+      </c>
+      <c r="J88" s="22">
+        <v>798.87250875399127</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -25175,7 +25405,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25217,7 +25447,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25262,7 +25492,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29928,6 +30158,56 @@
         <v>15.580532829582921</v>
       </c>
       <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-0.19582993189847611</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>690.69486339987543</v>
+      </c>
+      <c r="I88" s="22">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="J88" s="22">
+        <v>305.55153015282201</v>
+      </c>
+      <c r="K88" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -29947,7 +30227,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29994,7 +30274,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -30003,10 +30283,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -33991,6 +34271,47 @@
       </c>
       <c r="M87" s="21">
         <v>513.19080303179044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-8.0513679583263734E-2</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-6.5994817782899062E-2</v>
+      </c>
+      <c r="H88" s="22">
+        <v>29.491710362791601</v>
+      </c>
+      <c r="I88" s="22">
+        <v>35.979887486370352</v>
+      </c>
+      <c r="J88" s="22">
+        <v>346.43120812626563</v>
+      </c>
+      <c r="K88" s="22">
+        <v>549.25120419774407</v>
+      </c>
+      <c r="L88" s="22">
+        <v>202.81999607147844</v>
+      </c>
+      <c r="M88" s="21">
+        <v>513.27131671137374</v>
       </c>
     </row>
   </sheetData>
@@ -34009,7 +34330,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34051,7 +34372,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -34107,7 +34428,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -37534,6 +37855,41 @@
       </c>
       <c r="K87" s="21">
         <v>221.04391269211092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-2.3772089261143966E-3</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-1.9485318609561088E-3</v>
+      </c>
+      <c r="F88" s="22">
+        <v>20.635358715961846</v>
+      </c>
+      <c r="G88" s="22">
+        <v>25.1751382238558</v>
+      </c>
+      <c r="H88" s="22">
+        <v>148.04467043772325</v>
+      </c>
+      <c r="I88" s="22">
+        <v>246.22142812489284</v>
+      </c>
+      <c r="J88" s="22">
+        <v>98.176757687169584</v>
+      </c>
+      <c r="K88" s="21">
+        <v>221.04628990103703</v>
       </c>
     </row>
   </sheetData>
@@ -37552,7 +37908,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37627,16 +37983,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42093,6 +42449,53 @@
       </c>
       <c r="O87" s="27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="21">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-2.2583484798086766E-3</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-1.8511052679083034E-3</v>
+      </c>
+      <c r="F88" s="22">
+        <v>19.839579620887282</v>
+      </c>
+      <c r="G88" s="22">
+        <v>24.204287705097411</v>
+      </c>
+      <c r="H88" s="22">
+        <v>221.94980667649295</v>
+      </c>
+      <c r="I88" s="22">
+        <v>409.60930978956651</v>
+      </c>
+      <c r="J88" s="22">
+        <v>187.65950311307355</v>
+      </c>
+      <c r="K88" s="21">
+        <v>385.40502208446912</v>
+      </c>
+      <c r="L88" s="26">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="M88" s="27">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N88" s="27">
+        <v>47.99657461175164</v>
+      </c>
+      <c r="O88" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -42111,7 +42514,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42198,7 +42601,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42288,7 +42691,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -46863,6 +47266,56 @@
         <v>15.580532829582921</v>
       </c>
       <c r="P87" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-2.2583484798086766E-3</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-1.8511052679083034E-3</v>
+      </c>
+      <c r="F88" s="22">
+        <v>19.603945629818348</v>
+      </c>
+      <c r="G88" s="22">
+        <v>23.916814229251766</v>
+      </c>
+      <c r="H88" s="22">
+        <v>140.64285954177026</v>
+      </c>
+      <c r="I88" s="22">
+        <v>233.84044842083932</v>
+      </c>
+      <c r="J88" s="22">
+        <v>93.197588879069059</v>
+      </c>
+      <c r="K88" s="21">
+        <v>209.92363419158755</v>
+      </c>
+      <c r="L88" s="26">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="M88" s="27">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="N88" s="27">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="O88" s="27">
+        <v>37.889987500510934</v>
+      </c>
+      <c r="P88" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -46882,7 +47335,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46938,10 +47391,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -47052,7 +47505,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -50926,6 +51379,47 @@
       </c>
       <c r="M87" s="21">
         <v>111.55292633180204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75">
+      <c r="A88" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.2084678360699213</v>
+      </c>
+      <c r="D88" s="20">
+        <v>773500</v>
+      </c>
+      <c r="E88" s="20">
+        <v>1980368.9602156433</v>
+      </c>
+      <c r="F88" s="21">
+        <v>-9.2849925508288174E-4</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-7.6106494533494996E-4</v>
+      </c>
+      <c r="H88" s="22">
+        <v>6.840880550120783</v>
+      </c>
+      <c r="I88" s="22">
+        <v>8.3458744668665172</v>
+      </c>
+      <c r="J88" s="22">
+        <v>72.395038692392248</v>
+      </c>
+      <c r="K88" s="22">
+        <v>119.89972929792364</v>
+      </c>
+      <c r="L88" s="22">
+        <v>47.504690605531394</v>
+      </c>
+      <c r="M88" s="21">
+        <v>111.55385483105712</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -883,7 +875,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1138,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,7 +1142,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1397,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>727.02195021963996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>732.0858186037741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1442,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1699,6 +1697,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1709,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1963,6 +1964,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1147.8667770510704</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1146.7230753010485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,7 +2009,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2260,6 +2264,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2276,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2524,6 +2531,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>420.8448268314304</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>414.63725669727444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510416768"/>
-        <c:axId val="510418304"/>
+        <c:axId val="477441024"/>
+        <c:axId val="477664768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510416768"/>
+        <c:axId val="477441024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,14 +2602,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510418304"/>
+        <c:crossAx val="477664768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510418304"/>
+        <c:axId val="477664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2658,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510416768"/>
+        <c:crossAx val="477441024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,7 +2872,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3117,6 +3127,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,7 +3139,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3374,13 +3387,16 @@
                   <c:v>1031.5167046997726</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1031.9729078329078</c:v>
+                  <c:v>1032.4771323484781</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1032.8637599061838</c:v>
+                  <c:v>1032.9002870832842</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1033.913060760111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3439,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3678,6 +3694,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,7 +3706,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3935,13 +3954,16 @@
                   <c:v>1799.1191105924386</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1827.1158094748534</c:v>
+                  <c:v>1827.6200339904237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1828.1345528845318</c:v>
+                  <c:v>1828.1715034437352</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1831.736268660175</c:v>
+                  <c:v>1831.7740871854226</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1823.9201391976985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,7 +4006,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4239,6 +4261,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4248,7 +4273,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4499,10 +4524,13 @@
                   <c:v>795.14290164194563</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>795.27079297834803</c:v>
+                  <c:v>795.27121636045104</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>798.87250875399127</c:v>
+                  <c:v>798.87380010213838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>790.00707843758755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,11 +4552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584062848"/>
-        <c:axId val="585006080"/>
+        <c:axId val="606065792"/>
+        <c:axId val="606068096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584062848"/>
+        <c:axId val="606065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,14 +4599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585006080"/>
+        <c:crossAx val="606068096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585006080"/>
+        <c:axId val="606068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,7 +4655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584062848"/>
+        <c:crossAx val="606065792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4841,7 +4869,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5096,6 +5124,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,7 +5136,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5350,16 +5381,19 @@
                   <c:v>608.64667059516819</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>689.79149484071661</c:v>
+                  <c:v>694.06227506416656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>690.27170866506935</c:v>
+                  <c:v>694.51847819730176</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>690.69486339987543</c:v>
+                  <c:v>694.94163293210784</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>699.75230789703528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5402,7 +5436,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5657,6 +5691,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,7 +5703,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5902,25 +5939,28 @@
                   <c:v>996.05056362079893</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.88159281094215</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>997.97276087042451</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>998.05348765153417</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1083.0881373455345</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1102.8265066956899</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>996.05056362079893</c:v>
+                  <c:v>1103.3393179662535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>996.24639355269744</c:v>
+                  <c:v>1105.859523281189</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1104.4707667697967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5963,7 +6003,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6218,6 +6258,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +6270,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6463,25 +6506,28 @@
                   <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>387.53226566491378</c:v>
+                  <c:v>389.36329485505701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>387.48780748924321</c:v>
+                  <c:v>389.41000473886879</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>387.40389302563074</c:v>
+                  <c:v>389.40681705636598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>306.25906878008232</c:v>
+                  <c:v>389.02586228136795</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>305.77885495572957</c:v>
+                  <c:v>408.30802849838813</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>305.3557002209235</c:v>
+                  <c:v>408.39768503414564</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>305.55153015282201</c:v>
+                  <c:v>410.91789034908118</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>404.7184588727614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6503,11 +6549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621257088"/>
-        <c:axId val="621259776"/>
+        <c:axId val="607686656"/>
+        <c:axId val="607688576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="621257088"/>
+        <c:axId val="607686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,14 +6596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621259776"/>
+        <c:crossAx val="607688576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="621259776"/>
+        <c:axId val="607688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6606,7 +6652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621257088"/>
+        <c:crossAx val="607686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6820,7 +6866,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7075,6 +7121,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7084,7 +7133,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7339,6 +7388,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>346.43120812626563</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>347.15757819781584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,7 +7433,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7636,6 +7688,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7645,7 +7700,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7900,6 +7955,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>549.25120419774407</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>547.94264608550873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7942,7 +8000,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8197,6 +8255,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8206,7 +8267,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8461,6 +8522,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>202.81999607147844</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>200.78506788769289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,11 +8546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623644032"/>
-        <c:axId val="623645824"/>
+        <c:axId val="610198656"/>
+        <c:axId val="610205696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="623644032"/>
+        <c:axId val="610198656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8529,14 +8593,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623645824"/>
+        <c:crossAx val="610205696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623645824"/>
+        <c:axId val="610205696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8585,7 +8649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623644032"/>
+        <c:crossAx val="610198656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8799,7 +8863,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9054,6 +9118,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9063,7 +9130,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9318,6 +9385,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>148.04467043772325</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.33410991481924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9360,7 +9430,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9615,6 +9685,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9624,7 +9697,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9879,6 +9952,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>246.22142812489284</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>245.08702773251096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9921,7 +9997,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10176,6 +10252,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10185,7 +10264,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10440,6 +10519,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>98.176757687169584</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.752917817691724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10461,11 +10543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623843584"/>
-        <c:axId val="623890816"/>
+        <c:axId val="610410496"/>
+        <c:axId val="610412032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="623843584"/>
+        <c:axId val="610410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10508,14 +10590,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623890816"/>
+        <c:crossAx val="610412032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623890816"/>
+        <c:axId val="610412032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10564,7 +10646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623843584"/>
+        <c:crossAx val="610410496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10778,7 +10860,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11033,6 +11115,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11042,7 +11127,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11290,13 +11375,16 @@
                   <c:v>221.92667502440241</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>221.93470491713336</c:v>
+                  <c:v>221.94358006173073</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>221.94980667649295</c:v>
+                  <c:v>221.95075339742652</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>221.94980667649295</c:v>
+                  <c:v>221.95075339742652</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>222.00864129284571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11339,7 +11427,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11594,6 +11682,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11603,7 +11694,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11851,13 +11942,16 @@
                   <c:v>404.72923304738163</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>409.01881833857726</c:v>
+                  <c:v>409.02769348317463</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>409.05374978600099</c:v>
+                  <c:v>409.0547039591255</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>409.60930978956651</c:v>
+                  <c:v>409.61028637615084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>408.29918793102689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11900,7 +11994,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12155,6 +12249,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12164,7 +12261,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12415,10 +12512,13 @@
                   <c:v>187.0841134214439</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>187.10394310950804</c:v>
+                  <c:v>187.10395056169898</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>187.65950311307355</c:v>
+                  <c:v>187.65953297872431</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>186.29054663818118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12440,11 +12540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624304128"/>
-        <c:axId val="624306048"/>
+        <c:axId val="610918400"/>
+        <c:axId val="610920320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="624304128"/>
+        <c:axId val="610918400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12487,14 +12587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624306048"/>
+        <c:crossAx val="610920320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="624306048"/>
+        <c:axId val="610920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12543,7 +12643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624304128"/>
+        <c:crossAx val="610918400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12757,7 +12857,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13012,6 +13112,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13021,7 +13124,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13266,16 +13369,19 @@
                   <c:v>121.57861079229829</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>140.6272336874103</c:v>
+                  <c:v>141.62979278715304</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>140.63568620607447</c:v>
+                  <c:v>141.63782267988398</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>140.64285954177026</c:v>
+                  <c:v>141.64499601557978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>140.64285954177026</c:v>
+                  <c:v>141.64499601557978</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>141.91996351882096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13318,7 +13424,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13573,6 +13679,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13582,7 +13691,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13827,16 +13936,19 @@
                   <c:v>209.98835821284311</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>229.02424110723626</c:v>
+                  <c:v>230.026800206979</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>233.26471213791908</c:v>
+                  <c:v>234.48895396664994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>233.29148616834954</c:v>
+                  <c:v>234.51675595598326</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>233.84044842083932</c:v>
+                  <c:v>235.09449970985094</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>233.94586899664986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13879,7 +13991,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14134,6 +14246,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14143,7 +14258,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14391,13 +14506,16 @@
                   <c:v>88.397007419825968</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.629025931844609</c:v>
+                  <c:v>92.851131286765963</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>92.648626626579272</c:v>
+                  <c:v>92.871759940403479</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>93.197588879069059</c:v>
+                  <c:v>93.449503694271158</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92.0259054778289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14419,11 +14537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624458368"/>
-        <c:axId val="624481024"/>
+        <c:axId val="614268928"/>
+        <c:axId val="614708736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="624458368"/>
+        <c:axId val="614268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14466,14 +14584,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624481024"/>
+        <c:crossAx val="614708736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="624481024"/>
+        <c:axId val="614708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14522,7 +14640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624458368"/>
+        <c:crossAx val="614268928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14736,7 +14854,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14991,6 +15109,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15000,7 +15121,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15255,6 +15376,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>72.395038692392248</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>72.436556393434074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15297,7 +15421,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15552,6 +15676,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15561,7 +15688,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15816,6 +15943,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>119.89972929792364</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>119.46922620186331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15858,7 +15988,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16113,6 +16243,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16122,7 +16255,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16377,6 +16510,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>47.504690605531394</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47.032669808429233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16398,11 +16534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624578560"/>
-        <c:axId val="624580480"/>
+        <c:axId val="475555328"/>
+        <c:axId val="475556864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="624578560"/>
+        <c:axId val="475555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16445,14 +16581,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624580480"/>
+        <c:crossAx val="475556864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="624580480"/>
+        <c:axId val="475556864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16501,7 +16637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624578560"/>
+        <c:crossAx val="475555328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17221,7 +17357,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17902,6 +18038,16 @@
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
         <v>-1.2220518888775631</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -17938,6 +18084,30 @@
         <v>0.68474096327318767</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>640.68070588965088</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1040.0119507390311</v>
+      </c>
+      <c r="S11" s="5">
+        <v>399.33124484938025</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1037.9036096540467</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.62329213472234635</v>
+      </c>
+      <c r="V11" s="9">
+        <v>9.7357368643772979E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -17958,6 +18128,16 @@
         <f t="shared" si="5"/>
         <v>-433.73124322277113</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -18014,6 +18194,16 @@
         <f t="shared" si="5"/>
         <v>-84.696913592045235</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -18070,6 +18260,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -18126,6 +18326,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -18176,6 +18386,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
+        <v>-118.96796894445561</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
         <v>-118.96796894445561</v>
       </c>
     </row>
@@ -18224,8 +18444,18 @@
       <c r="AC16" s="1">
         <v>1000.2997111055655</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0625282415013544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -18264,8 +18494,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.11167303680694896</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1040.0119507390311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -18300,8 +18536,12 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>9.7357368643772979E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -18337,7 +18577,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -18373,7 +18613,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -18409,7 +18649,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -18445,7 +18685,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -18482,7 +18722,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -18518,7 +18758,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -18554,7 +18794,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -18590,7 +18830,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -18626,7 +18866,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -18662,7 +18902,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -18698,7 +18938,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -18734,7 +18974,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -18770,7 +19010,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -20780,6 +21020,41 @@
         <v>420.8448268314304</v>
       </c>
       <c r="K88" s="21">
+        <v>1038.1097464244663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>5.0638683841341896</v>
+      </c>
+      <c r="E89" s="22">
+        <v>4.3995380394758952</v>
+      </c>
+      <c r="F89" s="22">
+        <v>94.364315131845771</v>
+      </c>
+      <c r="G89" s="22">
+        <v>108.61332887658226</v>
+      </c>
+      <c r="H89" s="22">
+        <v>732.0858186037741</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1146.7230753010485</v>
+      </c>
+      <c r="J89" s="22">
+        <v>414.63725669727444</v>
+      </c>
+      <c r="K89" s="21">
         <v>1038.1097464244663</v>
       </c>
     </row>
@@ -20799,7 +21074,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21573,6 +21848,16 @@
         <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
         <v>-1.8283260131836769</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="4">-AG10</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -21621,6 +21906,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>950.37188045422408</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1728.1136859447943</v>
+      </c>
+      <c r="U11" s="5">
+        <v>777.74180549057019</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1674.8043472917359</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.81835523702453561</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.11654017696586116</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -21641,6 +21950,16 @@
         <f t="shared" si="3"/>
         <v>-672.01613508174762</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="4"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -21709,6 +22028,16 @@
         <f t="shared" si="3"/>
         <v>-158.87923971358168</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="4"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -21777,6 +22106,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -21845,6 +22184,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -21907,6 +22256,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="3"/>
+        <v>-115.68877781628487</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
         <v>-115.68877781628487</v>
       </c>
     </row>
@@ -21967,8 +22326,18 @@
       <c r="AE16" s="1">
         <v>1701.127830360952</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -22019,8 +22388,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.14044080627359001</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1728.1136859447943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -22067,8 +22442,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>0.11654017696586116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -22116,7 +22495,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -22164,7 +22543,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -22212,7 +22591,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -22260,7 +22639,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -22308,7 +22687,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -22357,7 +22736,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -22405,7 +22784,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -22453,7 +22832,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -22501,7 +22880,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -22549,7 +22928,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -22597,7 +22976,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -22645,7 +23024,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -22693,7 +23072,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -25189,13 +25568,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -25236,13 +25615,13 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -25259,22 +25638,22 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.4562031331351567</v>
+        <v>0.96042764870559305</v>
       </c>
       <c r="E86" s="22">
-        <v>0.38304209821991209</v>
+        <v>0.80640441730507806</v>
       </c>
       <c r="F86" s="22">
-        <v>127.88536031443593</v>
+        <v>128.30872263352109</v>
       </c>
       <c r="G86" s="22">
-        <v>152.31146218311744</v>
+        <v>152.81568669868787</v>
       </c>
       <c r="H86" s="22">
-        <v>1031.9729078329078</v>
+        <v>1032.4771323484781</v>
       </c>
       <c r="I86" s="22">
-        <v>1827.1158094748534</v>
+        <v>1827.6200339904237</v>
       </c>
       <c r="J86" s="22">
         <v>795.14290164194563</v>
@@ -25283,16 +25662,16 @@
         <v>1674.8043472917359</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -25306,40 +25685,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>0.89085207327592597</v>
+        <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0.74735910214395884</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>128.63271941657987</v>
+        <v>128.66371820703947</v>
       </c>
       <c r="G87" s="22">
-        <v>153.33020559279601</v>
+        <v>153.36715615199941</v>
       </c>
       <c r="H87" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I87" s="22">
-        <v>1828.1345528845318</v>
+        <v>1828.1715034437352</v>
       </c>
       <c r="J87" s="22">
-        <v>795.27079297834803</v>
+        <v>795.27121636045104</v>
       </c>
       <c r="K87" s="21">
         <v>1674.8043472917359</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -25359,34 +25738,81 @@
         <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>128.47220308272244</v>
+        <v>128.50320187318204</v>
       </c>
       <c r="G88" s="22">
-        <v>156.73609143654059</v>
+        <v>156.77390996178818</v>
       </c>
       <c r="H88" s="22">
-        <v>1032.8637599061838</v>
+        <v>1032.9002870832842</v>
       </c>
       <c r="I88" s="22">
-        <v>1831.736268660175</v>
+        <v>1831.7740871854226</v>
       </c>
       <c r="J88" s="22">
-        <v>798.87250875399127</v>
+        <v>798.87380010213838</v>
       </c>
       <c r="K88" s="21">
         <v>1675.0001772236344</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>1.0127736768268381</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0.87990760789517908</v>
+      </c>
+      <c r="F89" s="22">
+        <v>129.38310948107721</v>
+      </c>
+      <c r="G89" s="22">
+        <v>148.91996197406422</v>
+      </c>
+      <c r="H89" s="22">
+        <v>1033.913060760111</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1823.9201391976985</v>
+      </c>
+      <c r="J89" s="22">
+        <v>790.00707843758755</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -25405,7 +25831,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25447,7 +25873,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25480,16 +25906,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -26198,6 +26624,16 @@
         <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
         <v>-1.1609492944336848</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="4">-AG10</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -26248,6 +26684,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="S11" s="5">
+        <v>608.64667059516819</v>
+      </c>
+      <c r="T11" s="5">
+        <v>998.05348765153417</v>
+      </c>
+      <c r="U11" s="5">
+        <v>389.40681705636598</v>
+      </c>
+      <c r="V11" s="5">
+        <v>996.05056362079893</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.63979125471200327</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.9448205942007872E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -26268,6 +26728,16 @@
         <f t="shared" si="3"/>
         <v>-412.0446810616325</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="4"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -26338,6 +26808,16 @@
         <f t="shared" si="3"/>
         <v>-80.462067912442933</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="4"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -26408,6 +26888,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -26478,6 +26968,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -26544,6 +27044,16 @@
         <f t="shared" si="3"/>
         <v>-113.01957049723279</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -26604,8 +27114,18 @@
       <c r="AE16" s="1">
         <v>960.32685999974194</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9594018294262696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -26658,8 +27178,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11436498939085693</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>998.05348765153417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -26708,8 +27234,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.9448205942007872E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -26759,7 +27289,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -26809,7 +27339,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -26859,7 +27389,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -26909,7 +27439,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -26959,7 +27489,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -27010,7 +27540,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -27060,7 +27590,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -27110,7 +27640,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -27160,7 +27690,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -27210,7 +27740,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -27260,7 +27790,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -27310,7 +27840,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -27360,7 +27890,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -29875,22 +30405,22 @@
         <v>1.8310291901432449</v>
       </c>
       <c r="E82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="F82" s="22">
-        <v>0</v>
+        <v>1.5569976119286679</v>
       </c>
       <c r="G82" s="22">
-        <v>0</v>
+        <v>1.8310291901432449</v>
       </c>
       <c r="H82" s="22">
         <v>608.51829795588515</v>
       </c>
       <c r="I82" s="22">
-        <v>996.05056362079893</v>
+        <v>997.88159281094215</v>
       </c>
       <c r="J82" s="22">
-        <v>387.53226566491378</v>
+        <v>389.36329485505701</v>
       </c>
       <c r="K82" s="21">
         <v>996.05056362079893</v>
@@ -29925,22 +30455,22 @@
         <v>4.4458175670523403E-2</v>
       </c>
       <c r="E83" s="22">
-        <v>0</v>
+        <v>3.6864159834470875E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>0</v>
+        <v>1.5938617717631387</v>
       </c>
       <c r="G83" s="22">
-        <v>0</v>
+        <v>1.9221972496255693</v>
       </c>
       <c r="H83" s="22">
         <v>608.56275613155572</v>
       </c>
       <c r="I83" s="22">
-        <v>996.05056362079893</v>
+        <v>997.97276087042451</v>
       </c>
       <c r="J83" s="22">
-        <v>387.48780748924321</v>
+        <v>389.41000473886879</v>
       </c>
       <c r="K83" s="21">
         <v>996.05056362079893</v>
@@ -29975,37 +30505,37 @@
         <v>8.3914463612521806E-2</v>
       </c>
       <c r="E84" s="22">
-        <v>0</v>
+        <v>6.969639857009341E-2</v>
       </c>
       <c r="F84" s="22">
-        <v>0</v>
+        <v>1.6635581703332321</v>
       </c>
       <c r="G84" s="22">
-        <v>0</v>
+        <v>2.0029240307352407</v>
       </c>
       <c r="H84" s="22">
         <v>608.64667059516819</v>
       </c>
       <c r="I84" s="22">
-        <v>996.05056362079893</v>
+        <v>998.05348765153417</v>
       </c>
       <c r="J84" s="22">
-        <v>387.40389302563074</v>
+        <v>389.40681705636598</v>
       </c>
       <c r="K84" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -30022,43 +30552,43 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>81.144824245548421</v>
+        <v>85.415604468998339</v>
       </c>
       <c r="E85" s="22">
-        <v>0</v>
+        <v>87.605746031091883</v>
       </c>
       <c r="F85" s="22">
-        <v>0</v>
+        <v>89.269304201425115</v>
       </c>
       <c r="G85" s="22">
-        <v>0</v>
+        <v>87.037573724735552</v>
       </c>
       <c r="H85" s="22">
-        <v>689.79149484071661</v>
+        <v>694.06227506416656</v>
       </c>
       <c r="I85" s="22">
-        <v>996.05056362079893</v>
+        <v>1083.0881373455345</v>
       </c>
       <c r="J85" s="22">
-        <v>306.25906878008232</v>
+        <v>389.02586228136795</v>
       </c>
       <c r="K85" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -30072,43 +30602,43 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>0.48021382435279653</v>
+        <v>0.4562031331351567</v>
       </c>
       <c r="E86" s="22">
-        <v>0</v>
+        <v>0.38304209821991209</v>
       </c>
       <c r="F86" s="22">
-        <v>0</v>
+        <v>89.652346299645032</v>
       </c>
       <c r="G86" s="22">
-        <v>0</v>
+        <v>106.77594307489099</v>
       </c>
       <c r="H86" s="22">
-        <v>690.27170866506935</v>
+        <v>694.51847819730176</v>
       </c>
       <c r="I86" s="22">
-        <v>996.05056362079893</v>
+        <v>1102.8265066956899</v>
       </c>
       <c r="J86" s="22">
-        <v>305.77885495572957</v>
+        <v>408.30802849838813</v>
       </c>
       <c r="K86" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -30125,37 +30655,37 @@
         <v>0.4231547348060648</v>
       </c>
       <c r="E87" s="22">
-        <v>0</v>
+        <v>0.35499557351838046</v>
       </c>
       <c r="F87" s="22">
-        <v>0</v>
+        <v>90.007341873163412</v>
       </c>
       <c r="G87" s="22">
-        <v>0</v>
+        <v>107.28875434545456</v>
       </c>
       <c r="H87" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I87" s="22">
-        <v>996.05056362079893</v>
+        <v>1103.3393179662535</v>
       </c>
       <c r="J87" s="22">
-        <v>305.3557002209235</v>
+        <v>408.39768503414564</v>
       </c>
       <c r="K87" s="21">
         <v>996.05056362079893</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -30175,39 +30705,89 @@
         <v>-0.19582993189847611</v>
       </c>
       <c r="E88" s="22">
-        <v>0</v>
+        <v>-0.16051633385743194</v>
       </c>
       <c r="F88" s="22">
-        <v>0</v>
+        <v>89.846825539305982</v>
       </c>
       <c r="G88" s="22">
-        <v>0</v>
+        <v>109.6131297284916</v>
       </c>
       <c r="H88" s="22">
-        <v>690.69486339987543</v>
+        <v>694.94163293210784</v>
       </c>
       <c r="I88" s="22">
-        <v>996.24639355269744</v>
+        <v>1105.859523281189</v>
       </c>
       <c r="J88" s="22">
-        <v>305.55153015282201</v>
+        <v>410.91789034908118</v>
       </c>
       <c r="K88" s="21">
         <v>996.24639355269744</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>4.8106749649274798</v>
+      </c>
+      <c r="E89" s="22">
+        <v>4.1795611375021</v>
+      </c>
+      <c r="F89" s="22">
+        <v>94.026386676808087</v>
+      </c>
+      <c r="G89" s="22">
+        <v>108.22437321709931</v>
+      </c>
+      <c r="H89" s="22">
+        <v>699.75230789703528</v>
+      </c>
+      <c r="I89" s="22">
+        <v>1104.4707667697967</v>
+      </c>
+      <c r="J89" s="22">
+        <v>404.7184588727614</v>
+      </c>
+      <c r="K89" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -30227,7 +30807,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30274,7 +30854,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -30283,10 +30863,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -30965,6 +31545,16 @@
         <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
         <v>-0.57621376243097611</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="4">-AG10</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -31007,6 +31597,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="S11" s="5">
+        <v>317.75778856327963</v>
+      </c>
+      <c r="T11" s="5">
+        <v>513.43840767266863</v>
+      </c>
+      <c r="U11" s="5">
+        <v>195.680619109389</v>
+      </c>
+      <c r="V11" s="5">
+        <v>513.19080303179044</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.61581690882903517</v>
+      </c>
+      <c r="X11" s="9">
+        <v>8.7073790790229921E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -31027,6 +31641,16 @@
         <f t="shared" si="3"/>
         <v>-262.72397636432083</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="4"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -31089,6 +31713,16 @@
         <f t="shared" si="3"/>
         <v>-43.135897352006509</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="4"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -31151,6 +31785,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -31213,6 +31857,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -31269,6 +31923,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="3"/>
+        <v>-11.079325740253353</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
         <v>-11.079325740253353</v>
       </c>
     </row>
@@ -31323,8 +31987,18 @@
       <c r="AE16" s="1">
         <v>509.51578528070536</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.24237534426794127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -31369,8 +32043,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.10458712586200214</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>513.43840767266863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -31411,8 +32091,12 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>8.7073790790229921E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -31454,7 +32138,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -31496,7 +32180,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -31538,7 +32222,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -31580,7 +32264,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -31622,7 +32306,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -31665,7 +32349,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -31707,7 +32391,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -31749,7 +32433,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -31791,7 +32475,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -31833,7 +32517,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -31875,7 +32559,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -31917,7 +32601,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -31959,7 +32643,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -34311,6 +34995,47 @@
         <v>202.81999607147844</v>
       </c>
       <c r="M88" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0.72637007155021682</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0.63107737368027983</v>
+      </c>
+      <c r="H89" s="22">
+        <v>30.122787736471881</v>
+      </c>
+      <c r="I89" s="22">
+        <v>34.671329374135034</v>
+      </c>
+      <c r="J89" s="22">
+        <v>347.15757819781584</v>
+      </c>
+      <c r="K89" s="22">
+        <v>547.94264608550873</v>
+      </c>
+      <c r="L89" s="22">
+        <v>200.78506788769289</v>
+      </c>
+      <c r="M89" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>
@@ -34330,7 +35055,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35011,6 +35736,16 @@
         <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
         <v>-2.4278224531545677E-2</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>2.4278224531545677E-2</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="4">-AE10</f>
+        <v>-2.4278224531545677E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -35047,6 +35782,30 @@
         <v>1.3866004506281967E-2</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>6.8889946367875154E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>127.97748504452456</v>
+      </c>
+      <c r="R11" s="5">
+        <v>221.11442044972711</v>
+      </c>
+      <c r="S11" s="5">
+        <v>93.13693540520255</v>
+      </c>
+      <c r="T11" s="5">
+        <v>221.04391269211092</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.72776031950306996</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.10546782092757345</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -35067,6 +35826,16 @@
         <f t="shared" si="3"/>
         <v>-94.666167723656173</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>94.666167723656173</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="4"/>
+        <v>-94.666167723656173</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -35123,6 +35892,16 @@
         <f t="shared" si="3"/>
         <v>-17.77547467858912</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>17.77547467858912</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="4"/>
+        <v>-17.77547467858912</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -35179,6 +35958,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -35235,6 +36024,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -35285,6 +36084,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="3"/>
+        <v>-15.442674471379846</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>15.442674471379846</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="4"/>
         <v>-15.442674471379846</v>
       </c>
     </row>
@@ -35333,8 +36142,18 @@
       <c r="AC16" s="1">
         <v>215.75971609067892</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>6.8889946367875154E-2</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.8889946367875154E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -35373,8 +36192,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>0.12416821318102267</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>221.11442044972711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -35409,8 +36234,12 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>0.10546782092757345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -35446,7 +36275,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -35482,7 +36311,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -35518,7 +36347,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -35554,7 +36383,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -35590,7 +36419,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -35627,7 +36456,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -35663,7 +36492,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -35699,7 +36528,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -35735,7 +36564,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -35771,7 +36600,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -35807,7 +36636,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -35843,7 +36672,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -35879,7 +36708,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -37889,6 +38718,41 @@
         <v>98.176757687169584</v>
       </c>
       <c r="K88" s="21">
+        <v>221.04628990103703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0.28943947709597956</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0.25146782914017179</v>
+      </c>
+      <c r="F89" s="22">
+        <v>20.886826545102018</v>
+      </c>
+      <c r="G89" s="22">
+        <v>24.040737831473944</v>
+      </c>
+      <c r="H89" s="22">
+        <v>148.33410991481924</v>
+      </c>
+      <c r="I89" s="22">
+        <v>245.08702773251096</v>
+      </c>
+      <c r="J89" s="22">
+        <v>96.752917817691724</v>
+      </c>
+      <c r="K89" s="21">
         <v>221.04628990103703</v>
       </c>
     </row>
@@ -37908,7 +38772,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38682,6 +39546,16 @@
         <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
         <v>-3.6578691859655649E-2</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>3.6578691859655649E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="4">-AG10</f>
+        <v>-3.6578691859655649E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -38730,6 +39604,30 @@
         <v>0.95</v>
       </c>
       <c r="P11" s="27"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>6.5445449049491344E-2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>202.87805212929041</v>
+      </c>
+      <c r="T11" s="5">
+        <v>385.74586842928301</v>
+      </c>
+      <c r="U11" s="5">
+        <v>182.8678162999926</v>
+      </c>
+      <c r="V11" s="5">
+        <v>385.40276373598931</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.90136815875703669</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.12179601054638178</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -38750,6 +39648,16 @@
         <f t="shared" si="3"/>
         <v>-152.78805831265788</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>152.78805831265788</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="4"/>
+        <v>-152.78805831265788</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -38818,6 +39726,16 @@
         <f t="shared" si="3"/>
         <v>-35.118717328377443</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>35.118717328377443</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="4"/>
+        <v>-35.118717328377443</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -38886,6 +39804,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -38954,6 +39882,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -39016,6 +39954,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="3"/>
+        <v>-14.869252347345935</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>14.869252347345935</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
         <v>-14.869252347345935</v>
       </c>
     </row>
@@ -39076,8 +40024,18 @@
       <c r="AE16" s="1">
         <v>380.98718402423759</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>6.5445449049491344E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5445449049491344E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -39128,8 +40086,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.14683256306802317</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>385.74586842928301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -39176,8 +40140,12 @@
         <v>0.95</v>
       </c>
       <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>0.12179601054638178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -39225,7 +40193,7 @@
       </c>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -39273,7 +40241,7 @@
       </c>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -39321,7 +40289,7 @@
       </c>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -39369,7 +40337,7 @@
       </c>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -39417,7 +40385,7 @@
       </c>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -39466,7 +40434,7 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -39514,7 +40482,7 @@
       </c>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -39562,7 +40530,7 @@
       </c>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -39610,7 +40578,7 @@
       </c>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -39658,7 +40626,7 @@
       </c>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -39706,7 +40674,7 @@
       </c>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -39754,7 +40722,7 @@
       </c>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -39802,7 +40770,7 @@
       </c>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -42298,13 +43266,13 @@
         <v>385.40276373598931</v>
       </c>
       <c r="L84" s="26">
-        <v>2.2331962200588539E-2</v>
+        <v>1.8609968500490449E-2</v>
       </c>
       <c r="M84" s="27">
-        <v>5.8943959288749508E-2</v>
+        <v>4.9453295115756829E-2</v>
       </c>
       <c r="N84" s="27">
-        <v>37.886769857434714</v>
+        <v>37.631402431181847</v>
       </c>
       <c r="O84" s="27">
         <v>0.95</v>
@@ -42345,13 +43313,13 @@
         <v>385.40276373598931</v>
       </c>
       <c r="L85" s="26">
-        <v>1.8609968500490449E-2</v>
+        <v>1.550830708374204E-2</v>
       </c>
       <c r="M85" s="27">
-        <v>4.9453295115756829E-2</v>
+        <v>7.9377741320371495E-2</v>
       </c>
       <c r="N85" s="27">
-        <v>37.631402431181847</v>
+        <v>19.537349924268998</v>
       </c>
       <c r="O85" s="27">
         <v>0.95</v>
@@ -42368,22 +43336,22 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>8.0298927309556366E-3</v>
+        <v>1.6905037328327658E-2</v>
       </c>
       <c r="E86" s="22">
-        <v>6.7421434373069527E-3</v>
+        <v>1.4193986183804113E-2</v>
       </c>
       <c r="F86" s="22">
-        <v>19.828761465281964</v>
+        <v>19.836213308028462</v>
       </c>
       <c r="G86" s="22">
-        <v>23.61605460258793</v>
+        <v>23.624929747185305</v>
       </c>
       <c r="H86" s="22">
-        <v>221.93470491713336</v>
+        <v>221.94358006173073</v>
       </c>
       <c r="I86" s="22">
-        <v>409.01881833857726</v>
+        <v>409.02769348317463</v>
       </c>
       <c r="J86" s="22">
         <v>187.0841134214439</v>
@@ -42392,16 +43360,16 @@
         <v>385.40276373598931</v>
       </c>
       <c r="L86" s="26">
-        <v>1.550830708374204E-2</v>
+        <v>4.8923582719677207E-2</v>
       </c>
       <c r="M86" s="27">
-        <v>7.9377741320371495E-2</v>
+        <v>0.10214811125020175</v>
       </c>
       <c r="N86" s="27">
-        <v>19.537349924268998</v>
+        <v>47.894750202325042</v>
       </c>
       <c r="O86" s="27">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75">
@@ -42415,40 +43383,40 @@
         <v>1.2089520707745522</v>
       </c>
       <c r="D87" s="21">
-        <v>1.5101759359599615E-2</v>
+        <v>7.1733356958098172E-3</v>
       </c>
       <c r="E87" s="22">
-        <v>1.2669260873223245E-2</v>
+        <v>6.0178989147810415E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>19.841430726155188</v>
+        <v>19.842231206943243</v>
       </c>
       <c r="G87" s="22">
-        <v>23.65098605001166</v>
+        <v>23.651940223136211</v>
       </c>
       <c r="H87" s="22">
-        <v>221.94980667649295</v>
+        <v>221.95075339742652</v>
       </c>
       <c r="I87" s="22">
-        <v>409.05374978600099</v>
+        <v>409.0547039591255</v>
       </c>
       <c r="J87" s="22">
-        <v>187.10394310950804</v>
+        <v>187.10395056169898</v>
       </c>
       <c r="K87" s="21">
         <v>385.40276373598931</v>
       </c>
       <c r="L87" s="26">
-        <v>4.8923582719677207E-2</v>
+        <v>4.0936326721404591E-2</v>
       </c>
       <c r="M87" s="27">
-        <v>0.10214811125020175</v>
+        <v>8.5290100496841714E-2</v>
       </c>
       <c r="N87" s="27">
-        <v>47.894750202325042</v>
+        <v>47.99657461175164</v>
       </c>
       <c r="O87" s="27">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75">
@@ -42468,34 +43436,81 @@
         <v>-1.8511052679083034E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>19.839579620887282</v>
+        <v>19.840380101675336</v>
       </c>
       <c r="G88" s="22">
-        <v>24.204287705097411</v>
+        <v>24.20526429168174</v>
       </c>
       <c r="H88" s="22">
-        <v>221.94980667649295</v>
+        <v>221.95075339742652</v>
       </c>
       <c r="I88" s="22">
-        <v>409.60930978956651</v>
+        <v>409.61028637615084</v>
       </c>
       <c r="J88" s="22">
-        <v>187.65950311307355</v>
+        <v>187.65953297872431</v>
       </c>
       <c r="K88" s="21">
         <v>385.40502208446912</v>
       </c>
       <c r="L88" s="26">
-        <v>4.0936326721404591E-2</v>
+        <v>3.8780271791E-2</v>
       </c>
       <c r="M88" s="27">
-        <v>8.5290100496841714E-2</v>
+        <v>7.5741749937197608E-2</v>
       </c>
       <c r="N88" s="27">
-        <v>47.99657461175164</v>
+        <v>51.200654623315721</v>
       </c>
       <c r="O88" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="21">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>5.7887895419195916E-2</v>
+      </c>
+      <c r="E89" s="22">
+        <v>5.0293565828034362E-2</v>
+      </c>
+      <c r="F89" s="22">
+        <v>19.890673667503371</v>
+      </c>
+      <c r="G89" s="22">
+        <v>22.894165846557772</v>
+      </c>
+      <c r="H89" s="22">
+        <v>222.00864129284571</v>
+      </c>
+      <c r="I89" s="22">
+        <v>408.29918793102689</v>
+      </c>
+      <c r="J89" s="22">
+        <v>186.29054663818118</v>
+      </c>
+      <c r="K89" s="21">
+        <v>385.40502208446912</v>
+      </c>
+      <c r="L89" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M89" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N89" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O89" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -42514,7 +43529,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42589,16 +43604,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -42691,7 +43706,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -43307,6 +44322,16 @@
         <f t="shared" ref="AE10:AE15" si="3">-AD10</f>
         <v>-2.3064313304968394E-2</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>2.3064313304968394E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="4">-AG10</f>
+        <v>-2.3064313304968394E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -43357,6 +44382,30 @@
       <c r="P11" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>6.5445449049477133E-2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>121.57861079229829</v>
+      </c>
+      <c r="T11" s="5">
+        <v>209.98835821284311</v>
+      </c>
+      <c r="U11" s="5">
+        <v>88.409747420544818</v>
+      </c>
+      <c r="V11" s="5">
+        <v>209.92137584310774</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.7271817538002775</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.10540080253545758</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -43377,6 +44426,16 @@
         <f t="shared" si="3"/>
         <v>-89.932859337473346</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>89.932859337473346</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="4"/>
+        <v>-89.932859337473346</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -43447,6 +44506,16 @@
         <f t="shared" si="3"/>
         <v>-16.886700944659651</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>16.886700944659651</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="4"/>
+        <v>-16.886700944659651</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -43517,6 +44586,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -43587,6 +44666,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -43653,6 +44742,16 @@
         <f t="shared" si="3"/>
         <v>-14.670540747810847</v>
       </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>14.670540747810847</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="4"/>
+        <v>-14.670540747810847</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="15">
@@ -43713,8 +44812,18 @@
       <c r="AE16" s="1">
         <v>204.90138907174736</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>6.5445449049477133E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5445449049477133E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -43767,8 +44876,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.12408335318209618</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>209.98835821284311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -43817,8 +44932,12 @@
       <c r="P18" s="27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>0.10540080253545758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -43868,7 +44987,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -43918,7 +45037,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -43968,7 +45087,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -44018,7 +45137,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -44068,7 +45187,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -44119,7 +45238,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -44169,7 +45288,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -44219,7 +45338,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -44269,7 +45388,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -44319,7 +45438,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -44369,7 +45488,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -44419,7 +45538,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -44469,7 +45588,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -47104,16 +48223,16 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L84" s="26">
-        <v>15.447149282091519</v>
+        <v>15.040650454569146</v>
       </c>
       <c r="M84" s="27">
-        <v>29.052393907642706</v>
+        <v>24.381812756618189</v>
       </c>
       <c r="N84" s="27">
-        <v>43.442701755044162</v>
+        <v>37.089072088902171</v>
       </c>
       <c r="O84" s="27">
-        <v>0.27177821283979142</v>
+        <v>-1.0327059079497758</v>
       </c>
       <c r="P84" s="27">
         <v>0.95</v>
@@ -47130,22 +48249,22 @@
         <v>1.2097484883584595</v>
       </c>
       <c r="D85" s="21">
-        <v>19.048622895111997</v>
+        <v>20.051181994854733</v>
       </c>
       <c r="E85" s="22">
-        <v>19.537048645448674</v>
+        <v>20.565314363630186</v>
       </c>
       <c r="F85" s="22">
-        <v>19.592681843079571</v>
+        <v>20.620947561261083</v>
       </c>
       <c r="G85" s="22">
-        <v>19.102865264128518</v>
+        <v>20.105424363871258</v>
       </c>
       <c r="H85" s="22">
-        <v>140.6272336874103</v>
+        <v>141.62979278715304</v>
       </c>
       <c r="I85" s="22">
-        <v>229.02424110723626</v>
+        <v>230.026800206979</v>
       </c>
       <c r="J85" s="22">
         <v>88.397007419825968</v>
@@ -47154,19 +48273,19 @@
         <v>209.92137584310774</v>
       </c>
       <c r="L85" s="26">
-        <v>15.040650454569146</v>
+        <v>0</v>
       </c>
       <c r="M85" s="27">
-        <v>24.381812756618189</v>
+        <v>16.25454183774546</v>
       </c>
       <c r="N85" s="27">
-        <v>37.089072088902171</v>
+        <v>30.144228671849934</v>
       </c>
       <c r="O85" s="27">
-        <v>-1.0327059079497758</v>
+        <v>-11.524831830463491</v>
       </c>
       <c r="P85" s="27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75">
@@ -47180,43 +48299,43 @@
         <v>1.2086015576979154</v>
       </c>
       <c r="D86" s="21">
-        <v>8.452518664163829E-3</v>
+        <v>8.0298927309556366E-3</v>
       </c>
       <c r="E86" s="22">
-        <v>7.0969930919020565E-3</v>
+        <v>6.7421434373069527E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>19.599778836171474</v>
+        <v>20.62768970469839</v>
       </c>
       <c r="G86" s="22">
-        <v>23.343336294811333</v>
+        <v>24.567578123542216</v>
       </c>
       <c r="H86" s="22">
-        <v>140.63568620607447</v>
+        <v>141.63782267988398</v>
       </c>
       <c r="I86" s="22">
-        <v>233.26471213791908</v>
+        <v>234.48895396664994</v>
       </c>
       <c r="J86" s="22">
-        <v>92.629025931844609</v>
+        <v>92.851131286765963</v>
       </c>
       <c r="K86" s="21">
         <v>209.92137584310774</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>39.198850542858423</v>
       </c>
       <c r="M86" s="27">
-        <v>16.25454183774546</v>
+        <v>23.902644739449784</v>
       </c>
       <c r="N86" s="27">
-        <v>30.144228671849934</v>
+        <v>28.063700694383215</v>
       </c>
       <c r="O86" s="27">
-        <v>-11.524831830463491</v>
+        <v>15.580532829582921</v>
       </c>
       <c r="P86" s="27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="12.75">
@@ -47236,34 +48355,34 @@
         <v>6.0178989147810415E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>19.605796735086255</v>
+        <v>20.633707603613171</v>
       </c>
       <c r="G87" s="22">
-        <v>23.370110325241793</v>
+        <v>24.595380112875521</v>
       </c>
       <c r="H87" s="22">
-        <v>140.64285954177026</v>
+        <v>141.64499601557978</v>
       </c>
       <c r="I87" s="22">
-        <v>233.29148616834954</v>
+        <v>234.51675595598326</v>
       </c>
       <c r="J87" s="22">
-        <v>92.648626626579272</v>
+        <v>92.871759940403479</v>
       </c>
       <c r="K87" s="21">
         <v>209.92137584310774</v>
       </c>
       <c r="L87" s="26">
-        <v>39.198850542858423</v>
+        <v>49.019609926414297</v>
       </c>
       <c r="M87" s="27">
-        <v>23.902644739449784</v>
+        <v>32.274966468437952</v>
       </c>
       <c r="N87" s="27">
-        <v>28.063700694383215</v>
+        <v>29.467455952401462</v>
       </c>
       <c r="O87" s="27">
-        <v>15.580532829582921</v>
+        <v>37.889987500510934</v>
       </c>
       <c r="P87" s="27">
         <v>0.95</v>
@@ -47286,36 +48405,86 @@
         <v>-1.8511052679083034E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>19.603945629818348</v>
+        <v>20.631856498345265</v>
       </c>
       <c r="G88" s="22">
-        <v>23.916814229251766</v>
+        <v>25.170865518263373</v>
       </c>
       <c r="H88" s="22">
-        <v>140.64285954177026</v>
+        <v>141.64499601557978</v>
       </c>
       <c r="I88" s="22">
-        <v>233.84044842083932</v>
+        <v>235.09449970985094</v>
       </c>
       <c r="J88" s="22">
-        <v>93.197588879069059</v>
+        <v>93.449503694271158</v>
       </c>
       <c r="K88" s="21">
         <v>209.92363419158755</v>
       </c>
       <c r="L88" s="26">
-        <v>49.019609926414297</v>
+        <v>58.045981670772953</v>
       </c>
       <c r="M88" s="27">
-        <v>32.274966468437952</v>
+        <v>40.865304869216288</v>
       </c>
       <c r="N88" s="27">
-        <v>29.467455952401462</v>
+        <v>33.266738924673071</v>
       </c>
       <c r="O88" s="27">
-        <v>37.889987500510934</v>
+        <v>56.062436758302724</v>
       </c>
       <c r="P88" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0.27496750324118058</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0.23889443768316318</v>
+      </c>
+      <c r="F89" s="22">
+        <v>20.870750936028429</v>
+      </c>
+      <c r="G89" s="22">
+        <v>24.0222348050623</v>
+      </c>
+      <c r="H89" s="22">
+        <v>141.91996351882096</v>
+      </c>
+      <c r="I89" s="22">
+        <v>233.94586899664986</v>
+      </c>
+      <c r="J89" s="22">
+        <v>92.0259054778289</v>
+      </c>
+      <c r="K89" s="21">
+        <v>209.92363419158755</v>
+      </c>
+      <c r="L89" s="26">
+        <v>60</v>
+      </c>
+      <c r="M89" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N89" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O89" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P89" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -47335,7 +48504,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47391,10 +48560,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -47505,7 +48674,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -48073,6 +49242,16 @@
         <f t="shared" ref="AE10:AE15" si="4">-AD10</f>
         <v>-1.124314398050745E-2</v>
       </c>
+      <c r="AF10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.124314398050745E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" ref="AH10:AH16" si="5">-AG10</f>
+        <v>-1.124314398050745E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -48115,6 +49294,30 @@
         <v>9.551382315161859E-4</v>
       </c>
       <c r="N11" s="7"/>
+      <c r="Q11" s="29">
+        <v>45289</v>
+      </c>
+      <c r="R11" s="10">
+        <v>7.9158809187589441E-3</v>
+      </c>
+      <c r="S11" s="5">
+        <v>65.730036166853537</v>
+      </c>
+      <c r="T11" s="5">
+        <v>111.56102687779517</v>
+      </c>
+      <c r="U11" s="5">
+        <v>45.830990710941634</v>
+      </c>
+      <c r="V11" s="5">
+        <v>111.55292633180204</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.6972609994402128</v>
+      </c>
+      <c r="X11" s="9">
+        <v>9.5570904561173009E-2</v>
+      </c>
       <c r="Z11" s="6">
         <v>43462</v>
       </c>
@@ -48135,6 +49338,16 @@
         <f t="shared" si="4"/>
         <v>-55.643403638191252</v>
       </c>
+      <c r="AF11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>55.643403638191252</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="5"/>
+        <v>-55.643403638191252</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -48197,6 +49410,16 @@
         <f t="shared" si="4"/>
         <v>-8.5413663158345159</v>
       </c>
+      <c r="AF12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>8.5413663158345159</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.5413663158345159</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -48259,6 +49482,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -48321,6 +49554,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="AF14" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -48377,6 +49620,16 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="4"/>
+        <v>-1.5261071879285026</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1.5261071879285026</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="5"/>
         <v>-1.5261071879285026</v>
       </c>
     </row>
@@ -48431,8 +49684,18 @@
       <c r="AE16" s="1">
         <v>111.0233632055253</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF16" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>7.9158809187589441E-3</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.9158809187589441E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43251</v>
       </c>
@@ -48477,8 +49740,14 @@
         <f>IRR(AE10:AE16)</f>
         <v>0.11542825576418081</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AF17" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>111.56102687779517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43280</v>
       </c>
@@ -48519,8 +49788,12 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="AH18" s="2">
+        <f>IRR(AH10:AH17)</f>
+        <v>9.5570904561173009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43312</v>
       </c>
@@ -48562,7 +49835,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43343</v>
       </c>
@@ -48604,7 +49877,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43371</v>
       </c>
@@ -48646,7 +49919,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43404</v>
       </c>
@@ -48688,7 +49961,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43434</v>
       </c>
@@ -48730,7 +50003,7 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43462</v>
       </c>
@@ -48773,7 +50046,7 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43496</v>
       </c>
@@ -48815,7 +50088,7 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43524</v>
       </c>
@@ -48857,7 +50130,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43553</v>
       </c>
@@ -48899,7 +50172,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43585</v>
       </c>
@@ -48941,7 +50214,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43616</v>
       </c>
@@ -48983,7 +50256,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43644</v>
       </c>
@@ -49025,7 +50298,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43677</v>
       </c>
@@ -49067,7 +50340,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43707</v>
       </c>
@@ -51419,6 +52692,47 @@
         <v>47.504690605531394</v>
       </c>
       <c r="M88" s="21">
+        <v>111.55385483105712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75">
+      <c r="A89" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2081578032923572</v>
+      </c>
+      <c r="D89" s="20">
+        <v>281400</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1961772.1311867775</v>
+      </c>
+      <c r="F89" s="21">
+        <v>4.1517701041831181E-2</v>
+      </c>
+      <c r="G89" s="22">
+        <v>3.6070981942860056E-2</v>
+      </c>
+      <c r="H89" s="22">
+        <v>6.876951532063643</v>
+      </c>
+      <c r="I89" s="22">
+        <v>7.9153713708061826</v>
+      </c>
+      <c r="J89" s="22">
+        <v>72.436556393434074</v>
+      </c>
+      <c r="K89" s="22">
+        <v>119.46922620186331</v>
+      </c>
+      <c r="L89" s="22">
+        <v>47.032669808429233</v>
+      </c>
+      <c r="M89" s="21">
         <v>111.55385483105712</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -143,10 +143,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMA之MAX</t>
@@ -875,7 +871,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1133,6 +1129,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1141,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1400,6 +1399,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>732.0858186037741</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>736.24968678331516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1444,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1700,6 +1702,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1714,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1967,6 +1972,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1146.7230753010485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1151.3587646062847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +2017,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2267,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,7 +2287,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2534,6 +2545,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>414.63725669727444</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>415.10907782296954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,11 +2569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477441024"/>
-        <c:axId val="477664768"/>
+        <c:axId val="540564864"/>
+        <c:axId val="540572288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477441024"/>
+        <c:axId val="540564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,14 +2616,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477664768"/>
+        <c:crossAx val="540572288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477664768"/>
+        <c:axId val="540572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2672,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477441024"/>
+        <c:crossAx val="540564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,7 +2886,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3130,6 +3144,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,7 +3156,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3397,6 +3414,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1033.913060760111</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1037.8687355306749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,7 +3459,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3697,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,7 +3729,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3964,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1823.9201391976985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1828.5227288987212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,7 +4032,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4264,6 +4290,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +4302,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4531,6 +4560,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>790.00707843758755</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>790.65399336804626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606065792"/>
-        <c:axId val="606068096"/>
+        <c:axId val="542328704"/>
+        <c:axId val="544007296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606065792"/>
+        <c:axId val="542328704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,14 +4631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606068096"/>
+        <c:crossAx val="544007296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606068096"/>
+        <c:axId val="544007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,7 +4687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606065792"/>
+        <c:crossAx val="542328704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4869,7 +4901,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5127,6 +5159,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5136,7 +5171,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5394,6 +5429,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>699.75230789703528</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>703.70798266759925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +5474,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5694,6 +5732,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,7 +5744,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5961,6 +6002,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1104.4707667697967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1108.8965730253919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6003,7 +6047,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6261,6 +6305,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6270,7 +6317,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6528,6 +6575,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>404.7184588727614</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>405.18859035779269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6549,11 +6599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607686656"/>
-        <c:axId val="607688576"/>
+        <c:axId val="546197504"/>
+        <c:axId val="546199424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607686656"/>
+        <c:axId val="546197504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,14 +6646,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607688576"/>
+        <c:crossAx val="546199424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607688576"/>
+        <c:axId val="546199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6652,7 +6702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607686656"/>
+        <c:crossAx val="546197504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6866,7 +6916,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7124,6 +7174,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,7 +7186,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7391,6 +7444,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>347.15757819781584</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>347.83889366468429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7433,7 +7489,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7691,6 +7747,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7700,7 +7759,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7958,6 +8017,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>547.94264608550873</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>548.77457534742291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8000,7 +8062,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8258,6 +8320,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8267,7 +8332,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8525,6 +8590,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>200.78506788769289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>200.93568168273862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8546,11 +8614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610198656"/>
-        <c:axId val="610205696"/>
+        <c:axId val="553682432"/>
+        <c:axId val="611815424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610198656"/>
+        <c:axId val="553682432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8593,14 +8661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610205696"/>
+        <c:crossAx val="611815424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610205696"/>
+        <c:axId val="611815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,7 +8717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610198656"/>
+        <c:crossAx val="553682432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8863,7 +8931,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9121,6 +9189,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9130,7 +9201,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9388,6 +9459,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>148.33410991481924</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>148.54992391223874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9430,7 +9504,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9688,6 +9762,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9697,7 +9774,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9955,6 +10032,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>245.08702773251096</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>245.40727576305983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9997,7 +10077,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10255,6 +10335,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,7 +10347,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10522,6 +10605,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>96.752917817691724</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96.85735185082109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10543,11 +10629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610410496"/>
-        <c:axId val="610412032"/>
+        <c:axId val="613385344"/>
+        <c:axId val="613386880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610410496"/>
+        <c:axId val="613385344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10590,14 +10676,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610412032"/>
+        <c:crossAx val="613386880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610412032"/>
+        <c:axId val="613386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10646,7 +10732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610410496"/>
+        <c:crossAx val="613385344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10860,7 +10946,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11118,6 +11204,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11127,7 +11216,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11385,6 +11474,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>222.00864129284571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>222.21366459039422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11427,7 +11519,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11685,6 +11777,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11694,7 +11789,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11952,6 +12047,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>408.29918793102689</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>408.60366450206681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11994,7 +12092,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12252,6 +12350,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12261,7 +12362,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12519,6 +12620,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>186.29054663818118</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>186.38999991167259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12540,11 +12644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610918400"/>
-        <c:axId val="610920320"/>
+        <c:axId val="613542528"/>
+        <c:axId val="615912192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610918400"/>
+        <c:axId val="613542528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12587,14 +12691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610920320"/>
+        <c:crossAx val="615912192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610920320"/>
+        <c:axId val="615912192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12643,7 +12747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610918400"/>
+        <c:crossAx val="613542528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12857,7 +12961,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13115,6 +13219,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13124,7 +13231,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13382,6 +13489,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>141.91996351882096</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>142.12498681636947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13424,7 +13534,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13682,6 +13792,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13691,7 +13804,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13949,6 +14062,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>233.94586899664986</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>234.25524594935902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13991,7 +14107,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14249,6 +14365,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14258,7 +14377,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14516,6 +14635,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>92.0259054778289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>92.130259132989551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14537,11 +14659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614268928"/>
-        <c:axId val="614708736"/>
+        <c:axId val="637043456"/>
+        <c:axId val="637044992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614268928"/>
+        <c:axId val="637043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14584,14 +14706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614708736"/>
+        <c:crossAx val="637044992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614708736"/>
+        <c:axId val="637044992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14640,7 +14762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614268928"/>
+        <c:crossAx val="637043456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14854,7 +14976,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15112,6 +15234,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15121,7 +15246,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15379,6 +15504,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>72.436556393434074</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>72.471869090202688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15421,7 +15549,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15679,6 +15807,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15688,7 +15819,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15946,6 +16077,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>119.46922620186331</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>119.53892362350038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15988,7 +16122,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16246,6 +16380,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16255,7 +16392,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16513,6 +16650,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>47.032669808429233</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47.067054533297693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16534,11 +16674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475555328"/>
-        <c:axId val="475556864"/>
+        <c:axId val="638116224"/>
+        <c:axId val="638117760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475555328"/>
+        <c:axId val="638116224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16581,14 +16721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475556864"/>
+        <c:crossAx val="638117760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475556864"/>
+        <c:axId val="638117760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16637,7 +16777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475555328"/>
+        <c:crossAx val="638116224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16745,7 +16885,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16788,7 +16928,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16831,7 +16971,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16874,7 +17014,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16917,7 +17057,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16960,7 +17100,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17003,7 +17143,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17046,7 +17186,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17357,7 +17497,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21058,6 +21198,41 @@
         <v>1038.1097464244663</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>4.1638681795410299</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.6019620365693381</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.966277168415104</v>
+      </c>
+      <c r="G90" s="22">
+        <v>113.24901818181839</v>
+      </c>
+      <c r="H90" s="22">
+        <v>736.24968678331516</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1151.3587646062847</v>
+      </c>
+      <c r="J90" s="22">
+        <v>415.10907782296954</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1038.1097464244663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21074,7 +21249,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21116,7 +21291,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -21149,16 +21324,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -25813,6 +25988,53 @@
       </c>
       <c r="O89" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>132.8049734158181</v>
+      </c>
+      <c r="G90" s="22">
+        <v>153.52255167508687</v>
+      </c>
+      <c r="H90" s="22">
+        <v>1037.8687355306749</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1828.5227288987212</v>
+      </c>
+      <c r="J90" s="22">
+        <v>790.65399336804626</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L90" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -25831,7 +26053,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25873,7 +26095,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -25906,19 +26128,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -30788,6 +31010,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P89" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>3.9556747705639781</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3.421863934740871</v>
+      </c>
+      <c r="F90" s="22">
+        <v>97.448250611548957</v>
+      </c>
+      <c r="G90" s="22">
+        <v>112.65017947269457</v>
+      </c>
+      <c r="H90" s="22">
+        <v>703.70798266759925</v>
+      </c>
+      <c r="I90" s="22">
+        <v>1108.8965730253919</v>
+      </c>
+      <c r="J90" s="22">
+        <v>405.18859035779269</v>
+      </c>
+      <c r="K90" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L90" s="26">
+        <v>60</v>
+      </c>
+      <c r="M90" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N90" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O90" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P90" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -30807,7 +31079,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30863,10 +31135,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35036,6 +35308,47 @@
         <v>200.78506788769289</v>
       </c>
       <c r="M89" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.68131546686844424</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0.5893732319975018</v>
+      </c>
+      <c r="H90" s="22">
+        <v>30.712160968469384</v>
+      </c>
+      <c r="I90" s="22">
+        <v>35.503258636049189</v>
+      </c>
+      <c r="J90" s="22">
+        <v>347.83889366468429</v>
+      </c>
+      <c r="K90" s="22">
+        <v>548.77457534742291</v>
+      </c>
+      <c r="L90" s="22">
+        <v>200.93568168273862</v>
+      </c>
+      <c r="M90" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>
@@ -35055,7 +35368,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38756,6 +39069,41 @@
         <v>221.04628990103703</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0.21581399741949284</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0.18669030626012076</v>
+      </c>
+      <c r="F90" s="22">
+        <v>21.07351685136214</v>
+      </c>
+      <c r="G90" s="22">
+        <v>24.360985862022797</v>
+      </c>
+      <c r="H90" s="22">
+        <v>148.54992391223874</v>
+      </c>
+      <c r="I90" s="22">
+        <v>245.40727576305983</v>
+      </c>
+      <c r="J90" s="22">
+        <v>96.85735185082109</v>
+      </c>
+      <c r="K90" s="21">
+        <v>221.04628990103703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -38772,7 +39120,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38847,16 +39195,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43511,6 +43859,53 @@
       </c>
       <c r="O89" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="21">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0.2050232975485182</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0.17735579094711471</v>
+      </c>
+      <c r="F90" s="22">
+        <v>20.068029458450486</v>
+      </c>
+      <c r="G90" s="22">
+        <v>23.198642417597682</v>
+      </c>
+      <c r="H90" s="22">
+        <v>222.21366459039422</v>
+      </c>
+      <c r="I90" s="22">
+        <v>408.60366450206681</v>
+      </c>
+      <c r="J90" s="22">
+        <v>186.38999991167259</v>
+      </c>
+      <c r="K90" s="21">
+        <v>385.40502208446912</v>
+      </c>
+      <c r="L90" s="26">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="M90" s="27">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N90" s="27">
+        <v>43.309708959853076</v>
+      </c>
+      <c r="O90" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -43529,7 +43924,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43604,19 +43999,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48485,6 +48880,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P89" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0.2050232975485182</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0.17735579094711471</v>
+      </c>
+      <c r="F90" s="22">
+        <v>21.048106726975544</v>
+      </c>
+      <c r="G90" s="22">
+        <v>24.331611757771466</v>
+      </c>
+      <c r="H90" s="22">
+        <v>142.12498681636947</v>
+      </c>
+      <c r="I90" s="22">
+        <v>234.25524594935902</v>
+      </c>
+      <c r="J90" s="22">
+        <v>92.130259132989551</v>
+      </c>
+      <c r="K90" s="21">
+        <v>209.92363419158755</v>
+      </c>
+      <c r="L90" s="26">
+        <v>60</v>
+      </c>
+      <c r="M90" s="27">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="N90" s="27">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="O90" s="27">
+        <v>65.879266785883473</v>
+      </c>
+      <c r="P90" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -48504,7 +48949,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48560,10 +49005,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52736,6 +53181,47 @@
         <v>111.55385483105712</v>
       </c>
     </row>
+    <row r="90" spans="1:13" ht="12.75">
+      <c r="A90" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.2078301885560148</v>
+      </c>
+      <c r="D90" s="20">
+        <v>318300</v>
+      </c>
+      <c r="E90" s="20">
+        <v>1945294.5162682247</v>
+      </c>
+      <c r="F90" s="21">
+        <v>3.5312696768612505E-2</v>
+      </c>
+      <c r="G90" s="22">
+        <v>3.0547315064966173E-2</v>
+      </c>
+      <c r="H90" s="22">
+        <v>6.9074988471286094</v>
+      </c>
+      <c r="I90" s="22">
+        <v>7.9850687924432533</v>
+      </c>
+      <c r="J90" s="22">
+        <v>72.471869090202688</v>
+      </c>
+      <c r="K90" s="22">
+        <v>119.53892362350038</v>
+      </c>
+      <c r="L90" s="22">
+        <v>47.067054533297693</v>
+      </c>
+      <c r="M90" s="21">
+        <v>111.55385483105712</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +162,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -871,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1132,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1152,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1402,6 +1413,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>736.24968678331516</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>741.84839472361512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1458,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1705,6 +1719,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,7 +1731,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1975,6 +1992,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1151.3587646062847</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1156.075769885826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2037,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2278,6 +2298,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2310,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2548,6 +2571,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>415.10907782296954</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>414.22737516221093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,11 +2595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540564864"/>
-        <c:axId val="540572288"/>
+        <c:axId val="500782976"/>
+        <c:axId val="500793728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540564864"/>
+        <c:axId val="500782976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,14 +2642,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540572288"/>
+        <c:crossAx val="500793728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540572288"/>
+        <c:axId val="500793728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540564864"/>
+        <c:crossAx val="500782976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2912,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3147,6 +3173,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,7 +3185,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3417,6 +3446,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1037.8687355306749</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1043.1875080739599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,7 +3491,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3720,6 +3752,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,7 +3764,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3990,6 +4025,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1828.5227288987212</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1832.6462483221862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4070,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4293,6 +4331,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4343,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4563,6 +4604,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>790.65399336804626</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>789.45874024822638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +4628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542328704"/>
-        <c:axId val="544007296"/>
+        <c:axId val="519405952"/>
+        <c:axId val="519408640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542328704"/>
+        <c:axId val="519405952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,14 +4675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544007296"/>
+        <c:crossAx val="519408640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544007296"/>
+        <c:axId val="519408640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542328704"/>
+        <c:crossAx val="519405952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4901,7 +4945,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5162,6 +5206,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,7 +5218,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5432,6 +5479,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>703.70798266759925</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>709.02675521088418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,7 +5524,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5735,6 +5785,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,7 +5797,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6005,6 +6058,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1108.8965730253919</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1113.3383051795361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6047,7 +6103,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6308,6 +6364,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6317,7 +6376,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6578,6 +6637,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>405.18859035779269</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>404.31154996865189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6599,11 +6661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546197504"/>
-        <c:axId val="546199424"/>
+        <c:axId val="532586496"/>
+        <c:axId val="532588800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546197504"/>
+        <c:axId val="532586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,14 +6708,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546199424"/>
+        <c:crossAx val="532588800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546199424"/>
+        <c:axId val="532588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546197504"/>
+        <c:crossAx val="532586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6916,7 +6978,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7177,6 +7239,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7186,7 +7251,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7447,6 +7512,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>347.83889366468429</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>348.92037187089284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7489,7 +7557,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7750,6 +7818,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7759,7 +7830,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8020,6 +8091,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>548.77457534742291</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>549.57964217181484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8062,7 +8136,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8323,6 +8397,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,7 +8409,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8593,6 +8670,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>200.93568168273862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>200.659270300922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8614,11 +8694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553682432"/>
-        <c:axId val="611815424"/>
+        <c:axId val="538883968"/>
+        <c:axId val="538897408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553682432"/>
+        <c:axId val="538883968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,14 +8741,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611815424"/>
+        <c:crossAx val="538897408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611815424"/>
+        <c:axId val="538897408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8717,7 +8797,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553682432"/>
+        <c:crossAx val="538883968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8931,7 +9011,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9192,6 +9272,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9201,7 +9284,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9462,6 +9545,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>148.54992391223874</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>148.88640903731618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9504,7 +9590,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9765,6 +9851,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9774,7 +9863,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10035,6 +10124,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>245.40727576305983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>245.55409791005508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10077,7 +10169,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10338,6 +10430,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10347,7 +10442,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10608,6 +10703,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.85735185082109</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>96.667688872738893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10629,11 +10727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613385344"/>
-        <c:axId val="613386880"/>
+        <c:axId val="651960704"/>
+        <c:axId val="651962624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613385344"/>
+        <c:axId val="651960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10676,14 +10774,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613386880"/>
+        <c:crossAx val="651962624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613386880"/>
+        <c:axId val="651962624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10732,7 +10830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613385344"/>
+        <c:crossAx val="651960704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10946,7 +11044,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11207,6 +11305,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11216,7 +11317,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11477,6 +11578,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>222.21366459039422</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>222.53332545921779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11519,7 +11623,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11780,6 +11884,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11789,7 +11896,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12050,6 +12157,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>408.60366450206681</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>408.74271184263227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12092,7 +12202,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12353,6 +12463,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12362,7 +12475,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12623,6 +12736,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>186.38999991167259</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>186.20938638341448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12644,11 +12760,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613542528"/>
-        <c:axId val="615912192"/>
+        <c:axId val="500513024"/>
+        <c:axId val="500523008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613542528"/>
+        <c:axId val="500513024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12691,14 +12807,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615912192"/>
+        <c:crossAx val="500523008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615912192"/>
+        <c:axId val="500523008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12747,7 +12863,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613542528"/>
+        <c:crossAx val="500513024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12961,7 +13077,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13222,6 +13338,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13231,7 +13350,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13492,6 +13611,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>142.12498681636947</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>142.44464768519305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13534,7 +13656,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13795,6 +13917,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13804,7 +13929,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14065,6 +14190,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>234.25524594935902</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>234.38547253281925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14107,7 +14235,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14368,6 +14496,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14377,7 +14508,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14638,6 +14769,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>92.130259132989551</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>91.940824847626203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14659,11 +14793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637043456"/>
-        <c:axId val="637044992"/>
+        <c:axId val="501217152"/>
+        <c:axId val="501218688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637043456"/>
+        <c:axId val="501217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14706,14 +14840,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637044992"/>
+        <c:crossAx val="501218688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637044992"/>
+        <c:axId val="501218688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14762,7 +14896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637043456"/>
+        <c:crossAx val="501217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14976,7 +15110,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15237,6 +15371,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15246,7 +15383,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15507,6 +15644,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>72.471869090202688</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>72.536866466984065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15549,7 +15689,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15810,6 +15950,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15819,7 +15962,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16080,6 +16223,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>119.53892362350038</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>119.54175307588233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16122,7 +16268,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16383,6 +16529,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16392,7 +16541,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16653,6 +16802,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>47.067054533297693</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47.004886608898261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16674,11 +16826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638116224"/>
-        <c:axId val="638117760"/>
+        <c:axId val="501253632"/>
+        <c:axId val="501255168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638116224"/>
+        <c:axId val="501253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16721,14 +16873,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638117760"/>
+        <c:crossAx val="501255168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638117760"/>
+        <c:axId val="501255168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16777,7 +16929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638116224"/>
+        <c:crossAx val="501253632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16885,7 +17037,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16928,7 +17080,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16971,7 +17123,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17014,7 +17166,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17057,7 +17209,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17100,7 +17252,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17143,7 +17295,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17186,7 +17338,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17497,7 +17649,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21233,6 +21385,41 @@
         <v>1038.1097464244663</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.5987079402999607</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.8811753784545644</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.84745254686968</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.96602346135974</v>
+      </c>
+      <c r="H91" s="22">
+        <v>741.84839472361512</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1156.075769885826</v>
+      </c>
+      <c r="J91" s="22">
+        <v>414.22737516221093</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1038.1097464244663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21249,7 +21436,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21297,7 +21484,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -21324,16 +21511,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26034,6 +26221,53 @@
         <v>43.309708959853076</v>
       </c>
       <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>137.44209002534993</v>
+      </c>
+      <c r="G91" s="22">
+        <v>157.64607109855177</v>
+      </c>
+      <c r="H91" s="22">
+        <v>1043.1875080739599</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1832.6462483221862</v>
+      </c>
+      <c r="J91" s="22">
+        <v>789.45874024822638</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26053,7 +26287,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26098,10 +26332,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -26128,19 +26362,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31060,6 +31294,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5.318772543284962</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4.6371166095318355</v>
+      </c>
+      <c r="F91" s="22">
+        <v>102.08536722108079</v>
+      </c>
+      <c r="G91" s="22">
+        <v>117.09191162683859</v>
+      </c>
+      <c r="H91" s="22">
+        <v>709.02675521088418</v>
+      </c>
+      <c r="I91" s="22">
+        <v>1113.3383051795361</v>
+      </c>
+      <c r="J91" s="22">
+        <v>404.31154996865189</v>
+      </c>
+      <c r="K91" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -31079,7 +31363,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31129,16 +31413,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35349,6 +35633,47 @@
         <v>200.93568168273862</v>
       </c>
       <c r="M90" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>1.0814782062085171</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0.9428755435664673</v>
+      </c>
+      <c r="H91" s="22">
+        <v>31.655036512035849</v>
+      </c>
+      <c r="I91" s="22">
+        <v>36.308325460441139</v>
+      </c>
+      <c r="J91" s="22">
+        <v>348.92037187089284</v>
+      </c>
+      <c r="K91" s="22">
+        <v>549.57964217181484</v>
+      </c>
+      <c r="L91" s="22">
+        <v>200.659270300922</v>
+      </c>
+      <c r="M91" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>
@@ -35368,7 +35693,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39104,6 +39429,41 @@
         <v>221.04628990103703</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0.33648512507744044</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0.29336106209823298</v>
+      </c>
+      <c r="F91" s="22">
+        <v>21.366877913460371</v>
+      </c>
+      <c r="G91" s="22">
+        <v>24.507808009018039</v>
+      </c>
+      <c r="H91" s="22">
+        <v>148.88640903731618</v>
+      </c>
+      <c r="I91" s="22">
+        <v>245.55409791005508</v>
+      </c>
+      <c r="J91" s="22">
+        <v>96.667688872738893</v>
+      </c>
+      <c r="K91" s="21">
+        <v>221.04628990103703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39120,7 +39480,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39165,10 +39525,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -39195,16 +39555,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43905,6 +44265,53 @@
         <v>43.309708959853076</v>
       </c>
       <c r="O90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="21">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0.31966086882356842</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0.27869300899332133</v>
+      </c>
+      <c r="F91" s="22">
+        <v>20.346722467443808</v>
+      </c>
+      <c r="G91" s="22">
+        <v>23.337689758163155</v>
+      </c>
+      <c r="H91" s="22">
+        <v>222.53332545921779</v>
+      </c>
+      <c r="I91" s="22">
+        <v>408.74271184263227</v>
+      </c>
+      <c r="J91" s="22">
+        <v>186.20938638341448</v>
+      </c>
+      <c r="K91" s="21">
+        <v>385.40502208446912</v>
+      </c>
+      <c r="L91" s="26">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="M91" s="27">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N91" s="27">
+        <v>44.05940008238894</v>
+      </c>
+      <c r="O91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -43924,7 +44331,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43969,10 +44376,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -43999,19 +44406,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48930,6 +49337,56 @@
         <v>65.879266785883473</v>
       </c>
       <c r="P90" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0.31966086882356842</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0.27869300899332133</v>
+      </c>
+      <c r="F91" s="22">
+        <v>21.326799735968866</v>
+      </c>
+      <c r="G91" s="22">
+        <v>24.461838341231694</v>
+      </c>
+      <c r="H91" s="22">
+        <v>142.44464768519305</v>
+      </c>
+      <c r="I91" s="22">
+        <v>234.38547253281925</v>
+      </c>
+      <c r="J91" s="22">
+        <v>91.940824847626203</v>
+      </c>
+      <c r="K91" s="21">
+        <v>209.92363419158755</v>
+      </c>
+      <c r="L91" s="26">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="M91" s="27">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="N91" s="27">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="O91" s="27">
+        <v>73.573305985800445</v>
+      </c>
+      <c r="P91" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -48949,7 +49406,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49005,10 +49462,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53222,6 +53679,47 @@
         <v>111.55385483105712</v>
       </c>
     </row>
+    <row r="91" spans="1:13" ht="12.75">
+      <c r="A91" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.2071004513391792</v>
+      </c>
+      <c r="D91" s="20">
+        <v>371833</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1924943.4316979402</v>
+      </c>
+      <c r="F91" s="21">
+        <v>6.4997376781383259E-2</v>
+      </c>
+      <c r="G91" s="22">
+        <v>5.6667287987239495E-2</v>
+      </c>
+      <c r="H91" s="22">
+        <v>6.9641661351158488</v>
+      </c>
+      <c r="I91" s="22">
+        <v>7.9878982448251987</v>
+      </c>
+      <c r="J91" s="22">
+        <v>72.536866466984065</v>
+      </c>
+      <c r="K91" s="22">
+        <v>119.54175307588233</v>
+      </c>
+      <c r="L91" s="22">
+        <v>47.004886608898261</v>
+      </c>
+      <c r="M91" s="21">
+        <v>111.55385483105712</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>均线</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +187,10 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1143,6 +1143,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +1155,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1416,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>741.84839472361512</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1464,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1722,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1740,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1995,6 +2004,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1156.075769885826</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1186.20971143989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,7 +2049,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2301,6 +2313,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2325,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2574,6 +2589,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>414.22737516221093</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>403.53124294174268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2595,11 +2613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500782976"/>
-        <c:axId val="500793728"/>
+        <c:axId val="489166336"/>
+        <c:axId val="489195776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500782976"/>
+        <c:axId val="489166336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,14 +2660,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500793728"/>
+        <c:crossAx val="489195776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500793728"/>
+        <c:axId val="489195776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500782976"/>
+        <c:crossAx val="489166336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2912,7 +2930,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3176,6 +3194,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3206,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3449,6 +3470,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1043.1875080739599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,7 +3515,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3755,6 +3779,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,7 +3791,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4028,6 +4055,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1832.6462483221862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1857.1408448465302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,7 +4100,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4334,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,7 +4376,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4607,6 +4640,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>789.45874024822638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>775.16476668676478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,11 +4664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519405952"/>
-        <c:axId val="519408640"/>
+        <c:axId val="491878272"/>
+        <c:axId val="492181376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519405952"/>
+        <c:axId val="491878272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,14 +4711,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519408640"/>
+        <c:crossAx val="492181376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519408640"/>
+        <c:axId val="492181376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519405952"/>
+        <c:crossAx val="491878272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4945,7 +4981,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5209,6 +5245,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,7 +5257,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5482,6 +5521,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>709.02675521088418</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,7 +5566,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5788,6 +5830,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,7 +5842,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6061,6 +6106,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1113.3383051795361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1110.8874445667798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,7 +6151,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6367,6 +6415,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6376,7 +6427,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6640,6 +6691,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>404.31154996865189</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>393.69467460098917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6661,11 +6715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532586496"/>
-        <c:axId val="532588800"/>
+        <c:axId val="496790528"/>
+        <c:axId val="686886912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532586496"/>
+        <c:axId val="496790528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6708,14 +6762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532588800"/>
+        <c:crossAx val="686886912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532588800"/>
+        <c:axId val="686886912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6764,7 +6818,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532586496"/>
+        <c:crossAx val="496790528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6978,7 +7032,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7242,6 +7296,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7251,7 +7308,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7515,6 +7572,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>348.92037187089284</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7557,7 +7617,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7821,6 +7881,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7830,7 +7893,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8094,6 +8157,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>549.57964217181484</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>563.79412403149411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8136,7 +8202,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8400,6 +8466,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8409,7 +8478,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8673,6 +8742,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>200.659270300922</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>197.36714737913957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8694,11 +8766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538883968"/>
-        <c:axId val="538897408"/>
+        <c:axId val="687206784"/>
+        <c:axId val="687208320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538883968"/>
+        <c:axId val="687206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8741,14 +8813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538897408"/>
+        <c:crossAx val="687208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538897408"/>
+        <c:axId val="687208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8797,7 +8869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538883968"/>
+        <c:crossAx val="687206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9011,7 +9083,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9275,6 +9347,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9284,7 +9359,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9548,6 +9623,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>148.88640903731618</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9590,7 +9668,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9854,6 +9932,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9863,7 +9944,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10127,6 +10208,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>245.55409791005508</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>249.95875135069463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10169,7 +10253,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10433,6 +10517,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10442,7 +10529,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10706,6 +10793,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>96.667688872738893</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>94.445534160673247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10727,11 +10817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="651960704"/>
-        <c:axId val="651962624"/>
+        <c:axId val="697301248"/>
+        <c:axId val="698184064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="651960704"/>
+        <c:axId val="697301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10774,14 +10864,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651962624"/>
+        <c:crossAx val="698184064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="651962624"/>
+        <c:axId val="698184064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10830,7 +10920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651960704"/>
+        <c:crossAx val="697301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11044,7 +11134,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11308,6 +11398,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11317,7 +11410,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11581,6 +11674,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>222.53332545921779</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11623,7 +11719,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11887,6 +11983,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11896,7 +11995,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12160,6 +12259,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>408.74271184263227</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>412.92212101380829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12202,7 +12304,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12466,6 +12568,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12475,7 +12580,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12739,6 +12844,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>186.20938638341448</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>184.09332780952056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12760,11 +12868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500513024"/>
-        <c:axId val="500523008"/>
+        <c:axId val="715844608"/>
+        <c:axId val="715962240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500513024"/>
+        <c:axId val="715844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12807,14 +12915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500523008"/>
+        <c:crossAx val="715962240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500523008"/>
+        <c:axId val="715962240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12863,7 +12971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500513024"/>
+        <c:crossAx val="715844608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13077,7 +13185,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13341,6 +13449,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13350,7 +13461,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13614,6 +13725,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>142.44464768519305</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13656,7 +13770,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13920,6 +14034,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13929,7 +14046,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14193,6 +14310,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>234.38547253281925</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>233.49284758064533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14235,7 +14355,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14499,6 +14619,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14508,7 +14631,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14772,6 +14895,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>91.940824847626203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.722838264911246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14793,11 +14919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501217152"/>
-        <c:axId val="501218688"/>
+        <c:axId val="725413888"/>
+        <c:axId val="725416192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501217152"/>
+        <c:axId val="725413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14840,14 +14966,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501218688"/>
+        <c:crossAx val="725416192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501218688"/>
+        <c:axId val="725416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14896,7 +15022,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501217152"/>
+        <c:crossAx val="725413888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15110,7 +15236,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15374,6 +15500,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15383,7 +15512,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15647,6 +15776,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>72.536866466984065</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15689,7 +15821,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15953,6 +16085,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15962,7 +16097,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16226,6 +16361,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>119.54175307588233</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>121.65883932602225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16268,7 +16406,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16532,6 +16670,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16541,7 +16682,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16805,6 +16946,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>47.004886608898261</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.280613523451052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16826,11 +16970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501253632"/>
-        <c:axId val="501255168"/>
+        <c:axId val="489272832"/>
+        <c:axId val="489274368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501253632"/>
+        <c:axId val="489272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16873,14 +17017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501255168"/>
+        <c:crossAx val="489274368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501255168"/>
+        <c:axId val="489274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16929,7 +17073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501253632"/>
+        <c:crossAx val="489272832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17037,7 +17181,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17080,7 +17224,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17123,7 +17267,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17166,7 +17310,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17209,7 +17353,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17252,7 +17396,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17295,7 +17439,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17338,7 +17482,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17649,7 +17793,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21420,6 +21564,41 @@
         <v>1038.1097464244663</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>40.830073774532245</v>
+      </c>
+      <c r="E92" s="22">
+        <v>39.146763611247344</v>
+      </c>
+      <c r="F92" s="22">
+        <v>141.99421615811701</v>
+      </c>
+      <c r="G92" s="22">
+        <v>148.09996501542378</v>
+      </c>
+      <c r="H92" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1186.20971143989</v>
+      </c>
+      <c r="J92" s="22">
+        <v>403.53124294174268</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1038.1097464244663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21436,7 +21615,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21478,13 +21657,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -26212,13 +26391,13 @@
         <v>1675.0001772236344</v>
       </c>
       <c r="L90" s="26">
-        <v>3.2316893159166665E-2</v>
+        <v>2.7764076837910292E-2</v>
       </c>
       <c r="M90" s="27">
-        <v>7.4618125901338997E-2</v>
+        <v>6.3015104123053903E-2</v>
       </c>
       <c r="N90" s="27">
-        <v>43.309708959853076</v>
+        <v>44.05940008238894</v>
       </c>
       <c r="O90" s="27">
         <v>0.95</v>
@@ -26259,15 +26438,62 @@
         <v>1675.0001772236344</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>38.788570085805631</v>
+      </c>
+      <c r="E92" s="22">
+        <v>37.189425430684977</v>
+      </c>
+      <c r="F92" s="22">
+        <v>174.63151545603489</v>
+      </c>
+      <c r="G92" s="22">
+        <v>182.14066762289576</v>
+      </c>
+      <c r="H92" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1857.1408448465302</v>
+      </c>
+      <c r="J92" s="22">
+        <v>775.16476668676478</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1675.0001772236344</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26287,7 +26513,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26332,10 +26558,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -26362,16 +26588,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -31282,16 +31508,16 @@
         <v>996.24639355269744</v>
       </c>
       <c r="L90" s="26">
-        <v>60</v>
+        <v>65.122614210687615</v>
       </c>
       <c r="M90" s="27">
-        <v>47.243536579477528</v>
+        <v>53.203229123214221</v>
       </c>
       <c r="N90" s="27">
-        <v>37.925671476274552</v>
+        <v>43.018190691921113</v>
       </c>
       <c r="O90" s="27">
-        <v>65.879266785883473</v>
+        <v>73.573305985800445</v>
       </c>
       <c r="P90" s="27">
         <v>0.95</v>
@@ -31332,19 +31558,69 @@
         <v>996.24639355269744</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>8.166014754906449</v>
+      </c>
+      <c r="E92" s="22">
+        <v>7.8293527222494683</v>
+      </c>
+      <c r="F92" s="22">
+        <v>109.91471994333025</v>
+      </c>
+      <c r="G92" s="22">
+        <v>114.64105101408224</v>
+      </c>
+      <c r="H92" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I92" s="22">
+        <v>1110.8874445667798</v>
+      </c>
+      <c r="J92" s="22">
+        <v>393.69467460098917</v>
+      </c>
+      <c r="K92" s="21">
+        <v>996.24639355269744</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -31363,7 +31639,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31413,16 +31689,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35674,6 +35950,47 @@
         <v>200.659270300922</v>
       </c>
       <c r="M91" s="21">
+        <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>17.506604781461718</v>
+      </c>
+      <c r="G92" s="22">
+        <v>16.784856250808122</v>
+      </c>
+      <c r="H92" s="22">
+        <v>48.439892762843968</v>
+      </c>
+      <c r="I92" s="22">
+        <v>50.522807320120393</v>
+      </c>
+      <c r="J92" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K92" s="22">
+        <v>563.79412403149411</v>
+      </c>
+      <c r="L92" s="22">
+        <v>197.36714737913957</v>
+      </c>
+      <c r="M92" s="21">
         <v>513.27131671137374</v>
       </c>
     </row>
@@ -35693,7 +36010,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39464,6 +39781,41 @@
         <v>221.04628990103703</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>6.6268081527051974</v>
+      </c>
+      <c r="E92" s="22">
+        <v>6.3536033190527581</v>
+      </c>
+      <c r="F92" s="22">
+        <v>27.72048123251313</v>
+      </c>
+      <c r="G92" s="22">
+        <v>28.912461449657595</v>
+      </c>
+      <c r="H92" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I92" s="22">
+        <v>249.95875135069463</v>
+      </c>
+      <c r="J92" s="22">
+        <v>94.445534160673247</v>
+      </c>
+      <c r="K92" s="21">
+        <v>221.04628990103703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39480,7 +39832,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39525,10 +39877,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44256,13 +44608,13 @@
         <v>385.40502208446912</v>
       </c>
       <c r="L90" s="26">
-        <v>3.2316893159166665E-2</v>
+        <v>2.7764076837910292E-2</v>
       </c>
       <c r="M90" s="27">
-        <v>7.4618125901338997E-2</v>
+        <v>6.3015104123053903E-2</v>
       </c>
       <c r="N90" s="27">
-        <v>43.309708959853076</v>
+        <v>44.05940008238894</v>
       </c>
       <c r="O90" s="27">
         <v>0.95</v>
@@ -44303,15 +44655,62 @@
         <v>385.40502208446912</v>
       </c>
       <c r="L91" s="26">
-        <v>2.7764076837910292E-2</v>
+        <v>2.3136730698258574E-2</v>
       </c>
       <c r="M91" s="27">
-        <v>6.3015104123053903E-2</v>
+        <v>5.4012597259629064E-2</v>
       </c>
       <c r="N91" s="27">
-        <v>44.05940008238894</v>
+        <v>42.83580474207595</v>
       </c>
       <c r="O91" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="21">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>6.2954677450699377</v>
+      </c>
+      <c r="E92" s="22">
+        <v>6.0359231531001205</v>
+      </c>
+      <c r="F92" s="22">
+        <v>26.382645620543929</v>
+      </c>
+      <c r="G92" s="22">
+        <v>27.517098929339191</v>
+      </c>
+      <c r="H92" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I92" s="22">
+        <v>412.92212101380829</v>
+      </c>
+      <c r="J92" s="22">
+        <v>184.09332780952056</v>
+      </c>
+      <c r="K92" s="21">
+        <v>385.40502208446912</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="M92" s="27">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N92" s="27">
+        <v>30.926252070346163</v>
+      </c>
+      <c r="O92" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44331,7 +44730,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44376,10 +44775,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44406,16 +44805,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -49325,16 +49724,16 @@
         <v>209.92363419158755</v>
       </c>
       <c r="L90" s="26">
-        <v>60</v>
+        <v>65.122614210687615</v>
       </c>
       <c r="M90" s="27">
-        <v>47.243536579477528</v>
+        <v>53.203229123214221</v>
       </c>
       <c r="N90" s="27">
-        <v>37.925671476274552</v>
+        <v>43.018190691921113</v>
       </c>
       <c r="O90" s="27">
-        <v>65.879266785883473</v>
+        <v>73.573305985800445</v>
       </c>
       <c r="P90" s="27">
         <v>0.95</v>
@@ -49375,19 +49774,69 @@
         <v>209.92363419158755</v>
       </c>
       <c r="L91" s="26">
-        <v>65.122614210687615</v>
+        <v>62.67028127379821</v>
       </c>
       <c r="M91" s="27">
-        <v>53.203229123214221</v>
+        <v>56.358913173408887</v>
       </c>
       <c r="N91" s="27">
-        <v>43.018190691921113</v>
+        <v>47.465098185750371</v>
       </c>
       <c r="O91" s="27">
-        <v>73.573305985800445</v>
+        <v>74.146543148725911</v>
       </c>
       <c r="P91" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="21">
+        <v>1.3253616305410396</v>
+      </c>
+      <c r="E92" s="22">
+        <v>1.2707206638105517</v>
+      </c>
+      <c r="F92" s="22">
+        <v>22.597520399779416</v>
+      </c>
+      <c r="G92" s="22">
+        <v>23.569213389057783</v>
+      </c>
+      <c r="H92" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I92" s="22">
+        <v>233.49284758064533</v>
+      </c>
+      <c r="J92" s="22">
+        <v>89.722838264911246</v>
+      </c>
+      <c r="K92" s="21">
+        <v>209.92363419158755</v>
+      </c>
+      <c r="L92" s="26">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="M92" s="27">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="N92" s="27">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="O92" s="27">
+        <v>51.085614300453685</v>
+      </c>
+      <c r="P92" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -49406,7 +49855,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49453,7 +49902,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -49462,10 +49911,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53720,6 +54169,47 @@
         <v>111.55385483105712</v>
       </c>
     </row>
+    <row r="92" spans="1:13" ht="12.75">
+      <c r="A92" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.2053021180026375</v>
+      </c>
+      <c r="D92" s="20">
+        <v>817453</v>
+      </c>
+      <c r="E92" s="20">
+        <v>1906518.5233721782</v>
+      </c>
+      <c r="F92" s="21">
+        <v>2.8413593355871263</v>
+      </c>
+      <c r="G92" s="22">
+        <v>2.7242180080071217</v>
+      </c>
+      <c r="H92" s="22">
+        <v>9.6883841431229705</v>
+      </c>
+      <c r="I92" s="22">
+        <v>10.104984494965121</v>
+      </c>
+      <c r="J92" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K92" s="22">
+        <v>121.65883932602225</v>
+      </c>
+      <c r="L92" s="22">
+        <v>46.280613523451052</v>
+      </c>
+      <c r="M92" s="21">
+        <v>111.55385483105712</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -187,10 +183,6 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +871,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1146,6 +1138,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,7 +1150,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1421,6 +1416,9 @@
                   <c:v>741.84839472361512</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1464,7 +1462,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1731,6 +1729,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,7 +1741,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2007,6 +2008,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1186.20971143989</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1222.4182358831288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2053,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2316,6 +2320,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,7 +2332,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2592,6 +2599,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>403.53124294174268</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>439.73976738498141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,11 +2623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489166336"/>
-        <c:axId val="489195776"/>
+        <c:axId val="472606976"/>
+        <c:axId val="472666112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489166336"/>
+        <c:axId val="472606976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,14 +2670,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489195776"/>
+        <c:crossAx val="472666112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489195776"/>
+        <c:axId val="472666112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489166336"/>
+        <c:crossAx val="472606976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2930,7 +2940,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3197,6 +3207,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,7 +3219,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3472,6 +3485,9 @@
                   <c:v>1043.1875080739599</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3515,7 +3531,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3782,6 +3798,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3791,7 +3810,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4058,6 +4077,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1857.1408448465302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1901.671880455111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,7 +4122,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4367,6 +4389,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,7 +4401,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4643,6 +4668,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>775.16476668676478</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>819.69580229534563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4664,11 +4692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491878272"/>
-        <c:axId val="492181376"/>
+        <c:axId val="472775680"/>
+        <c:axId val="474305280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491878272"/>
+        <c:axId val="472775680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,14 +4739,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492181376"/>
+        <c:crossAx val="474305280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492181376"/>
+        <c:axId val="474305280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4767,7 +4795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491878272"/>
+        <c:crossAx val="472775680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4981,7 +5009,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5248,6 +5276,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5257,7 +5288,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5523,6 +5554,9 @@
                   <c:v>709.02675521088418</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5566,7 +5600,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5833,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5842,7 +5879,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6109,6 +6146,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1110.8874445667798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1138.9156976282147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,7 +6191,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6418,6 +6458,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6427,7 +6470,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6694,6 +6737,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>393.69467460098917</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>421.72292766242413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6715,11 +6761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496790528"/>
-        <c:axId val="686886912"/>
+        <c:axId val="497142784"/>
+        <c:axId val="515275008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496790528"/>
+        <c:axId val="497142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,14 +6808,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686886912"/>
+        <c:crossAx val="515275008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="686886912"/>
+        <c:axId val="515275008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6818,7 +6864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496790528"/>
+        <c:crossAx val="497142784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7032,7 +7078,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7299,6 +7345,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7308,7 +7357,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7574,6 +7623,9 @@
                   <c:v>348.92037187089284</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7617,7 +7669,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7884,6 +7936,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7893,7 +7948,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8160,6 +8215,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>563.79412403149411</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>576.14629645503999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8202,7 +8260,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8469,6 +8527,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,7 +8539,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8745,6 +8806,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>197.36714737913957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209.71931980268545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8766,11 +8830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="687206784"/>
-        <c:axId val="687208320"/>
+        <c:axId val="519217536"/>
+        <c:axId val="519219456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="687206784"/>
+        <c:axId val="519217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8813,14 +8877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="687208320"/>
+        <c:crossAx val="519219456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="687208320"/>
+        <c:axId val="519219456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8869,7 +8933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="687206784"/>
+        <c:crossAx val="519217536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9083,7 +9147,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9350,6 +9414,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9359,7 +9426,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9625,6 +9692,9 @@
                   <c:v>148.88640903731618</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -9668,7 +9738,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9935,6 +10005,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9944,7 +10017,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10211,6 +10284,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>249.95875135069463</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>257.0274739328039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10253,7 +10329,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10520,6 +10596,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10529,7 +10608,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10796,6 +10875,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>94.445534160673247</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101.51425674278252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10817,11 +10899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697301248"/>
-        <c:axId val="698184064"/>
+        <c:axId val="555603840"/>
+        <c:axId val="558686976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697301248"/>
+        <c:axId val="555603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10864,14 +10946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698184064"/>
+        <c:crossAx val="558686976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="698184064"/>
+        <c:axId val="558686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10920,7 +11002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697301248"/>
+        <c:crossAx val="555603840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11134,7 +11216,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11401,6 +11483,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11410,7 +11495,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11676,6 +11761,9 @@
                   <c:v>222.53332545921779</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -11719,7 +11807,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11986,6 +12074,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11995,7 +12086,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12262,6 +12353,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>412.92212101380829</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>419.64969552124478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12304,7 +12398,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12571,6 +12665,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12580,7 +12677,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12847,6 +12944,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>184.09332780952056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>190.82090231695705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12868,11 +12968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="715844608"/>
-        <c:axId val="715962240"/>
+        <c:axId val="585411584"/>
+        <c:axId val="587920512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="715844608"/>
+        <c:axId val="585411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12915,14 +13015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715962240"/>
+        <c:crossAx val="587920512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="715962240"/>
+        <c:axId val="587920512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12971,7 +13071,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715844608"/>
+        <c:crossAx val="585411584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13185,7 +13285,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13452,6 +13552,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13461,7 +13564,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13727,6 +13830,9 @@
                   <c:v>142.44464768519305</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -13770,7 +13876,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14037,6 +14143,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14046,7 +14155,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14313,6 +14422,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>233.49284758064533</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>239.25521517483571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14355,7 +14467,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14622,6 +14734,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14631,7 +14746,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14898,6 +15013,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>89.722838264911246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95.485205859101626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14919,11 +15037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="725413888"/>
-        <c:axId val="725416192"/>
+        <c:axId val="588002048"/>
+        <c:axId val="588003968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="725413888"/>
+        <c:axId val="588002048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14966,14 +15084,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725416192"/>
+        <c:crossAx val="588003968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="725416192"/>
+        <c:axId val="588003968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15022,7 +15140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725413888"/>
+        <c:crossAx val="588002048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15236,7 +15354,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15503,6 +15621,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15512,7 +15633,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15778,6 +15899,9 @@
                   <c:v>72.536866466984065</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -15821,7 +15945,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16088,6 +16212,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16097,7 +16224,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16364,6 +16491,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>121.65883932602225</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>124.12937723632079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16406,7 +16536,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16673,6 +16803,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16682,7 +16815,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16949,6 +17082,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>46.280613523451052</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48.751151433749598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16970,11 +17106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489272832"/>
-        <c:axId val="489274368"/>
+        <c:axId val="589078912"/>
+        <c:axId val="589081216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489272832"/>
+        <c:axId val="589078912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17017,14 +17153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489274368"/>
+        <c:crossAx val="589081216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489274368"/>
+        <c:axId val="589081216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17073,7 +17209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489272832"/>
+        <c:crossAx val="589078912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17793,7 +17929,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21599,6 +21735,41 @@
         <v>1038.1097464244663</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.791755081566535</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.625389302487855</v>
+      </c>
+      <c r="F93" s="22">
+        <v>131.36882685562915</v>
+      </c>
+      <c r="G93" s="22">
+        <v>170.5167343770959</v>
+      </c>
+      <c r="H93" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1222.4182358831288</v>
+      </c>
+      <c r="J93" s="22">
+        <v>439.73976738498141</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1051.9015015060329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21615,7 +21786,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21657,7 +21828,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -21690,16 +21861,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26494,6 +26665,53 @@
         <v>30.926252070346163</v>
       </c>
       <c r="O92" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>164.53739561867144</v>
+      </c>
+      <c r="G93" s="22">
+        <v>213.56953590398851</v>
+      </c>
+      <c r="H93" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1901.671880455111</v>
+      </c>
+      <c r="J93" s="22">
+        <v>819.69580229534563</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1688.1023445511225</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -26513,7 +26731,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26588,19 +26806,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31621,6 +31839,56 @@
       </c>
       <c r="P92" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-13.102167327488207</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-10.094119837363461</v>
+      </c>
+      <c r="F93" s="22">
+        <v>99.82060010596679</v>
+      </c>
+      <c r="G93" s="22">
+        <v>129.56713674802901</v>
+      </c>
+      <c r="H93" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I93" s="22">
+        <v>1138.9156976282147</v>
+      </c>
+      <c r="J93" s="22">
+        <v>421.72292766242413</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1009.3485608801857</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -31639,7 +31907,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31695,10 +31963,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35992,6 +36260,47 @@
       </c>
       <c r="M92" s="21">
         <v>513.27131671137374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-24.891130179081035</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-19.176525885754021</v>
+      </c>
+      <c r="H93" s="22">
+        <v>29.263366877089947</v>
+      </c>
+      <c r="I93" s="22">
+        <v>37.983849564585157</v>
+      </c>
+      <c r="J93" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K93" s="22">
+        <v>576.14629645503999</v>
+      </c>
+      <c r="L93" s="22">
+        <v>209.71931980268545</v>
+      </c>
+      <c r="M93" s="21">
+        <v>538.16244689045482</v>
       </c>
     </row>
   </sheetData>
@@ -36010,7 +36319,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39816,6 +40125,41 @@
         <v>221.04628990103703</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-1.300958536682129</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-1.0022793210066518</v>
+      </c>
+      <c r="F93" s="22">
+        <v>26.71820191150648</v>
+      </c>
+      <c r="G93" s="22">
+        <v>34.680225495084763</v>
+      </c>
+      <c r="H93" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I93" s="22">
+        <v>257.0274739328039</v>
+      </c>
+      <c r="J93" s="22">
+        <v>101.51425674278252</v>
+      </c>
+      <c r="K93" s="21">
+        <v>222.34724843771914</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -39832,7 +40176,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39907,16 +40251,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44711,6 +45055,53 @@
         <v>30.926252070346163</v>
       </c>
       <c r="O92" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="21">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-1.2359106098480226</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-0.95216535495631927</v>
+      </c>
+      <c r="F93" s="22">
+        <v>25.430480265587612</v>
+      </c>
+      <c r="G93" s="22">
+        <v>33.008762826927615</v>
+      </c>
+      <c r="H93" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I93" s="22">
+        <v>419.64969552124478</v>
+      </c>
+      <c r="J93" s="22">
+        <v>190.82090231695705</v>
+      </c>
+      <c r="K93" s="21">
+        <v>386.64093269431714</v>
+      </c>
+      <c r="L93" s="26">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="M93" s="27">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N93" s="27">
+        <v>62.006560710142793</v>
+      </c>
+      <c r="O93" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -44730,7 +45121,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44805,19 +45196,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49837,6 +50228,56 @@
       </c>
       <c r="P92" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="21">
+        <v>-1.2359106098480226</v>
+      </c>
+      <c r="E93" s="22">
+        <v>-0.95216535495631927</v>
+      </c>
+      <c r="F93" s="22">
+        <v>21.645355044823098</v>
+      </c>
+      <c r="G93" s="22">
+        <v>28.095670373400139</v>
+      </c>
+      <c r="H93" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I93" s="22">
+        <v>239.25521517483571</v>
+      </c>
+      <c r="J93" s="22">
+        <v>95.485205859101626</v>
+      </c>
+      <c r="K93" s="21">
+        <v>211.15954480143557</v>
+      </c>
+      <c r="L93" s="26">
+        <v>100</v>
+      </c>
+      <c r="M93" s="27">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="N93" s="27">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="O93" s="27">
+        <v>90.049632667327046</v>
+      </c>
+      <c r="P93" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -49855,7 +50296,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49902,7 +50343,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -49911,10 +50352,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -54210,6 +54651,47 @@
         <v>111.55385483105712</v>
       </c>
     </row>
+    <row r="93" spans="1:13" ht="12.75">
+      <c r="A93" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.2036712629028401</v>
+      </c>
+      <c r="D93" s="20">
+        <v>3414655</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1892002.6977170091</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-2.3479483287389917</v>
+      </c>
+      <c r="G93" s="22">
+        <v>-1.8088970480864874</v>
+      </c>
+      <c r="H93" s="22">
+        <v>7.8794870950364828</v>
+      </c>
+      <c r="I93" s="22">
+        <v>10.227574076524672</v>
+      </c>
+      <c r="J93" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K93" s="22">
+        <v>124.12937723632079</v>
+      </c>
+      <c r="L93" s="22">
+        <v>48.751151433749598</v>
+      </c>
+      <c r="M93" s="21">
+        <v>113.90180315979612</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +170,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -871,7 +887,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1141,6 +1157,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +1169,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1419,6 +1438,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1462,7 +1484,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1732,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,7 +1766,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2011,6 +2036,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1222.4182358831288</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1237.1315429875624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2081,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2323,6 +2351,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2363,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2602,6 +2633,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>439.73976738498141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>454.45307448941503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,11 +2657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472606976"/>
-        <c:axId val="472666112"/>
+        <c:axId val="513366272"/>
+        <c:axId val="513432960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472606976"/>
+        <c:axId val="513366272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,14 +2704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472666112"/>
+        <c:crossAx val="513432960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472666112"/>
+        <c:axId val="513432960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2760,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472606976"/>
+        <c:crossAx val="513366272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,7 +2974,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3210,6 +3244,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,7 +3256,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3488,6 +3525,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3531,7 +3571,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3801,6 +3841,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,7 +3853,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4080,6 +4123,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1901.671880455111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1920.1000668814213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,7 +4168,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4392,6 +4438,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,7 +4450,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4671,6 +4720,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>819.69580229534563</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>838.12398872165591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,11 +4744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472775680"/>
-        <c:axId val="474305280"/>
+        <c:axId val="513693184"/>
+        <c:axId val="513694720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472775680"/>
+        <c:axId val="513693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,14 +4791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474305280"/>
+        <c:crossAx val="513694720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474305280"/>
+        <c:axId val="513694720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4795,7 +4847,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472775680"/>
+        <c:crossAx val="513693184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5009,7 +5061,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5279,6 +5331,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,7 +5343,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5557,6 +5612,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5600,7 +5658,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5870,6 +5928,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5940,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6149,6 +6210,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1138.9156976282147</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1150.0956036977268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,7 +6255,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6461,6 +6525,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6537,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6740,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>421.72292766242413</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>432.9028337319362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,11 +6831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497142784"/>
-        <c:axId val="515275008"/>
+        <c:axId val="517823872"/>
+        <c:axId val="517825664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497142784"/>
+        <c:axId val="517823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6808,14 +6878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515275008"/>
+        <c:crossAx val="517825664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515275008"/>
+        <c:axId val="517825664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6864,7 +6934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497142784"/>
+        <c:crossAx val="517823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7078,7 +7148,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7348,6 +7418,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7357,7 +7430,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7626,6 +7699,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7669,7 +7745,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7939,6 +8015,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7948,7 +8027,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8218,6 +8297,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>576.14629645503999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8260,7 +8342,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8530,6 +8612,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8539,7 +8624,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8809,6 +8894,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>209.71931980268545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,11 +8918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519217536"/>
-        <c:axId val="519219456"/>
+        <c:axId val="520091520"/>
+        <c:axId val="520335744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519217536"/>
+        <c:axId val="520091520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8877,14 +8965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519219456"/>
+        <c:crossAx val="520335744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519219456"/>
+        <c:axId val="520335744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8933,7 +9021,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519217536"/>
+        <c:crossAx val="520091520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9147,7 +9235,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9417,6 +9505,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9426,7 +9517,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9695,6 +9786,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -9738,7 +9832,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10008,6 +10102,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10017,7 +10114,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10287,6 +10384,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>257.0274739328039</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>260.01991224112709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10329,7 +10429,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10599,6 +10699,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,7 +10711,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10878,6 +10981,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>101.51425674278252</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>104.50669505110571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10899,11 +11005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555603840"/>
-        <c:axId val="558686976"/>
+        <c:axId val="529123584"/>
+        <c:axId val="529163776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555603840"/>
+        <c:axId val="529123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10946,14 +11052,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558686976"/>
+        <c:crossAx val="529163776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558686976"/>
+        <c:axId val="529163776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11002,7 +11108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555603840"/>
+        <c:crossAx val="529123584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11216,7 +11322,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11486,6 +11592,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11495,7 +11604,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11764,6 +11873,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -11807,7 +11919,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12077,6 +12189,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12086,7 +12201,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12356,6 +12471,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>419.64969552124478</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>422.49790901996181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12398,7 +12516,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12668,6 +12786,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,7 +12798,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12947,6 +13068,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>190.82090231695705</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>193.66911581567408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12968,11 +13092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585411584"/>
-        <c:axId val="587920512"/>
+        <c:axId val="529756544"/>
+        <c:axId val="529758080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585411584"/>
+        <c:axId val="529756544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13015,14 +13139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587920512"/>
+        <c:crossAx val="529758080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587920512"/>
+        <c:axId val="529758080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13071,7 +13195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585411584"/>
+        <c:crossAx val="529756544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13285,7 +13409,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13555,6 +13679,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13564,7 +13691,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13833,6 +13960,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -13876,7 +14006,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14146,6 +14276,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14155,7 +14288,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14425,6 +14558,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>239.25521517483571</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>241.67949469214449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14467,7 +14603,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14737,6 +14873,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14746,7 +14885,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15016,6 +15155,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>95.485205859101626</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97.909485376410402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15037,11 +15179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588002048"/>
-        <c:axId val="588003968"/>
+        <c:axId val="531450112"/>
+        <c:axId val="531462400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="588002048"/>
+        <c:axId val="531450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15084,14 +15226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588003968"/>
+        <c:crossAx val="531462400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588003968"/>
+        <c:axId val="531462400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15140,7 +15282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588002048"/>
+        <c:crossAx val="531450112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15354,7 +15496,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15624,6 +15766,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15633,7 +15778,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15902,6 +16047,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -15945,7 +16093,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16215,6 +16363,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16224,7 +16375,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16494,6 +16645,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>124.12937723632079</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>125.01187970079131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16536,7 +16690,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16806,6 +16960,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16815,7 +16972,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17085,6 +17242,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>48.751151433749598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49.633653898220118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17106,11 +17266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589078912"/>
-        <c:axId val="589081216"/>
+        <c:axId val="608440320"/>
+        <c:axId val="608442240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589078912"/>
+        <c:axId val="608440320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17153,14 +17313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589081216"/>
+        <c:crossAx val="608442240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="589081216"/>
+        <c:axId val="608442240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17209,7 +17369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589078912"/>
+        <c:crossAx val="608440320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17317,7 +17477,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17360,7 +17520,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17403,7 +17563,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17446,7 +17606,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17489,7 +17649,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17532,7 +17692,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17575,7 +17735,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17618,7 +17778,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17929,7 +18089,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21770,6 +21930,41 @@
         <v>1051.9015015060329</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-64.864825862248068</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-46.00342368636737</v>
+      </c>
+      <c r="F94" s="22">
+        <v>85.365403169261782</v>
+      </c>
+      <c r="G94" s="22">
+        <v>120.36521561928137</v>
+      </c>
+      <c r="H94" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1237.1315429875624</v>
+      </c>
+      <c r="J94" s="22">
+        <v>454.45307448941503</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1116.7663273682811</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21786,7 +21981,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21828,10 +22023,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -21861,16 +22056,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -26713,6 +26908,53 @@
       </c>
       <c r="O93" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-12.972965172449614</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-9.200684737273475</v>
+      </c>
+      <c r="F94" s="22">
+        <v>155.33671088139798</v>
+      </c>
+      <c r="G94" s="22">
+        <v>219.02475715784905</v>
+      </c>
+      <c r="H94" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1920.1000668814213</v>
+      </c>
+      <c r="J94" s="22">
+        <v>838.12398872165591</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1701.0753097235722</v>
+      </c>
+      <c r="L94" s="26">
+        <v>6.7472642510388287E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.7377654680561573E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>69.289656576476474</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -26731,7 +26973,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26773,7 +27015,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -26806,19 +27048,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -31888,6 +32130,56 @@
         <v>90.049632667327046</v>
       </c>
       <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-61.621584569135663</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-43.703252502049004</v>
+      </c>
+      <c r="F94" s="22">
+        <v>56.117347603917786</v>
+      </c>
+      <c r="G94" s="22">
+        <v>79.125458248405522</v>
+      </c>
+      <c r="H94" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I94" s="22">
+        <v>1150.0956036977268</v>
+      </c>
+      <c r="J94" s="22">
+        <v>432.9028337319362</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1070.9701454493213</v>
+      </c>
+      <c r="L94" s="26">
+        <v>79.644581076132468</v>
+      </c>
+      <c r="M94" s="27">
+        <v>70.555637225019552</v>
+      </c>
+      <c r="N94" s="27">
+        <v>59.513166818693925</v>
+      </c>
+      <c r="O94" s="27">
+        <v>92.640578037670807</v>
+      </c>
+      <c r="P94" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -31906,8 +32198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AH93"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31954,7 +32248,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -31963,10 +32257,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32025,7 +32319,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-8.1967318134533151</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36301,6 +36595,47 @@
       </c>
       <c r="M93" s="21">
         <v>538.16244689045482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-52.81873790330031</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-37.460098690543262</v>
+      </c>
+      <c r="H94" s="22">
+        <v>-8.1967318134533151</v>
+      </c>
+      <c r="I94" s="22">
+        <v>-11.557391583373732</v>
+      </c>
+      <c r="J94" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K94" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L94" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M94" s="21">
+        <v>590.98118479375512</v>
       </c>
     </row>
   </sheetData>
@@ -36319,7 +36654,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36361,7 +36696,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -40158,6 +40493,41 @@
       </c>
       <c r="K93" s="21">
         <v>222.34724843771914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-13.269300693423336</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-9.4108517784002856</v>
+      </c>
+      <c r="F94" s="22">
+        <v>17.307350133106194</v>
+      </c>
+      <c r="G94" s="22">
+        <v>24.403363109984596</v>
+      </c>
+      <c r="H94" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I94" s="22">
+        <v>260.01991224112709</v>
+      </c>
+      <c r="J94" s="22">
+        <v>104.50669505110571</v>
+      </c>
+      <c r="K94" s="21">
+        <v>235.61654913114248</v>
       </c>
     </row>
   </sheetData>
@@ -40176,7 +40546,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40218,10 +40588,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -40251,16 +40621,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -45103,6 +45473,53 @@
       </c>
       <c r="O93" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="21">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-2.6538601386846672</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-1.8821703556800573</v>
+      </c>
+      <c r="F94" s="22">
+        <v>23.548309909907555</v>
+      </c>
+      <c r="G94" s="22">
+        <v>33.20311618696001</v>
+      </c>
+      <c r="H94" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I94" s="22">
+        <v>422.49790901996181</v>
+      </c>
+      <c r="J94" s="22">
+        <v>193.66911581567408</v>
+      </c>
+      <c r="K94" s="21">
+        <v>389.29479283300179</v>
+      </c>
+      <c r="L94" s="26">
+        <v>6.7472642510388287E-2</v>
+      </c>
+      <c r="M94" s="27">
+        <v>9.7377654680561573E-2</v>
+      </c>
+      <c r="N94" s="27">
+        <v>69.289656576476474</v>
+      </c>
+      <c r="O94" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -45121,7 +45538,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45163,7 +45580,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45196,19 +45613,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50277,6 +50694,56 @@
         <v>90.049632667327046</v>
       </c>
       <c r="P93" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-12.605835658752168</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-8.9403091894802706</v>
+      </c>
+      <c r="F94" s="22">
+        <v>12.705045855342828</v>
+      </c>
+      <c r="G94" s="22">
+        <v>17.914114231956731</v>
+      </c>
+      <c r="H94" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I94" s="22">
+        <v>241.67949469214449</v>
+      </c>
+      <c r="J94" s="22">
+        <v>97.909485376410402</v>
+      </c>
+      <c r="K94" s="21">
+        <v>223.76538046018774</v>
+      </c>
+      <c r="L94" s="26">
+        <v>79.644581076132468</v>
+      </c>
+      <c r="M94" s="27">
+        <v>70.555637225019552</v>
+      </c>
+      <c r="N94" s="27">
+        <v>59.513166818693925</v>
+      </c>
+      <c r="O94" s="27">
+        <v>92.640578037670807</v>
+      </c>
+      <c r="P94" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -50296,7 +50763,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50343,7 +50810,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -50352,10 +50819,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -54692,6 +55159,47 @@
         <v>113.90180315979612</v>
       </c>
     </row>
+    <row r="94" spans="1:13" ht="12.75">
+      <c r="A94" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.2054314579260539</v>
+      </c>
+      <c r="D94" s="20">
+        <v>1541107</v>
+      </c>
+      <c r="E94" s="20">
+        <v>1892579.0573243788</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-10.80505044404844</v>
+      </c>
+      <c r="G94" s="22">
+        <v>-7.663156524704883</v>
+      </c>
+      <c r="H94" s="22">
+        <v>0.21633057033159986</v>
+      </c>
+      <c r="I94" s="22">
+        <v>0.30502609694674399</v>
+      </c>
+      <c r="J94" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K94" s="22">
+        <v>125.01187970079131</v>
+      </c>
+      <c r="L94" s="22">
+        <v>49.633653898220118</v>
+      </c>
+      <c r="M94" s="21">
+        <v>124.70685360384456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,18 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -173,7 +161,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
+    <t>盈利金额</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +183,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -569,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +632,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - 着色 1" xfId="2"/>
@@ -887,7 +886,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1160,6 +1159,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1171,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1441,6 +1443,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,7 +1489,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1757,6 +1762,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +1774,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2039,6 +2047,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1237.1315429875624</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1240.4607966419521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2092,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2354,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,7 +2377,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2636,6 +2650,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>454.45307448941503</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>457.78232814380476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,11 +2674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513366272"/>
-        <c:axId val="513432960"/>
+        <c:axId val="541365760"/>
+        <c:axId val="541367680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513366272"/>
+        <c:axId val="541365760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,14 +2721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513432960"/>
+        <c:crossAx val="541367680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513432960"/>
+        <c:axId val="541367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513366272"/>
+        <c:crossAx val="541365760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2914,7 +2931,7 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2974,7 +2991,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3247,6 +3264,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,7 +3276,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3528,6 +3548,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3571,7 +3594,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3844,6 +3867,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,7 +3879,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4126,6 +4152,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1920.1000668814213</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1926.1582039388586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,7 +4197,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4441,6 +4470,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4450,7 +4482,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4723,6 +4755,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>838.12398872165591</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>844.18212577909321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4744,11 +4779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513693184"/>
-        <c:axId val="513694720"/>
+        <c:axId val="544660096"/>
+        <c:axId val="544711040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513693184"/>
+        <c:axId val="544660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,14 +4826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513694720"/>
+        <c:crossAx val="544711040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513694720"/>
+        <c:axId val="544711040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513693184"/>
+        <c:crossAx val="544660096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5061,7 +5096,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5334,6 +5369,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5343,7 +5381,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5615,6 +5653,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5658,7 +5699,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5931,6 +5972,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5940,7 +5984,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6213,6 +6257,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1150.0956036977268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6255,7 +6302,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6528,6 +6575,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6537,7 +6587,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6810,6 +6860,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>432.9028337319362</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6831,11 +6884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517823872"/>
-        <c:axId val="517825664"/>
+        <c:axId val="547407744"/>
+        <c:axId val="551732352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517823872"/>
+        <c:axId val="547407744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6878,14 +6931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517825664"/>
+        <c:crossAx val="551732352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517825664"/>
+        <c:axId val="551732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6934,7 +6987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517823872"/>
+        <c:crossAx val="547407744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7148,7 +7201,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7421,6 +7474,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7430,7 +7486,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7702,6 +7758,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7745,7 +7804,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8018,6 +8077,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8027,7 +8089,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8299,6 +8361,9 @@
                   <c:v>576.14629645503999</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8342,7 +8407,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8615,6 +8680,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8624,7 +8692,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8896,6 +8964,9 @@
                   <c:v>209.71931980268545</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -8918,11 +8989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520091520"/>
-        <c:axId val="520335744"/>
+        <c:axId val="553473536"/>
+        <c:axId val="553475072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520091520"/>
+        <c:axId val="553473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8965,14 +9036,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520335744"/>
+        <c:crossAx val="553475072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520335744"/>
+        <c:axId val="553475072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9021,7 +9092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520091520"/>
+        <c:crossAx val="553473536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9235,7 +9306,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9508,6 +9579,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9517,7 +9591,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9789,6 +9863,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -9832,7 +9909,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10105,6 +10182,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10114,7 +10194,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10387,6 +10467,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>260.01991224112709</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>260.69489949051894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10429,7 +10512,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10702,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10711,7 +10797,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10984,6 +11070,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>104.50669505110571</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>105.18168230049756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11005,11 +11094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529123584"/>
-        <c:axId val="529163776"/>
+        <c:axId val="558403968"/>
+        <c:axId val="558405888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529123584"/>
+        <c:axId val="558403968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11052,14 +11141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529163776"/>
+        <c:crossAx val="558405888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529163776"/>
+        <c:axId val="558405888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11108,7 +11197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529123584"/>
+        <c:crossAx val="558403968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11322,8 +11411,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -11595,6 +11684,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11604,7 +11696,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11876,6 +11968,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -11919,8 +12014,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -12192,6 +12287,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12201,7 +12299,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12474,6 +12572,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>422.49790901996181</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>423.41629391491529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12516,8 +12617,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
+                <c:ptCount val="92"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -12789,6 +12890,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12798,7 +12902,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13071,6 +13175,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>193.66911581567408</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>194.58750071062755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13092,11 +13199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529756544"/>
-        <c:axId val="529758080"/>
+        <c:axId val="573268736"/>
+        <c:axId val="573270272"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="529756544"/>
+      <c:catAx>
+        <c:axId val="573268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13139,14 +13246,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529758080"/>
+        <c:crossAx val="573270272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="529758080"/>
+        <c:axId val="573270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13195,7 +13303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529756544"/>
+        <c:crossAx val="573268736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13409,7 +13517,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13682,6 +13790,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13691,7 +13802,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13963,6 +14074,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14006,7 +14120,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14279,6 +14393,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14288,7 +14405,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14561,6 +14678,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>241.67949469214449</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14603,7 +14723,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14876,6 +14996,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14885,7 +15008,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15158,6 +15281,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>97.909485376410402</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15179,11 +15305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531450112"/>
-        <c:axId val="531462400"/>
+        <c:axId val="575118336"/>
+        <c:axId val="575128704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531450112"/>
+        <c:axId val="575118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15226,14 +15352,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531462400"/>
+        <c:crossAx val="575128704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531462400"/>
+        <c:axId val="575128704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15282,7 +15408,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531450112"/>
+        <c:crossAx val="575118336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15496,7 +15622,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15769,6 +15895,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15778,7 +15907,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16050,6 +16179,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16093,7 +16225,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16366,6 +16498,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16375,7 +16510,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16648,6 +16783,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>125.01187970079131</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16690,7 +16828,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16963,6 +17101,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16972,7 +17113,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17245,6 +17386,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>49.633653898220118</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17266,11 +17410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608440320"/>
-        <c:axId val="608442240"/>
+        <c:axId val="540934912"/>
+        <c:axId val="540936448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608440320"/>
+        <c:axId val="540934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17313,14 +17457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608442240"/>
+        <c:crossAx val="540936448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608442240"/>
+        <c:axId val="540936448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17369,7 +17513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608440320"/>
+        <c:crossAx val="540934912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18089,7 +18233,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21965,6 +22109,41 @@
         <v>1116.7663273682811</v>
       </c>
     </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-89.865471741391744</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-62.018959062971604</v>
+      </c>
+      <c r="F95" s="22">
+        <v>23.346444106290178</v>
+      </c>
+      <c r="G95" s="22">
+        <v>33.828997532279374</v>
+      </c>
+      <c r="H95" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1240.4607966419521</v>
+      </c>
+      <c r="J95" s="22">
+        <v>457.78232814380476</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1206.6317991096728</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -21981,7 +22160,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22023,10 +22202,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -22056,16 +22235,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -22163,7 +22342,7 @@
         <v>14</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="V4" s="32" t="s">
         <v>16</v>
@@ -26954,6 +27133,53 @@
         <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-17.973094348278348</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-12.403791812594321</v>
+      </c>
+      <c r="F95" s="22">
+        <v>142.93291906880364</v>
+      </c>
+      <c r="G95" s="22">
+        <v>207.10979986700792</v>
+      </c>
+      <c r="H95" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1926.1582039388586</v>
+      </c>
+      <c r="J95" s="22">
+        <v>844.18212577909321</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1719.0484040718507</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -26972,8 +27198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH94"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27015,7 +27243,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27048,19 +27276,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27090,7 +27318,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-2.8006635059052343</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -32180,6 +32408,56 @@
         <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-85.372198154322149</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-58.91801110982302</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-2.8006635059052343</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-4.058161422727605</v>
+      </c>
+      <c r="H95" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I95" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J95" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1156.3423436036435</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32201,7 +32479,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32248,7 +32526,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32257,10 +32535,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -32319,7 +32597,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -36614,16 +36892,16 @@
         <v>1892579.0573243788</v>
       </c>
       <c r="F94" s="21">
-        <v>-52.81873790330031</v>
+        <v>-41.261346319926574</v>
       </c>
       <c r="G94" s="22">
-        <v>-37.460098690543262</v>
+        <v>-29.263366877089947</v>
       </c>
       <c r="H94" s="22">
-        <v>-8.1967318134533151</v>
+        <v>0</v>
       </c>
       <c r="I94" s="22">
-        <v>-11.557391583373732</v>
+        <v>0</v>
       </c>
       <c r="J94" s="22">
         <v>366.42697665235454</v>
@@ -36635,7 +36913,48 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M94" s="21">
-        <v>590.98118479375512</v>
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22">
+        <v>0</v>
+      </c>
+      <c r="J95" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K95" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L95" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M95" s="21">
+        <v>579.4237932103814</v>
       </c>
     </row>
   </sheetData>
@@ -36654,7 +36973,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36696,7 +37015,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -40528,6 +40847,41 @@
       </c>
       <c r="K94" s="21">
         <v>235.61654913114248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-21.638314991658859</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-14.933274656602746</v>
+      </c>
+      <c r="F95" s="22">
+        <v>2.3740754765034477</v>
+      </c>
+      <c r="G95" s="22">
+        <v>3.4400353677175906</v>
+      </c>
+      <c r="H95" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I95" s="22">
+        <v>260.69489949051894</v>
+      </c>
+      <c r="J95" s="22">
+        <v>105.18168230049756</v>
+      </c>
+      <c r="K95" s="21">
+        <v>257.25486412280134</v>
       </c>
     </row>
   </sheetData>
@@ -40546,7 +40900,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40588,10 +40942,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -40621,16 +40975,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -40671,7 +41025,7 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="34">
         <v>42853</v>
       </c>
       <c r="B4" s="25">
@@ -45519,6 +45873,53 @@
         <v>69.289656576476474</v>
       </c>
       <c r="O94" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="21">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-4.327662998331772</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-2.9866549313205493</v>
+      </c>
+      <c r="F95" s="22">
+        <v>20.561654978587008</v>
+      </c>
+      <c r="G95" s="22">
+        <v>29.793838083581697</v>
+      </c>
+      <c r="H95" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I95" s="22">
+        <v>423.41629391491529</v>
+      </c>
+      <c r="J95" s="22">
+        <v>194.58750071062755</v>
+      </c>
+      <c r="K95" s="21">
+        <v>393.62245583133358</v>
+      </c>
+      <c r="L95" s="26">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="M95" s="27">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N95" s="27">
+        <v>71.567144838255288</v>
+      </c>
+      <c r="O95" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -45537,8 +45938,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AH94"/>
+  <sheetPr codeName="Sheet7">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45580,7 +45983,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -45613,19 +46016,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -45655,7 +46058,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-1.4815650684297808</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -45715,7 +46118,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -50744,6 +51147,56 @@
         <v>92.640578037670807</v>
       </c>
       <c r="P94" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-20.556399242075916</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-14.186610923772609</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-1.4815650684297808</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-2.1467877855676827</v>
+      </c>
+      <c r="H95" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I95" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J95" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K95" s="21">
+        <v>244.32177970226365</v>
+      </c>
+      <c r="L95" s="26">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="M95" s="27">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="N95" s="27">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="O95" s="27">
+        <v>92.596961243288405</v>
+      </c>
+      <c r="P95" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -50762,8 +51215,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AH94"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50810,7 +51265,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -50819,10 +51274,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -50881,7 +51336,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>0</v>
+        <v>-5.1309530367087985</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -55198,6 +55653,47 @@
       </c>
       <c r="M94" s="21">
         <v>124.70685360384456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75">
+      <c r="A95" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.2082143624614177</v>
+      </c>
+      <c r="D95" s="20">
+        <v>675343</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1886019.7527461865</v>
+      </c>
+      <c r="F95" s="21">
+        <v>-7.7482139517011044</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-5.3472836070403984</v>
+      </c>
+      <c r="H95" s="22">
+        <v>-5.1309530367087985</v>
+      </c>
+      <c r="I95" s="22">
+        <v>-7.4347509550843069</v>
+      </c>
+      <c r="J95" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K95" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L95" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M95" s="21">
+        <v>132.45506755554567</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -161,12 +165,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -183,10 +183,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -565,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,9 +628,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - 着色 1" xfId="2"/>
@@ -886,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1162,6 +1155,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1167,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1446,6 +1442,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1489,7 +1488,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1765,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,7 +1776,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2050,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1240.4607966419521</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,7 +2097,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2368,6 +2373,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2385,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2653,6 +2661,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>457.78232814380476</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,11 +2685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541365760"/>
-        <c:axId val="541367680"/>
+        <c:axId val="461971456"/>
+        <c:axId val="461973376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541365760"/>
+        <c:axId val="461971456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,14 +2732,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541367680"/>
+        <c:crossAx val="461973376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541367680"/>
+        <c:axId val="461973376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +2788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541365760"/>
+        <c:crossAx val="461971456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2931,7 +2942,7 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2991,7 +3002,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3267,6 +3278,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,7 +3290,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3551,6 +3565,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3594,7 +3611,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3870,6 +3887,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +3899,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4155,6 +4175,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1926.1582039388586</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1927.0158074509754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,7 +4220,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4473,6 +4496,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,7 +4508,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4758,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>844.18212577909321</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>845.03972929121005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4779,11 +4808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544660096"/>
-        <c:axId val="544711040"/>
+        <c:axId val="521264128"/>
+        <c:axId val="533062016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544660096"/>
+        <c:axId val="521264128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,14 +4855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544711040"/>
+        <c:crossAx val="533062016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544711040"/>
+        <c:axId val="533062016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4882,7 +4911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544660096"/>
+        <c:crossAx val="521264128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5096,7 +5125,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5372,6 +5401,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5381,7 +5413,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5656,6 +5688,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5699,7 +5734,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5975,6 +6010,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,7 +6022,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6259,6 +6297,9 @@
                   <c:v>1150.0956036977268</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6302,7 +6343,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6578,6 +6619,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6587,7 +6631,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6862,6 +6906,9 @@
                   <c:v>432.9028337319362</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -6884,11 +6931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547407744"/>
-        <c:axId val="551732352"/>
+        <c:axId val="534868352"/>
+        <c:axId val="534870272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547407744"/>
+        <c:axId val="534868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6931,14 +6978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551732352"/>
+        <c:crossAx val="534870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551732352"/>
+        <c:axId val="534870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6987,7 +7034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547407744"/>
+        <c:crossAx val="534868352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7201,7 +7248,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7477,6 +7524,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,7 +7536,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7761,6 +7811,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7804,7 +7857,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8080,6 +8133,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8089,7 +8145,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8364,6 +8420,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8407,7 +8466,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8683,6 +8742,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8692,7 +8754,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8967,6 +9029,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -8989,11 +9054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553473536"/>
-        <c:axId val="553475072"/>
+        <c:axId val="544076928"/>
+        <c:axId val="544079232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553473536"/>
+        <c:axId val="544076928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9036,14 +9101,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553475072"/>
+        <c:crossAx val="544079232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553475072"/>
+        <c:axId val="544079232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9092,7 +9157,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553473536"/>
+        <c:crossAx val="544076928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9306,7 +9371,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9582,6 +9647,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9591,7 +9659,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9866,6 +9934,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -9909,7 +9980,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10185,6 +10256,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10194,7 +10268,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10470,6 +10544,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>260.69489949051894</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10512,7 +10589,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10788,6 +10865,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10797,7 +10877,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11073,6 +11153,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>105.18168230049756</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11094,11 +11177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558403968"/>
-        <c:axId val="558405888"/>
+        <c:axId val="544362880"/>
+        <c:axId val="544364416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558403968"/>
+        <c:axId val="544362880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11141,14 +11224,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558405888"/>
+        <c:crossAx val="544364416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558405888"/>
+        <c:axId val="544364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11197,7 +11280,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558403968"/>
+        <c:crossAx val="544362880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11411,8 +11494,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -11687,6 +11770,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11696,7 +11782,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11971,6 +12057,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12014,8 +12103,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -12290,6 +12379,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12299,7 +12391,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12575,6 +12667,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>423.41629391491529</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>423.53966470758814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12617,8 +12712,8 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -12893,6 +12988,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12902,7 +13000,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13178,6 +13276,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>194.58750071062755</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>194.71087150330041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13199,11 +13300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573268736"/>
-        <c:axId val="573270272"/>
+        <c:axId val="545686656"/>
+        <c:axId val="545714176"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="573268736"/>
+      <c:dateAx>
+        <c:axId val="545686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13246,15 +13347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573270272"/>
+        <c:crossAx val="545714176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="573270272"/>
+        <c:axId val="545714176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13303,7 +13403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573268736"/>
+        <c:crossAx val="545686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13517,7 +13617,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13793,6 +13893,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13802,7 +13905,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14077,6 +14180,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14120,7 +14226,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14396,6 +14502,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14405,7 +14514,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14680,6 +14789,9 @@
                   <c:v>241.67949469214449</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -14723,7 +14835,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14999,6 +15111,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15008,7 +15123,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15283,6 +15398,9 @@
                   <c:v>97.909485376410402</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15305,11 +15423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="575118336"/>
-        <c:axId val="575128704"/>
+        <c:axId val="555443328"/>
+        <c:axId val="555444864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="575118336"/>
+        <c:axId val="555443328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15352,14 +15470,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575128704"/>
+        <c:crossAx val="555444864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="575128704"/>
+        <c:axId val="555444864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15408,7 +15526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575118336"/>
+        <c:crossAx val="555443328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15622,7 +15740,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15898,6 +16016,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15907,7 +16028,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16182,6 +16303,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16225,7 +16349,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16501,6 +16625,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16510,7 +16637,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16785,6 +16912,9 @@
                   <c:v>125.01187970079131</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -16828,7 +16958,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17104,6 +17234,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17113,7 +17246,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17388,6 +17521,9 @@
                   <c:v>49.633653898220118</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -17410,11 +17546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540934912"/>
-        <c:axId val="540936448"/>
+        <c:axId val="461358208"/>
+        <c:axId val="461359744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540934912"/>
+        <c:axId val="461358208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17457,14 +17593,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540936448"/>
+        <c:crossAx val="461359744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540936448"/>
+        <c:axId val="461359744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17513,7 +17649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540934912"/>
+        <c:crossAx val="461358208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17621,7 +17757,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17664,7 +17800,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17707,7 +17843,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17750,7 +17886,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17793,7 +17929,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17836,7 +17972,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17879,7 +18015,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17922,7 +18058,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18232,8 +18368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF95"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18336,7 +18474,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-39.877507297318026</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -19050,6 +19188,30 @@
         <v>0.68474096327318767</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="S12" s="5">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1298.6226511152004</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.5850709150933826</v>
+      </c>
+      <c r="V12" s="9">
+        <v>8.8750050779065059E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -19452,6 +19614,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.2220518888775631</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="7">-Y19</f>
+        <v>-1.2220518888775631</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -19488,6 +19660,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>433.73124322277113</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="7"/>
+        <v>-433.73124322277113</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -19524,6 +19706,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>84.696913592045235</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="7"/>
+        <v>-84.696913592045235</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -19560,6 +19752,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -19597,6 +19799,16 @@
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -19633,6 +19845,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L24" s="7"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>118.96796894445561</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="7"/>
+        <v>-118.96796894445561</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -19669,6 +19891,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2.0625282415013544</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.0625282415013544</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -19705,6 +19937,16 @@
         <v>3.9743282370375694</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>141.99776260849649</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="7"/>
+        <v>-141.99776260849649</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -19741,6 +19983,12 @@
         <v>9.6299990227784029</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1240.6008762862457</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -19777,6 +20025,10 @@
         <v>9.9118553365159716</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>8.8750050779065059E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -22142,6 +22394,41 @@
       </c>
       <c r="K95" s="21">
         <v>1206.6317991096728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-91.990852005527572</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-63.223951403608204</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-39.877507297318026</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-58.021774828954683</v>
+      </c>
+      <c r="H96" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J96" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1298.6226511152004</v>
       </c>
     </row>
   </sheetData>
@@ -22160,7 +22447,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22235,16 +22522,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -22342,7 +22629,7 @@
         <v>14</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V4" s="32" t="s">
         <v>16</v>
@@ -23094,6 +23381,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="U12" s="5">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.78101516877199462</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0.10293825750561858</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -23580,6 +23891,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.8283260131836769</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="5">-AA19</f>
+        <v>-1.8283260131836769</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -23628,6 +23949,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>672.01613508174762</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="5"/>
+        <v>-672.01613508174762</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -23676,6 +24007,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>158.87923971358168</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="5"/>
+        <v>-158.87923971358168</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -23724,6 +24065,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -23772,6 +24123,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -23821,6 +24182,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>115.68877781628487</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="5"/>
+        <v>-115.68877781628487</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -23869,6 +24240,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -23917,6 +24298,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>131.60419770554131</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="5"/>
+        <v>-131.60419770554131</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -23965,6 +24356,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1927.0158074509754</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -24013,6 +24410,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>0.10293825750561858</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -27180,6 +27581,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-18.398170401105514</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-12.64479028072164</v>
+      </c>
+      <c r="F96" s="22">
+        <v>130.28812878808199</v>
+      </c>
+      <c r="G96" s="22">
+        <v>189.56923297801919</v>
+      </c>
+      <c r="H96" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1927.0158074509754</v>
+      </c>
+      <c r="J96" s="22">
+        <v>845.03972929121005</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1737.4465744729562</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -27201,7 +27649,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27243,7 +27691,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27288,7 +27736,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -27318,7 +27766,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -28158,6 +28606,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="S12" s="5">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="U12" s="5">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.60665894921929941</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.9145401197216145E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -28658,6 +29130,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.1609492944336848</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="5">-AA19</f>
+        <v>-1.1609492944336848</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -28708,6 +29190,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>412.0446810616325</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="5"/>
+        <v>-412.0446810616325</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -28758,6 +29250,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>80.462067912442933</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="5"/>
+        <v>-80.462067912442933</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -28808,6 +29310,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -28858,6 +29370,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -28909,6 +29431,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>113.01957049723279</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="5"/>
+        <v>-113.01957049723279</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -28959,6 +29491,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.9594018294262696</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.9594018294262696</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -29009,6 +29551,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>108.54609937062241</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="5"/>
+        <v>-108.54609937062241</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -29059,6 +29611,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1152.2841821809159</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -29109,6 +29667,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.9145401197216145E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -32422,16 +32984,16 @@
         <v>1.2082143624614177</v>
       </c>
       <c r="D95" s="21">
-        <v>-85.372198154322149</v>
+        <v>-81.314036731594541</v>
       </c>
       <c r="E95" s="22">
-        <v>-58.91801110982302</v>
+        <v>-56.117347603917786</v>
       </c>
       <c r="F95" s="22">
-        <v>-2.8006635059052343</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-4.058161422727605</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>717.1927699657906</v>
@@ -32443,7 +33005,7 @@
         <v>435.09141221512527</v>
       </c>
       <c r="K95" s="21">
-        <v>1156.3423436036435</v>
+        <v>1152.2841821809159</v>
       </c>
       <c r="L95" s="26">
         <v>79.964533123378445</v>
@@ -32458,6 +33020,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I96" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J96" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -32479,7 +33091,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32526,7 +33138,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -32535,10 +33147,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -33365,6 +33977,30 @@
         <v>4.7167320074873662E-2</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="S12" s="5">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="T12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="U12" s="5">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="V12" s="5">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.58128039180943369</v>
+      </c>
+      <c r="X12" s="9">
+        <v>7.7879086338844994E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -33809,6 +34445,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.57621376243097611</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="5">-AA19</f>
+        <v>-0.57621376243097611</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -33851,6 +34497,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>262.72397636432083</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="5"/>
+        <v>-262.72397636432083</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -33893,6 +34549,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>43.135897352006509</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="5"/>
+        <v>-43.135897352006509</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -33935,6 +34601,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -33977,6 +34653,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -34020,6 +34706,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>11.079325740253353</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="5"/>
+        <v>-11.079325740253353</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -34062,6 +34758,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.24237534426794127</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.24237534426794127</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -34104,6 +34810,16 @@
         <v>7.3840350468164679</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>48.669188089074908</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="5"/>
+        <v>-48.669188089074908</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -34146,6 +34862,12 @@
         <v>35.497382163166584</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>579.4237932103814</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -34188,6 +34910,10 @@
         <v>35.792150491909254</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>7.7879086338844994E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -36954,6 +37680,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M95" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K96" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L96" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M96" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -36972,8 +37739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AF95"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37015,7 +37784,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37076,7 +37845,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-13.028314197202119</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -37790,6 +38559,30 @@
         <v>1.3866004506281967E-2</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>27.535732145496823</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="R12" s="5">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="S12" s="5">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="T12" s="5">
+        <v>279.66534175904178</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.67644364095714116</v>
+      </c>
+      <c r="V12" s="9">
+        <v>9.5588199213083813E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -38192,6 +38985,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2.4278224531545677E-2</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="5">-Y19</f>
+        <v>-2.4278224531545677E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -38228,6 +39031,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>94.666167723656173</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="5"/>
+        <v>-94.666167723656173</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -38264,6 +39077,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>17.77547467858912</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="5"/>
+        <v>-17.77547467858912</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -38300,6 +39123,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -38336,6 +39169,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="X23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -38373,6 +39216,16 @@
       </c>
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
+      <c r="X24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>15.442674471379846</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.442674471379846</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -38409,6 +39262,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>6.8889946367875154E-2</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.8889946367875154E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -38445,6 +39308,16 @@
         <v>0.14549058520038957</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>27.535732145496823</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="5"/>
+        <v>-27.535732145496823</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -38481,6 +39354,12 @@
         <v>0.4871239929785558</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>260.7091440429981</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -38517,6 +39396,10 @@
         <v>0.49092479984911763</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>9.5588199213083813E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -40882,6 +41765,41 @@
       </c>
       <c r="K95" s="21">
         <v>257.25486412280134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-22.410477636240454</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-15.402389673705567</v>
+      </c>
+      <c r="F96" s="22">
+        <v>-13.028314197202119</v>
+      </c>
+      <c r="G96" s="22">
+        <v>-18.956197716043672</v>
+      </c>
+      <c r="H96" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I96" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J96" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K96" s="21">
+        <v>279.66534175904178</v>
       </c>
     </row>
   </sheetData>
@@ -40900,7 +41818,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40975,16 +41893,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -41025,7 +41943,7 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A4" s="34">
+      <c r="A4" s="15">
         <v>42853</v>
       </c>
       <c r="B4" s="25">
@@ -41070,7 +41988,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -41834,6 +42752,30 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="27"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>25.950741074997325</v>
+      </c>
+      <c r="S12" s="5">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="T12" s="5">
+        <v>423.53966470758814</v>
+      </c>
+      <c r="U12" s="5">
+        <v>194.71087150330041</v>
+      </c>
+      <c r="V12" s="5">
+        <v>398.10455135858166</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.85090197250427124</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0.10641163702313761</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -42320,6 +43262,16 @@
         <v>0.95</v>
       </c>
       <c r="P19" s="27"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>3.6578691859655649E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="5">-AA19</f>
+        <v>-3.6578691859655649E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -42368,6 +43320,16 @@
         <v>0.95</v>
       </c>
       <c r="P20" s="27"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>152.78805831265788</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="5"/>
+        <v>-152.78805831265788</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -42416,6 +43378,16 @@
         <v>2</v>
       </c>
       <c r="P21" s="27"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>35.118717328377443</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="5"/>
+        <v>-35.118717328377443</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -42464,6 +43436,16 @@
         <v>2</v>
       </c>
       <c r="P22" s="27"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -42512,6 +43494,16 @@
         <v>2</v>
       </c>
       <c r="P23" s="27"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -42561,6 +43553,16 @@
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>14.869252347345935</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="5"/>
+        <v>-14.869252347345935</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -42609,6 +43611,16 @@
         <v>2</v>
       </c>
       <c r="P25" s="27"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>6.5445449049491344E-2</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.5445449049491344E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -42657,6 +43669,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="27"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>25.950741074997325</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="5"/>
+        <v>-25.950741074997325</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -42705,6 +43727,12 @@
         <v>0.2</v>
       </c>
       <c r="P27" s="27"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>423.53966470758814</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -42753,6 +43781,10 @@
         <v>0.2</v>
       </c>
       <c r="P28" s="27"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>0.10641163702313761</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -45920,6 +46952,53 @@
         <v>71.567144838255288</v>
       </c>
       <c r="O95" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="21">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-4.4820955272480907</v>
+      </c>
+      <c r="E96" s="22">
+        <v>-3.0804779347411131</v>
+      </c>
+      <c r="F96" s="22">
+        <v>17.481177043845896</v>
+      </c>
+      <c r="G96" s="22">
+        <v>25.43511334900651</v>
+      </c>
+      <c r="H96" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I96" s="22">
+        <v>423.53966470758814</v>
+      </c>
+      <c r="J96" s="22">
+        <v>194.71087150330041</v>
+      </c>
+      <c r="K96" s="21">
+        <v>398.10455135858166</v>
+      </c>
+      <c r="L96" s="26">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="M96" s="27">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N96" s="27">
+        <v>71.951167459958171</v>
+      </c>
+      <c r="O96" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -45941,7 +47020,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46028,7 +47107,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -46058,7 +47137,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-1.4815650684297808</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -46118,7 +47197,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -46898,6 +47977,30 @@
       <c r="P12" s="27">
         <v>0.95</v>
       </c>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>22.191398523435794</v>
+      </c>
+      <c r="S12" s="5">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="T12" s="5">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="U12" s="5">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="V12" s="5">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.6844611269715799</v>
+      </c>
+      <c r="X12" s="9">
+        <v>9.4716320785696251E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -47398,6 +48501,16 @@
       <c r="P19" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2.3064313304968394E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="5">-AA19</f>
+        <v>-2.3064313304968394E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -47448,6 +48561,16 @@
       <c r="P20" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>89.932859337473346</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="5"/>
+        <v>-89.932859337473346</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -47498,6 +48621,16 @@
       <c r="P21" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>16.886700944659651</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="5"/>
+        <v>-16.886700944659651</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -47548,6 +48681,16 @@
       <c r="P22" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -47598,6 +48741,16 @@
       <c r="P23" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -47649,6 +48802,16 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>14.670540747810847</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="5"/>
+        <v>-14.670540747810847</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -47699,6 +48862,16 @@
       <c r="P25" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>6.5445449049477133E-2</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.5445449049477133E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -47749,6 +48922,16 @@
       <c r="P26" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>22.191398523435794</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="5"/>
+        <v>-22.191398523435794</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -47799,6 +48982,12 @@
       <c r="P27" s="27">
         <v>0.95</v>
       </c>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>242.17499191669597</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -47849,6 +49038,10 @@
       <c r="P28" s="27">
         <v>0.95</v>
       </c>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>9.4716320785696251E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -51161,16 +52354,16 @@
         <v>1.2082143624614177</v>
       </c>
       <c r="D95" s="21">
-        <v>-20.556399242075916</v>
+        <v>-18.409611456508234</v>
       </c>
       <c r="E95" s="22">
-        <v>-14.186610923772609</v>
+        <v>-12.705045855342828</v>
       </c>
       <c r="F95" s="22">
-        <v>-1.4815650684297808</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-2.1467877855676827</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>143.77000931573409</v>
@@ -51182,7 +52375,7 @@
         <v>98.404982600961887</v>
       </c>
       <c r="K95" s="21">
-        <v>244.32177970226365</v>
+        <v>242.17499191669597</v>
       </c>
       <c r="L95" s="26">
         <v>79.964533123378445</v>
@@ -51197,6 +52390,56 @@
         <v>92.596961243288405</v>
       </c>
       <c r="P95" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I96" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J96" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K96" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L96" s="26">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="M96" s="27">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="N96" s="27">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="O96" s="27">
+        <v>92.001401816041067</v>
+      </c>
+      <c r="P96" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -51218,7 +52461,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -51274,10 +52517,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -51336,7 +52579,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5">
         <f>MIN(H:H)</f>
-        <v>-5.1309530367087985</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
@@ -52104,6 +53347,30 @@
         <v>9.551382315161859E-4</v>
       </c>
       <c r="N12" s="7"/>
+      <c r="Q12" s="29">
+        <v>45657</v>
+      </c>
+      <c r="R12" s="10">
+        <v>9.6481896357176566</v>
+      </c>
+      <c r="S12" s="5">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="T12" s="5">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="U12" s="5">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="V12" s="5">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.65857335151282959</v>
+      </c>
+      <c r="X12" s="9">
+        <v>8.519246691311988E-2</v>
+      </c>
       <c r="Z12" s="6">
         <v>43830</v>
       </c>
@@ -52548,6 +53815,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N19" s="7"/>
+      <c r="Z19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.124314398050745E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19:AB26" si="6">-AA19</f>
+        <v>-1.124314398050745E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -52590,6 +53867,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N20" s="7"/>
+      <c r="Z20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>55.643403638191252</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="6"/>
+        <v>-55.643403638191252</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -52632,6 +53919,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N21" s="8"/>
+      <c r="Z21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>8.5413663158345159</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.5413663158345159</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -52674,6 +53971,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N22" s="7"/>
+      <c r="Z22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -52716,6 +54023,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N23" s="7"/>
+      <c r="Z23" s="29">
+        <v>44561</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -52759,6 +54076,16 @@
       </c>
       <c r="N24" s="7"/>
       <c r="Q24" s="3"/>
+      <c r="Z24" s="29">
+        <v>44925</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1.5261071879285026</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.5261071879285026</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -52801,6 +54128,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N25" s="7"/>
+      <c r="Z25" s="29">
+        <v>45289</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>7.9158809187589441E-3</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.9158809187589441E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -52843,6 +54180,16 @@
         <v>0.30369324442743795</v>
       </c>
       <c r="N26" s="7"/>
+      <c r="Z26" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>9.6481896357176566</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.6481896357176566</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -52885,6 +54232,12 @@
         <v>2.00189297055437</v>
       </c>
       <c r="N27" s="7"/>
+      <c r="Z27" s="29">
+        <v>45657</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>125.02031660046136</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -52927,6 +54280,10 @@
         <v>2.0058678947781798</v>
       </c>
       <c r="N28" s="7"/>
+      <c r="AB28" s="2">
+        <f>IRR(AB19:AB27)</f>
+        <v>8.519246691311988E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -55672,16 +57029,16 @@
         <v>1886019.7527461865</v>
       </c>
       <c r="F95" s="21">
-        <v>-7.7482139517011044</v>
+        <v>-0.31346299661679711</v>
       </c>
       <c r="G95" s="22">
-        <v>-5.3472836070403984</v>
+        <v>-0.21633057033159986</v>
       </c>
       <c r="H95" s="22">
-        <v>-5.1309530367087985</v>
+        <v>0</v>
       </c>
       <c r="I95" s="22">
-        <v>-7.4347509550843069</v>
+        <v>0</v>
       </c>
       <c r="J95" s="22">
         <v>75.378225802571194</v>
@@ -55693,7 +57050,48 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M95" s="21">
-        <v>132.45506755554567</v>
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75">
+      <c r="A96" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.211383670768972</v>
+      </c>
+      <c r="D96" s="20">
+        <v>1227300</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1875140.6638665621</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>0</v>
+      </c>
+      <c r="I96" s="22">
+        <v>0</v>
+      </c>
+      <c r="J96" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K96" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L96" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M96" s="21">
+        <v>125.02031660046136</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RSV</t>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2685,11 +2693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461971456"/>
-        <c:axId val="461973376"/>
+        <c:axId val="478937472"/>
+        <c:axId val="479203712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461971456"/>
+        <c:axId val="478937472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,14 +2740,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461973376"/>
+        <c:crossAx val="479203712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461973376"/>
+        <c:axId val="479203712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461971456"/>
+        <c:crossAx val="478937472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4808,11 +4816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521264128"/>
-        <c:axId val="533062016"/>
+        <c:axId val="554664320"/>
+        <c:axId val="554665856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521264128"/>
+        <c:axId val="554664320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,14 +4863,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533062016"/>
+        <c:crossAx val="554665856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533062016"/>
+        <c:axId val="554665856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4919,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521264128"/>
+        <c:crossAx val="554664320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6931,11 +6939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534868352"/>
-        <c:axId val="534870272"/>
+        <c:axId val="565499392"/>
+        <c:axId val="565506816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534868352"/>
+        <c:axId val="565499392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6978,14 +6986,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534870272"/>
+        <c:crossAx val="565506816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534870272"/>
+        <c:axId val="565506816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7034,7 +7042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534868352"/>
+        <c:crossAx val="565499392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9054,11 +9062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544076928"/>
-        <c:axId val="544079232"/>
+        <c:axId val="565606272"/>
+        <c:axId val="565607808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544076928"/>
+        <c:axId val="565606272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9101,14 +9109,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544079232"/>
+        <c:crossAx val="565607808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544079232"/>
+        <c:axId val="565607808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,7 +9165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544076928"/>
+        <c:crossAx val="565606272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11177,11 +11185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544362880"/>
-        <c:axId val="544364416"/>
+        <c:axId val="566026624"/>
+        <c:axId val="566028160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544362880"/>
+        <c:axId val="566026624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11224,14 +11232,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544364416"/>
+        <c:crossAx val="566028160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544364416"/>
+        <c:axId val="566028160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11280,7 +11288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544362880"/>
+        <c:crossAx val="566026624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13300,11 +13308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545686656"/>
-        <c:axId val="545714176"/>
+        <c:axId val="566318976"/>
+        <c:axId val="572641280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545686656"/>
+        <c:axId val="566318976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13347,14 +13355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545714176"/>
+        <c:crossAx val="572641280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545714176"/>
+        <c:axId val="572641280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13403,7 +13411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545686656"/>
+        <c:crossAx val="566318976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15423,11 +15431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555443328"/>
-        <c:axId val="555444864"/>
+        <c:axId val="574390656"/>
+        <c:axId val="574392192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555443328"/>
+        <c:axId val="574390656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15470,14 +15478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555444864"/>
+        <c:crossAx val="574392192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555444864"/>
+        <c:axId val="574392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15526,7 +15534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555443328"/>
+        <c:crossAx val="574390656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17546,11 +17554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461358208"/>
-        <c:axId val="461359744"/>
+        <c:axId val="478139520"/>
+        <c:axId val="478141056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461358208"/>
+        <c:axId val="478139520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17593,14 +17601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461359744"/>
+        <c:crossAx val="478141056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461359744"/>
+        <c:axId val="478141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17649,7 +17657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461358208"/>
+        <c:crossAx val="478139520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27691,7 +27699,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27826,7 +27834,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -33138,7 +33146,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33147,10 +33155,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -41860,7 +41868,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -41988,7 +41996,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -47062,7 +47070,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47197,7 +47205,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -52517,10 +52525,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52631,7 +52639,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -887,7 +879,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1166,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1170,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1453,6 +1448,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1496,7 +1494,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1775,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,7 +1785,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2062,6 +2063,9 @@
                   <c:v>1240.4607966419521</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2105,7 +2109,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2384,6 +2388,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2400,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2671,6 +2678,9 @@
                   <c:v>457.78232814380476</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2693,11 +2703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478937472"/>
-        <c:axId val="479203712"/>
+        <c:axId val="550290944"/>
+        <c:axId val="550413440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478937472"/>
+        <c:axId val="550290944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,14 +2750,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479203712"/>
+        <c:crossAx val="550413440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479203712"/>
+        <c:axId val="550413440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,7 +2806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478937472"/>
+        <c:crossAx val="550290944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,7 +3020,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3289,6 +3299,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3298,7 +3311,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3576,6 +3589,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3619,7 +3635,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3898,6 +3914,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3926,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4186,6 +4205,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1927.0158074509754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1925.8432060912214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4250,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4507,6 +4529,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,7 +4541,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4795,6 +4820,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>845.03972929121005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>843.86712793145603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4816,11 +4844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554664320"/>
-        <c:axId val="554665856"/>
+        <c:axId val="570975744"/>
+        <c:axId val="570977280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554664320"/>
+        <c:axId val="570975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,14 +4891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554665856"/>
+        <c:crossAx val="570977280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554665856"/>
+        <c:axId val="570977280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,7 +4947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554664320"/>
+        <c:crossAx val="570975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5133,7 +5161,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5412,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,7 +5452,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5699,6 +5730,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5742,7 +5776,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6021,6 +6055,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6030,7 +6067,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6308,6 +6345,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6351,7 +6391,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6630,6 +6670,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6639,7 +6682,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6917,6 +6960,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -6939,11 +6985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565499392"/>
-        <c:axId val="565506816"/>
+        <c:axId val="576003456"/>
+        <c:axId val="615136640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565499392"/>
+        <c:axId val="576003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,14 +7032,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565506816"/>
+        <c:crossAx val="615136640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565506816"/>
+        <c:axId val="615136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7042,7 +7088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565499392"/>
+        <c:crossAx val="576003456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7256,7 +7302,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7535,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7544,7 +7593,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7822,6 +7871,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7865,7 +7917,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8144,6 +8196,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8153,7 +8208,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8431,6 +8486,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8474,7 +8532,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8753,6 +8811,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8762,7 +8823,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9040,6 +9101,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9062,11 +9126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565606272"/>
-        <c:axId val="565607808"/>
+        <c:axId val="618108800"/>
+        <c:axId val="618112128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565606272"/>
+        <c:axId val="618108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9109,14 +9173,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565607808"/>
+        <c:crossAx val="618112128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565607808"/>
+        <c:axId val="618112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9165,7 +9229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565606272"/>
+        <c:crossAx val="618108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9379,7 +9443,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9658,6 +9722,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9667,7 +9734,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9945,6 +10012,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -9988,7 +10058,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10267,6 +10337,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10276,7 +10349,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10554,6 +10627,9 @@
                   <c:v>260.69489949051894</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -10597,7 +10673,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10876,6 +10952,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10885,7 +10964,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11163,6 +11242,9 @@
                   <c:v>105.18168230049756</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11185,11 +11267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566026624"/>
-        <c:axId val="566028160"/>
+        <c:axId val="618882944"/>
+        <c:axId val="618884480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566026624"/>
+        <c:axId val="618882944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11232,14 +11314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566028160"/>
+        <c:crossAx val="618884480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566028160"/>
+        <c:axId val="618884480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11288,7 +11370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566026624"/>
+        <c:crossAx val="618882944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11502,7 +11584,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11781,6 +11863,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11790,7 +11875,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12068,6 +12153,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12111,7 +12199,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12390,6 +12478,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12399,7 +12490,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12678,6 +12769,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>423.53966470758814</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>423.38233301388448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12720,7 +12814,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12999,6 +13093,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13008,7 +13105,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13287,6 +13384,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>194.71087150330041</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>194.55353980959674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13308,11 +13408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566318976"/>
-        <c:axId val="572641280"/>
+        <c:axId val="619849984"/>
+        <c:axId val="619954176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566318976"/>
+        <c:axId val="619849984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13355,14 +13455,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572641280"/>
+        <c:crossAx val="619954176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572641280"/>
+        <c:axId val="619954176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13411,7 +13511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566318976"/>
+        <c:crossAx val="619849984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13625,7 +13725,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13904,6 +14004,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13913,7 +14016,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14191,6 +14294,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14234,7 +14340,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14513,6 +14619,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14522,7 +14631,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14800,6 +14909,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -14843,7 +14955,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15122,6 +15234,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15131,7 +15246,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15409,6 +15524,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15431,11 +15549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574390656"/>
-        <c:axId val="574392192"/>
+        <c:axId val="547485952"/>
+        <c:axId val="547930112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574390656"/>
+        <c:axId val="547485952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15478,14 +15596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574392192"/>
+        <c:crossAx val="547930112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574392192"/>
+        <c:axId val="547930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15534,7 +15652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574390656"/>
+        <c:crossAx val="547485952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15748,7 +15866,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16027,6 +16145,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16036,7 +16157,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16314,6 +16435,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16357,7 +16481,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16636,6 +16760,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16645,7 +16772,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16923,6 +17050,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -16966,7 +17096,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17245,6 +17375,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17254,7 +17387,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17532,6 +17665,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -17554,11 +17690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478139520"/>
-        <c:axId val="478141056"/>
+        <c:axId val="548362112"/>
+        <c:axId val="548363648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478139520"/>
+        <c:axId val="548362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17601,14 +17737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478141056"/>
+        <c:crossAx val="548363648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478141056"/>
+        <c:axId val="548363648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17657,7 +17793,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478139520"/>
+        <c:crossAx val="548362112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18379,7 +18515,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18482,7 +18618,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -19212,7 +19348,7 @@
         <v>457.92240778809833</v>
       </c>
       <c r="T12" s="5">
-        <v>1298.6226511152004</v>
+        <v>1240.6008762862457</v>
       </c>
       <c r="U12" s="9">
         <v>0.5850709150933826</v>
@@ -22415,16 +22551,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-91.990852005527572</v>
+        <v>-33.969077176572895</v>
       </c>
       <c r="E96" s="22">
-        <v>-63.223951403608204</v>
+        <v>-23.346444106290178</v>
       </c>
       <c r="F96" s="22">
-        <v>-39.877507297318026</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-58.021774828954683</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>782.67846849814737</v>
@@ -22436,7 +22572,42 @@
         <v>457.92240778809833</v>
       </c>
       <c r="K96" s="21">
-        <v>1298.6226511152004</v>
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J97" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1240.6008762862457</v>
       </c>
     </row>
   </sheetData>
@@ -22455,7 +22626,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22497,7 +22668,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27636,6 +27807,53 @@
         <v>71.951167459958171</v>
       </c>
       <c r="O96" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-16.785179039891826</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-11.608007795551357</v>
+      </c>
+      <c r="F97" s="22">
+        <v>118.68012099253063</v>
+      </c>
+      <c r="G97" s="22">
+        <v>171.61145257837345</v>
+      </c>
+      <c r="H97" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1925.8432060912214</v>
+      </c>
+      <c r="J97" s="22">
+        <v>843.86712793145603</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1754.2317535128479</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -27657,7 +27875,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27699,7 +27917,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -27732,16 +27950,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -27834,7 +28052,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -33078,6 +33296,56 @@
         <v>92.001401816041067</v>
       </c>
       <c r="P96" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I97" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J97" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33099,7 +33367,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33146,7 +33414,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33155,10 +33423,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -37729,6 +37997,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M96" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K97" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L97" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M97" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -37750,7 +38059,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -37792,7 +38101,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -37853,7 +38162,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-13.028314197202119</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -38583,7 +38892,7 @@
         <v>105.19592685297673</v>
       </c>
       <c r="T12" s="5">
-        <v>279.66534175904178</v>
+        <v>260.7091440429981</v>
       </c>
       <c r="U12" s="9">
         <v>0.67644364095714116</v>
@@ -41786,16 +42095,16 @@
         <v>1.211383670768972</v>
       </c>
       <c r="D96" s="21">
-        <v>-22.410477636240454</v>
+        <v>-3.4542799201967829</v>
       </c>
       <c r="E96" s="22">
-        <v>-15.402389673705567</v>
+        <v>-2.3740754765034477</v>
       </c>
       <c r="F96" s="22">
-        <v>-13.028314197202119</v>
+        <v>0</v>
       </c>
       <c r="G96" s="22">
-        <v>-18.956197716043672</v>
+        <v>0</v>
       </c>
       <c r="H96" s="22">
         <v>155.51321719002138</v>
@@ -41807,7 +42116,42 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K96" s="21">
-        <v>279.66534175904178</v>
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I97" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J97" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K97" s="21">
+        <v>260.7091440429981</v>
       </c>
     </row>
   </sheetData>
@@ -41826,7 +42170,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41868,7 +42212,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47007,6 +47351,53 @@
         <v>71.951167459958171</v>
       </c>
       <c r="O96" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="21">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>-3.9057830838092666</v>
+      </c>
+      <c r="E97" s="22">
+        <v>-2.7010948394913741</v>
+      </c>
+      <c r="F97" s="22">
+        <v>14.780082204354523</v>
+      </c>
+      <c r="G97" s="22">
+        <v>21.37199857149356</v>
+      </c>
+      <c r="H97" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I97" s="22">
+        <v>423.38233301388448</v>
+      </c>
+      <c r="J97" s="22">
+        <v>194.55353980959674</v>
+      </c>
+      <c r="K97" s="21">
+        <v>402.0103344423909</v>
+      </c>
+      <c r="L97" s="26">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="M97" s="27">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N97" s="27">
+        <v>70.243455160968878</v>
+      </c>
+      <c r="O97" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -47028,7 +47419,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47070,7 +47461,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47103,16 +47494,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>24</v>
@@ -52448,6 +52839,56 @@
         <v>92.001401816041067</v>
       </c>
       <c r="P96" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I97" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J97" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K97" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L97" s="26">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="M97" s="27">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="N97" s="27">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="O97" s="27">
+        <v>89.276339607984056</v>
+      </c>
+      <c r="P97" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -52469,7 +52910,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52516,7 +52957,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -52525,10 +52966,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -52639,7 +53080,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -57099,6 +57540,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M96" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75">
+      <c r="A97" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.2133076104409599</v>
+      </c>
+      <c r="D97" s="20">
+        <v>1310843</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1865309.5692843222</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>0</v>
+      </c>
+      <c r="J97" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K97" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L97" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M97" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -179,6 +179,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -879,7 +883,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1161,6 +1165,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1177,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1451,6 +1458,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1494,7 +1504,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1776,6 +1786,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1798,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2066,6 +2079,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2109,7 +2125,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2391,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,7 +2419,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2681,6 +2700,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2703,11 +2725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550290944"/>
-        <c:axId val="550413440"/>
+        <c:axId val="462529280"/>
+        <c:axId val="462531200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550290944"/>
+        <c:axId val="462529280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,14 +2772,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550413440"/>
+        <c:crossAx val="462531200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550413440"/>
+        <c:axId val="462531200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +2828,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550290944"/>
+        <c:crossAx val="462529280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3020,7 +3042,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3302,6 +3324,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,7 +3336,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3592,6 +3617,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3635,7 +3663,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3917,6 +3945,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,7 +3957,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4208,6 +4239,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1925.8432060912214</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1946.612235753578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,7 +4284,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4532,6 +4566,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,7 +4578,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4823,6 +4860,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>843.86712793145603</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>864.63615759381264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4844,11 +4884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570975744"/>
-        <c:axId val="570977280"/>
+        <c:axId val="514580480"/>
+        <c:axId val="514583552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570975744"/>
+        <c:axId val="514580480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,14 +4931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570977280"/>
+        <c:crossAx val="514583552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570977280"/>
+        <c:axId val="514583552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,7 +4987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570975744"/>
+        <c:crossAx val="514580480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5161,7 +5201,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5443,6 +5483,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,7 +5495,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5733,6 +5776,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5776,7 +5822,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6058,6 +6104,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6067,7 +6116,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6348,6 +6397,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6391,7 +6443,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6673,6 +6725,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,7 +6737,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6963,6 +7018,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -6985,11 +7043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576003456"/>
-        <c:axId val="615136640"/>
+        <c:axId val="532036608"/>
+        <c:axId val="532358272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576003456"/>
+        <c:axId val="532036608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7032,14 +7090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615136640"/>
+        <c:crossAx val="532358272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615136640"/>
+        <c:axId val="532358272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7088,7 +7146,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576003456"/>
+        <c:crossAx val="532036608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7302,7 +7360,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7584,6 +7642,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7654,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7874,6 +7935,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7917,7 +7981,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8199,6 +8263,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,7 +8275,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8489,6 +8556,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8532,7 +8602,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8814,6 +8884,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8823,7 +8896,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9104,6 +9177,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9126,11 +9202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618108800"/>
-        <c:axId val="618112128"/>
+        <c:axId val="646018560"/>
+        <c:axId val="646020096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618108800"/>
+        <c:axId val="646018560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9173,14 +9249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618112128"/>
+        <c:crossAx val="646020096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618112128"/>
+        <c:axId val="646020096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9229,7 +9305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618108800"/>
+        <c:crossAx val="646018560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9443,7 +9519,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9725,6 +9801,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9734,7 +9813,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10015,6 +10094,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10058,7 +10140,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10340,6 +10422,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10349,7 +10434,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10630,6 +10715,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -10673,7 +10761,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10955,6 +11043,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10964,7 +11055,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11245,6 +11336,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11267,11 +11361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618882944"/>
-        <c:axId val="618884480"/>
+        <c:axId val="646394240"/>
+        <c:axId val="646396160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618882944"/>
+        <c:axId val="646394240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11314,14 +11408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618884480"/>
+        <c:crossAx val="646396160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618884480"/>
+        <c:axId val="646396160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11370,7 +11464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618882944"/>
+        <c:crossAx val="646394240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11584,7 +11678,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11866,6 +11960,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11875,7 +11972,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12156,6 +12253,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12199,7 +12299,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12481,6 +12581,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12490,7 +12593,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12772,6 +12875,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>423.38233301388448</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>425.96884845680034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12814,7 +12920,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13096,6 +13202,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13105,7 +13214,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13387,6 +13496,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>194.55353980959674</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197.14005525251261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13408,11 +13520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619849984"/>
-        <c:axId val="619954176"/>
+        <c:axId val="646919680"/>
+        <c:axId val="646921216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619849984"/>
+        <c:axId val="646919680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13455,14 +13567,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619954176"/>
+        <c:crossAx val="646921216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619954176"/>
+        <c:axId val="646921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13511,7 +13623,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619849984"/>
+        <c:crossAx val="646919680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13725,7 +13837,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14007,6 +14119,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14016,7 +14131,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14297,6 +14412,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14340,7 +14458,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14622,6 +14740,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14631,7 +14752,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14912,6 +15033,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -14955,7 +15079,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15237,6 +15361,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15246,7 +15373,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15527,6 +15654,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15549,11 +15679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547485952"/>
-        <c:axId val="547930112"/>
+        <c:axId val="648368896"/>
+        <c:axId val="648371200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547485952"/>
+        <c:axId val="648368896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15596,14 +15726,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547930112"/>
+        <c:crossAx val="648371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547930112"/>
+        <c:axId val="648371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15652,7 +15782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547485952"/>
+        <c:crossAx val="648368896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15866,7 +15996,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16148,6 +16278,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16157,7 +16290,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16438,6 +16571,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16481,7 +16617,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16763,6 +16899,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16772,7 +16911,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17053,6 +17192,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17096,7 +17238,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17378,6 +17520,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17387,7 +17532,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17668,6 +17813,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -17690,11 +17838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548362112"/>
-        <c:axId val="548363648"/>
+        <c:axId val="438164096"/>
+        <c:axId val="458301824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548362112"/>
+        <c:axId val="438164096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17737,14 +17885,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548363648"/>
+        <c:crossAx val="458301824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548363648"/>
+        <c:axId val="458301824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17793,7 +17941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548362112"/>
+        <c:crossAx val="438164096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18515,7 +18663,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22610,6 +22758,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J98" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22626,7 +22809,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27857,6 +28040,53 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="98" spans="1:15" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>-50.538500923960576</v>
+      </c>
+      <c r="E98" s="22">
+        <v>-31.177359234038281</v>
+      </c>
+      <c r="F98" s="22">
+        <v>87.502761758492355</v>
+      </c>
+      <c r="G98" s="22">
+        <v>141.84198131676948</v>
+      </c>
+      <c r="H98" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1946.612235753578</v>
+      </c>
+      <c r="J98" s="22">
+        <v>864.63615759381264</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1804.7702544368085</v>
+      </c>
+      <c r="L98" s="26">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="M98" s="27">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N98" s="27">
+        <v>80.849145512344037</v>
+      </c>
+      <c r="O98" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -27875,7 +28105,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33349,6 +33579,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="98" spans="1:16" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I98" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J98" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L98" s="26">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="M98" s="27">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="N98" s="27">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="O98" s="27">
+        <v>89.200517357554929</v>
+      </c>
+      <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -33367,7 +33647,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33414,7 +33694,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33423,10 +33703,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -38038,6 +38318,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M97" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="20">
+        <v>1486519</v>
+      </c>
+      <c r="E98" s="20">
+        <v>1865881.4132321663</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K98" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L98" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M98" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -38059,7 +38380,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38101,7 +38422,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -42151,6 +42472,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K97" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I98" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J98" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K98" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -42170,7 +42526,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42212,7 +42568,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47398,6 +47754,53 @@
         <v>70.243455160968878</v>
       </c>
       <c r="O97" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="21">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>-20.405755874635272</v>
+      </c>
+      <c r="E98" s="22">
+        <v>-12.588374599848215</v>
+      </c>
+      <c r="F98" s="22">
+        <v>2.1917076045063073</v>
+      </c>
+      <c r="G98" s="22">
+        <v>3.5527581397741876</v>
+      </c>
+      <c r="H98" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I98" s="22">
+        <v>425.96884845680034</v>
+      </c>
+      <c r="J98" s="22">
+        <v>197.14005525251261</v>
+      </c>
+      <c r="K98" s="21">
+        <v>422.41609031702615</v>
+      </c>
+      <c r="L98" s="26">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="M98" s="27">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N98" s="27">
+        <v>80.849145512344037</v>
+      </c>
+      <c r="O98" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -47419,7 +47822,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47461,7 +47864,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47596,7 +47999,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -52889,6 +53292,56 @@
         <v>89.276339607984056</v>
       </c>
       <c r="P97" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I98" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J98" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K98" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L98" s="26">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="M98" s="27">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="N98" s="27">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="O98" s="27">
+        <v>89.200517357554929</v>
+      </c>
+      <c r="P98" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -52910,7 +53363,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52966,10 +53419,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -57584,6 +58037,47 @@
         <v>125.02031660046136</v>
       </c>
     </row>
+    <row r="98" spans="1:13" ht="12.75">
+      <c r="A98" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.2172335071496314</v>
+      </c>
+      <c r="D98" s="20">
+        <v>1486519</v>
+      </c>
+      <c r="E98" s="20">
+        <v>1865881.4132321663</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K98" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L98" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M98" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -143,6 +143,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入本金</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -883,7 +887,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1168,6 +1172,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1184,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1461,6 +1468,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1504,7 +1514,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1789,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,7 +1811,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2082,6 +2095,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2125,7 +2141,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2410,6 +2426,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2438,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2703,6 +2722,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2725,11 +2747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462529280"/>
-        <c:axId val="462531200"/>
+        <c:axId val="507053568"/>
+        <c:axId val="507055488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462529280"/>
+        <c:axId val="507053568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,14 +2794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462531200"/>
+        <c:crossAx val="507055488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462531200"/>
+        <c:axId val="507055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2828,7 +2850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462529280"/>
+        <c:crossAx val="507053568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3042,7 +3064,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3327,6 +3349,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +3361,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3620,6 +3645,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3663,7 +3691,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3948,6 +3976,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,7 +3988,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4242,6 +4273,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1946.612235753578</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,7 +4318,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4569,6 +4603,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,7 +4615,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4863,6 +4900,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>864.63615759381264</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4884,11 +4924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514580480"/>
-        <c:axId val="514583552"/>
+        <c:axId val="508838656"/>
+        <c:axId val="508840576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514580480"/>
+        <c:axId val="508838656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,14 +4971,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514583552"/>
+        <c:crossAx val="508840576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514583552"/>
+        <c:axId val="508840576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514580480"/>
+        <c:crossAx val="508838656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5201,7 +5241,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5486,6 +5526,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,7 +5538,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5779,6 +5822,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5822,7 +5868,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6107,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6116,7 +6165,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6400,6 +6449,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6443,7 +6495,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6728,6 +6780,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6737,7 +6792,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7021,6 +7076,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7043,11 +7101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532036608"/>
-        <c:axId val="532358272"/>
+        <c:axId val="651633408"/>
+        <c:axId val="651635712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532036608"/>
+        <c:axId val="651633408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7090,14 +7148,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532358272"/>
+        <c:crossAx val="651635712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532358272"/>
+        <c:axId val="651635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7146,7 +7204,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532036608"/>
+        <c:crossAx val="651633408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7360,7 +7418,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7645,6 +7703,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7654,7 +7715,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7938,6 +7999,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -7981,7 +8045,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8266,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8275,7 +8342,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8559,6 +8626,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8602,7 +8672,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8887,6 +8957,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8896,7 +8969,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9180,6 +9253,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9202,11 +9278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="646018560"/>
-        <c:axId val="646020096"/>
+        <c:axId val="708390912"/>
+        <c:axId val="708392448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="646018560"/>
+        <c:axId val="708390912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9249,14 +9325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646020096"/>
+        <c:crossAx val="708392448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="646020096"/>
+        <c:axId val="708392448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9305,7 +9381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646018560"/>
+        <c:crossAx val="708390912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9519,7 +9595,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9804,6 +9880,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9813,7 +9892,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10097,6 +10176,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10140,7 +10222,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10425,6 +10507,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10434,7 +10519,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10718,6 +10803,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -10761,7 +10849,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11046,6 +11134,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11055,7 +11146,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11339,6 +11430,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11361,11 +11455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="646394240"/>
-        <c:axId val="646396160"/>
+        <c:axId val="762092544"/>
+        <c:axId val="762131968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="646394240"/>
+        <c:axId val="762092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11408,14 +11502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646396160"/>
+        <c:crossAx val="762131968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="646396160"/>
+        <c:axId val="762131968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11464,7 +11558,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646394240"/>
+        <c:crossAx val="762092544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11678,7 +11772,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11963,6 +12057,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11972,7 +12069,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12256,6 +12353,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12299,7 +12399,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12584,6 +12684,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12593,7 +12696,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12878,6 +12981,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>425.96884845680034</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12920,7 +13026,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13205,6 +13311,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13214,7 +13323,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13499,6 +13608,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197.14005525251261</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13520,11 +13632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="646919680"/>
-        <c:axId val="646921216"/>
+        <c:axId val="762586624"/>
+        <c:axId val="762641024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="646919680"/>
+        <c:axId val="762586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13567,14 +13679,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646921216"/>
+        <c:crossAx val="762641024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="646921216"/>
+        <c:axId val="762641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13623,7 +13735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646919680"/>
+        <c:crossAx val="762586624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13837,7 +13949,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14122,6 +14234,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14131,7 +14246,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14415,6 +14530,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14458,7 +14576,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14743,6 +14861,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14752,7 +14873,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15036,6 +15157,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15079,7 +15203,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15364,6 +15488,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15373,7 +15500,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15657,6 +15784,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15679,11 +15809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="648368896"/>
-        <c:axId val="648371200"/>
+        <c:axId val="763901056"/>
+        <c:axId val="763929728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="648368896"/>
+        <c:axId val="763901056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15726,14 +15856,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648371200"/>
+        <c:crossAx val="763929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="648371200"/>
+        <c:axId val="763929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15782,7 +15912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648368896"/>
+        <c:crossAx val="763901056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15996,7 +16126,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16281,6 +16411,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16290,7 +16423,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16574,6 +16707,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16617,7 +16753,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16902,6 +17038,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16911,7 +17050,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17195,6 +17334,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17238,7 +17380,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17523,6 +17665,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17532,7 +17677,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17816,6 +17961,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -17838,11 +17986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438164096"/>
-        <c:axId val="458301824"/>
+        <c:axId val="502748672"/>
+        <c:axId val="502750208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="438164096"/>
+        <c:axId val="502748672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17885,14 +18033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458301824"/>
+        <c:crossAx val="502750208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458301824"/>
+        <c:axId val="502750208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17941,7 +18089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438164096"/>
+        <c:crossAx val="502748672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18663,7 +18811,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22793,6 +22941,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J99" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22808,8 +22991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH98"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22851,7 +23036,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -22884,16 +23069,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -22923,7 +23108,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-6.0794195958263657</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -22985,7 +23170,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -28085,6 +28270,53 @@
       </c>
       <c r="O98" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-142.71282433416297</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-93.58218135431872</v>
+      </c>
+      <c r="F99" s="22">
+        <v>-6.0794195958263657</v>
+      </c>
+      <c r="G99" s="22">
+        <v>-9.2711147386905495</v>
+      </c>
+      <c r="H99" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J99" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1947.4830787709716</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28105,7 +28337,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28180,19 +28412,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28288,7 +28520,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -33626,6 +33858,56 @@
         <v>89.200517357554929</v>
       </c>
       <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I99" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J99" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K99" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33647,7 +33929,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33694,7 +33976,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33703,10 +33985,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -33823,7 +34105,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -38359,6 +38641,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M98" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K99" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L99" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M99" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -38380,7 +38703,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38422,7 +38745,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -38535,7 +38858,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>14</v>
@@ -42507,6 +42830,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K98" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I99" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J99" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K99" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -42525,8 +42883,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH98"/>
+  <sheetPr codeName="Sheet6">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42568,7 +42928,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -42601,16 +42961,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -42640,7 +43000,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-26.204400155704775</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -42702,7 +43062,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -47802,6 +48162,53 @@
       </c>
       <c r="O98" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="21">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>-43.304063657305932</v>
+      </c>
+      <c r="E99" s="22">
+        <v>-28.396107760211081</v>
+      </c>
+      <c r="F99" s="22">
+        <v>-26.204400155704775</v>
+      </c>
+      <c r="G99" s="22">
+        <v>-39.961709612688196</v>
+      </c>
+      <c r="H99" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I99" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J99" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K99" s="21">
+        <v>465.72015397433211</v>
+      </c>
+      <c r="L99" s="26">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="M99" s="27">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N99" s="27">
+        <v>65.484872343961669</v>
+      </c>
+      <c r="O99" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -47822,7 +48229,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -47864,7 +48271,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -47897,19 +48304,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -47999,13 +48406,13 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -53342,6 +53749,56 @@
         <v>89.200517357554929</v>
       </c>
       <c r="P98" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I99" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J99" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K99" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L99" s="26">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="M99" s="27">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="N99" s="27">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="O99" s="27">
+        <v>78.53642932368183</v>
+      </c>
+      <c r="P99" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -53363,7 +53820,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53410,7 +53867,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -53419,10 +53876,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53539,7 +53996,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -58075,6 +58532,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M98" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75">
+      <c r="A99" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.2215649915353923</v>
+      </c>
+      <c r="D99" s="20">
+        <v>1048890</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1854302.9814498641</v>
+      </c>
+      <c r="F99" s="21">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K99" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L99" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M99" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -182,14 +178,6 @@
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -887,7 +875,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1175,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,7 +1175,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1471,6 +1462,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1514,7 +1508,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1802,6 +1796,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,7 +1808,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2098,6 +2095,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2141,7 +2141,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2429,6 +2429,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,7 +2441,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2725,6 +2728,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2747,11 +2753,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507053568"/>
-        <c:axId val="507055488"/>
+        <c:axId val="472370560"/>
+        <c:axId val="472405504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507053568"/>
+        <c:axId val="472370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,14 +2800,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507055488"/>
+        <c:crossAx val="472405504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507055488"/>
+        <c:axId val="472405504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2856,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507053568"/>
+        <c:crossAx val="472370560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3064,7 +3070,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3352,6 +3358,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,7 +3370,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3648,6 +3657,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3691,7 +3703,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3979,6 +3991,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,7 +4003,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4275,6 +4290,9 @@
                   <c:v>1946.612235753578</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4318,7 +4336,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4606,6 +4624,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,7 +4636,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4902,6 +4923,9 @@
                   <c:v>864.63615759381264</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -4924,11 +4948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508838656"/>
-        <c:axId val="508840576"/>
+        <c:axId val="545795072"/>
+        <c:axId val="546743808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508838656"/>
+        <c:axId val="545795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4971,14 +4995,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508840576"/>
+        <c:crossAx val="546743808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508840576"/>
+        <c:axId val="546743808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,7 +5051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508838656"/>
+        <c:crossAx val="545795072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5241,7 +5265,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5529,6 +5553,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,7 +5565,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5825,6 +5852,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5868,7 +5898,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6156,6 +6186,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,7 +6198,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6452,6 +6485,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6495,7 +6531,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6783,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6792,7 +6831,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7079,6 +7118,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7101,11 +7143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="651633408"/>
-        <c:axId val="651635712"/>
+        <c:axId val="546971008"/>
+        <c:axId val="546989568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="651633408"/>
+        <c:axId val="546971008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7148,14 +7190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651635712"/>
+        <c:crossAx val="546989568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="651635712"/>
+        <c:axId val="546989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7204,7 +7246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651633408"/>
+        <c:crossAx val="546971008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7418,7 +7460,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7706,6 +7748,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,7 +7760,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8002,6 +8047,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8045,7 +8093,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8333,6 +8381,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,7 +8393,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8629,6 +8680,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8672,7 +8726,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8960,6 +9014,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8969,7 +9026,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9256,6 +9313,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9278,11 +9338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708390912"/>
-        <c:axId val="708392448"/>
+        <c:axId val="547774848"/>
+        <c:axId val="547776768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708390912"/>
+        <c:axId val="547774848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,14 +9385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708392448"/>
+        <c:crossAx val="547776768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708392448"/>
+        <c:axId val="547776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9381,7 +9441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708390912"/>
+        <c:crossAx val="547774848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9595,7 +9655,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9883,6 +9943,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,7 +9955,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10179,6 +10242,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10222,7 +10288,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10510,6 +10576,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10519,7 +10588,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10806,6 +10875,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -10849,7 +10921,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11137,6 +11209,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11146,7 +11221,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11433,6 +11508,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11455,11 +11533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="762092544"/>
-        <c:axId val="762131968"/>
+        <c:axId val="548269056"/>
+        <c:axId val="548340480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="762092544"/>
+        <c:axId val="548269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11502,14 +11580,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762131968"/>
+        <c:crossAx val="548340480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="762131968"/>
+        <c:axId val="548340480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11558,7 +11636,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762092544"/>
+        <c:crossAx val="548269056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11772,7 +11850,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12060,6 +12138,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12069,7 +12150,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12356,6 +12437,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12399,7 +12483,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12687,6 +12771,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12696,7 +12783,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12983,6 +13070,9 @@
                   <c:v>425.96884845680034</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13026,7 +13116,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13314,6 +13404,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13323,7 +13416,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13610,6 +13703,9 @@
                   <c:v>197.14005525251261</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -13632,11 +13728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="762586624"/>
-        <c:axId val="762641024"/>
+        <c:axId val="550263040"/>
+        <c:axId val="550883328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="762586624"/>
+        <c:axId val="550263040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13679,14 +13775,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762641024"/>
+        <c:crossAx val="550883328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="762641024"/>
+        <c:axId val="550883328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13735,7 +13831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762586624"/>
+        <c:crossAx val="550263040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13949,7 +14045,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14237,6 +14333,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14246,7 +14345,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14533,6 +14632,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14576,7 +14678,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14864,6 +14966,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14873,7 +14978,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15160,6 +15265,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15203,7 +15311,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15491,6 +15599,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15500,7 +15611,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15787,6 +15898,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15809,11 +15923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="763901056"/>
-        <c:axId val="763929728"/>
+        <c:axId val="448065536"/>
+        <c:axId val="448067072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="763901056"/>
+        <c:axId val="448065536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15856,14 +15970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763929728"/>
+        <c:crossAx val="448067072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="763929728"/>
+        <c:axId val="448067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15912,7 +16026,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763901056"/>
+        <c:crossAx val="448065536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16126,7 +16240,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16414,6 +16528,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16423,7 +16540,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16710,6 +16827,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16753,7 +16873,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17041,6 +17161,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17050,7 +17173,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17337,6 +17460,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17380,7 +17506,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17668,6 +17794,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17677,7 +17806,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17964,6 +18093,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -17986,11 +18118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502748672"/>
-        <c:axId val="502750208"/>
+        <c:axId val="454767744"/>
+        <c:axId val="454769280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502748672"/>
+        <c:axId val="454767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18033,14 +18165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502750208"/>
+        <c:crossAx val="454769280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502750208"/>
+        <c:axId val="454769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18089,7 +18221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502748672"/>
+        <c:crossAx val="454767744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18811,7 +18943,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22976,6 +23108,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J100" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -22994,7 +23161,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23036,7 +23203,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23069,16 +23236,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23108,7 +23275,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -23170,7 +23337,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -28283,16 +28450,16 @@
         <v>1.2215649915353923</v>
       </c>
       <c r="D99" s="21">
-        <v>-142.71282433416297</v>
+        <v>-133.44170959547242</v>
       </c>
       <c r="E99" s="22">
-        <v>-93.58218135431872</v>
+        <v>-87.502761758492355</v>
       </c>
       <c r="F99" s="22">
-        <v>-6.0794195958263657</v>
+        <v>0</v>
       </c>
       <c r="G99" s="22">
-        <v>-9.2711147386905495</v>
+        <v>0</v>
       </c>
       <c r="H99" s="22">
         <v>1081.9760781597654</v>
@@ -28304,7 +28471,7 @@
         <v>856.23588587251561</v>
       </c>
       <c r="K99" s="21">
-        <v>1947.4830787709716</v>
+        <v>1938.211964032281</v>
       </c>
       <c r="L99" s="26">
         <v>5.5134662811407859E-2</v>
@@ -28317,6 +28484,53 @@
       </c>
       <c r="O99" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J100" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -28337,7 +28551,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28412,19 +28626,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28520,7 +28734,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -33908,6 +34122,56 @@
         <v>78.53642932368183</v>
       </c>
       <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I100" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J100" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -33929,7 +34193,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33976,7 +34240,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -33985,10 +34249,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34105,7 +34369,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -38682,6 +38946,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M99" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K100" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L100" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M100" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -38703,7 +39008,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -38745,7 +39050,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -38858,7 +39163,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>14</v>
@@ -42865,6 +43170,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K99" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I100" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J100" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K100" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -42886,7 +43226,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -42961,16 +43301,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -43000,7 +43340,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-26.204400155704775</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -43062,7 +43402,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -48175,16 +48515,16 @@
         <v>1.2215649915353923</v>
       </c>
       <c r="D99" s="21">
-        <v>-43.304063657305932</v>
+        <v>-3.3423540446177373</v>
       </c>
       <c r="E99" s="22">
-        <v>-28.396107760211081</v>
+        <v>-2.1917076045063073</v>
       </c>
       <c r="F99" s="22">
-        <v>-26.204400155704775</v>
+        <v>0</v>
       </c>
       <c r="G99" s="22">
-        <v>-39.961709612688196</v>
+        <v>0</v>
       </c>
       <c r="H99" s="22">
         <v>228.82879320428773</v>
@@ -48196,7 +48536,7 @@
         <v>196.92965115735618</v>
       </c>
       <c r="K99" s="21">
-        <v>465.72015397433211</v>
+        <v>425.75844436164391</v>
       </c>
       <c r="L99" s="26">
         <v>5.5134662811407859E-2</v>
@@ -48209,6 +48549,53 @@
       </c>
       <c r="O99" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="21">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I100" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J100" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K100" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L100" s="26">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="M100" s="27">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N100" s="27">
+        <v>56.960535185349521</v>
+      </c>
+      <c r="O100" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -48229,7 +48616,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48304,19 +48691,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48406,13 +48793,13 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -53799,6 +54186,56 @@
         <v>78.53642932368183</v>
       </c>
       <c r="P99" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I100" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J100" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K100" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L100" s="26">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="M100" s="27">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="N100" s="27">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="O100" s="27">
+        <v>66.332860439304199</v>
+      </c>
+      <c r="P100" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -53820,7 +54257,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53867,7 +54304,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -53876,10 +54313,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -53996,7 +54433,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>14</v>
@@ -58573,6 +59010,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M99" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75">
+      <c r="A100" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.2237863723037186</v>
+      </c>
+      <c r="D100" s="20">
+        <v>739608</v>
+      </c>
+      <c r="E100" s="20">
+        <v>1841298.9452924884</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
+      </c>
+      <c r="J100" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K100" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L100" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M100" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -143,10 +143,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SMA之MAX</t>
@@ -875,7 +871,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1166,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1174,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1465,6 +1464,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1508,7 +1510,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1799,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,7 +1813,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2098,6 +2103,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2141,7 +2149,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2432,6 +2440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,7 +2452,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2731,6 +2742,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2753,11 +2767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472370560"/>
-        <c:axId val="472405504"/>
+        <c:axId val="673444992"/>
+        <c:axId val="673446528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472370560"/>
+        <c:axId val="673444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,14 +2814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472405504"/>
+        <c:crossAx val="673446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472405504"/>
+        <c:axId val="673446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472370560"/>
+        <c:crossAx val="673444992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,7 +3084,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3361,6 +3375,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,7 +3387,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3660,6 +3677,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3703,7 +3723,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3994,6 +4014,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,7 +4026,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4293,6 +4316,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4336,7 +4362,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4627,6 +4653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4636,7 +4665,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4926,6 +4955,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -4948,11 +4980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545795072"/>
-        <c:axId val="546743808"/>
+        <c:axId val="676356096"/>
+        <c:axId val="676358016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545795072"/>
+        <c:axId val="676356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,14 +5027,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546743808"/>
+        <c:crossAx val="676358016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546743808"/>
+        <c:axId val="676358016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545795072"/>
+        <c:crossAx val="676356096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5265,7 +5297,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5556,6 +5588,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5565,7 +5600,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5855,6 +5890,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5898,7 +5936,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6189,6 +6227,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6198,7 +6239,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6488,6 +6529,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6531,7 +6575,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6822,6 +6866,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6831,7 +6878,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7121,6 +7168,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7143,11 +7193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546971008"/>
-        <c:axId val="546989568"/>
+        <c:axId val="680718336"/>
+        <c:axId val="680721024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546971008"/>
+        <c:axId val="680718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7190,14 +7240,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546989568"/>
+        <c:crossAx val="680721024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546989568"/>
+        <c:axId val="680721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7246,7 +7296,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546971008"/>
+        <c:crossAx val="680718336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7460,7 +7510,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7751,6 +7801,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7760,7 +7813,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8050,6 +8103,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8093,7 +8149,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8384,6 +8440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8393,7 +8452,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8683,6 +8742,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8726,7 +8788,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9017,6 +9079,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9026,7 +9091,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9316,6 +9381,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9338,11 +9406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547774848"/>
-        <c:axId val="547776768"/>
+        <c:axId val="681197952"/>
+        <c:axId val="681199488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547774848"/>
+        <c:axId val="681197952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9385,14 +9453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547776768"/>
+        <c:crossAx val="681199488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547776768"/>
+        <c:axId val="681199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9441,7 +9509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547774848"/>
+        <c:crossAx val="681197952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9655,7 +9723,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9946,6 +10014,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9955,7 +10026,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10245,6 +10316,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10288,7 +10362,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10579,6 +10653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10588,7 +10665,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10878,6 +10955,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -10921,7 +11001,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11212,6 +11292,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11221,7 +11304,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11511,6 +11594,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11533,11 +11619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548269056"/>
-        <c:axId val="548340480"/>
+        <c:axId val="681735680"/>
+        <c:axId val="681737600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548269056"/>
+        <c:axId val="681735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11580,14 +11666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548340480"/>
+        <c:crossAx val="681737600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548340480"/>
+        <c:axId val="681737600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11636,7 +11722,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548269056"/>
+        <c:crossAx val="681735680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11850,7 +11936,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12141,6 +12227,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12150,7 +12239,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12440,6 +12529,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12483,7 +12575,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12774,6 +12866,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12783,7 +12878,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13073,6 +13168,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13116,7 +13214,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13407,6 +13505,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13416,7 +13517,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13706,6 +13807,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -13728,11 +13832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550263040"/>
-        <c:axId val="550883328"/>
+        <c:axId val="683284352"/>
+        <c:axId val="683302912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550263040"/>
+        <c:axId val="683284352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13775,14 +13879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550883328"/>
+        <c:crossAx val="683302912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550883328"/>
+        <c:axId val="683302912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13831,7 +13935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550263040"/>
+        <c:crossAx val="683284352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14045,7 +14149,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14336,6 +14440,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14345,7 +14452,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14635,6 +14742,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14678,7 +14788,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14969,6 +15079,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14978,7 +15091,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15268,6 +15381,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15311,7 +15427,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15602,6 +15718,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15611,7 +15730,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15901,6 +16020,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -15923,11 +16045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448065536"/>
-        <c:axId val="448067072"/>
+        <c:axId val="684046592"/>
+        <c:axId val="684049920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448065536"/>
+        <c:axId val="684046592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15970,14 +16092,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448067072"/>
+        <c:crossAx val="684049920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448067072"/>
+        <c:axId val="684049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16026,7 +16148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448065536"/>
+        <c:crossAx val="684046592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16240,7 +16362,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16531,6 +16653,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16540,7 +16665,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16830,6 +16955,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -16873,7 +17001,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17164,6 +17292,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17173,7 +17304,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17463,6 +17594,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17506,7 +17640,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17797,6 +17931,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17806,7 +17943,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18096,6 +18233,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18118,11 +18258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454767744"/>
-        <c:axId val="454769280"/>
+        <c:axId val="601966080"/>
+        <c:axId val="601967616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454767744"/>
+        <c:axId val="601966080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18165,14 +18305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454769280"/>
+        <c:crossAx val="601967616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454769280"/>
+        <c:axId val="601967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18221,7 +18361,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454767744"/>
+        <c:crossAx val="601966080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18943,7 +19083,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23143,6 +23283,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J101" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23161,7 +23336,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23203,7 +23378,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -23236,16 +23411,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28530,6 +28705,53 @@
         <v>56.960535185349521</v>
       </c>
       <c r="O100" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J101" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -28551,7 +28773,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28626,19 +28848,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -34172,6 +34394,56 @@
         <v>66.332860439304199</v>
       </c>
       <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I101" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J101" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -34193,7 +34465,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34249,10 +34521,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -38987,6 +39259,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M100" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K101" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L101" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M101" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -39008,7 +39321,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39050,7 +39363,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -43205,6 +43518,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K100" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I101" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J101" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K101" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -43226,7 +43574,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43301,16 +43649,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48595,6 +48943,53 @@
         <v>56.960535185349521</v>
       </c>
       <c r="O100" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="21">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I101" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J101" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K101" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L101" s="26">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="M101" s="27">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N101" s="27">
+        <v>53.51087465273141</v>
+      </c>
+      <c r="O101" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -48616,7 +49011,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48691,19 +49086,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -54236,6 +54631,56 @@
         <v>66.332860439304199</v>
       </c>
       <c r="P100" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I101" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J101" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K101" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L101" s="26">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="M101" s="27">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="N101" s="27">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="O101" s="27">
+        <v>57.67787758968268</v>
+      </c>
+      <c r="P101" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -54257,7 +54702,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54313,10 +54758,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -59054,6 +59499,47 @@
         <v>125.02031660046136</v>
       </c>
     </row>
+    <row r="101" spans="1:13" ht="12.75">
+      <c r="A101" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.2261902580553963</v>
+      </c>
+      <c r="D101" s="20">
+        <v>179000</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1827974.5769715563</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
+      </c>
+      <c r="J101" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K101" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L101" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M101" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3">

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="4335" yWindow="420" windowWidth="15600" windowHeight="8880" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -158,6 +166,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -177,12 +189,24 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,7 +895,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1165,6 +1189,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1201,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1467,6 +1494,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1510,7 +1540,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1804,6 +1834,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1846,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2106,6 +2139,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2149,7 +2185,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2443,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2452,7 +2491,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2745,6 +2784,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2767,11 +2809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673444992"/>
-        <c:axId val="673446528"/>
+        <c:axId val="464642816"/>
+        <c:axId val="464644352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="673444992"/>
+        <c:axId val="464642816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,14 +2856,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673446528"/>
+        <c:crossAx val="464644352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673446528"/>
+        <c:axId val="464644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673444992"/>
+        <c:crossAx val="464642816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3084,7 +3126,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3378,6 +3420,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,7 +3432,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3680,6 +3725,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3723,7 +3771,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4017,6 +4065,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,7 +4077,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4319,6 +4370,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4362,7 +4416,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4656,6 +4710,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,7 +4722,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4958,6 +5015,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -4980,11 +5040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="676356096"/>
-        <c:axId val="676358016"/>
+        <c:axId val="507541760"/>
+        <c:axId val="507556224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="676356096"/>
+        <c:axId val="507541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,14 +5087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676358016"/>
+        <c:crossAx val="507556224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="676358016"/>
+        <c:axId val="507556224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676356096"/>
+        <c:crossAx val="507541760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5297,7 +5357,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5591,6 +5651,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5600,7 +5663,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,6 +5956,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -5936,7 +6002,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6230,6 +6296,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,7 +6308,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6532,6 +6601,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6575,7 +6647,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6869,6 +6941,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,7 +6953,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7171,6 +7246,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7193,11 +7271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680718336"/>
-        <c:axId val="680721024"/>
+        <c:axId val="511654144"/>
+        <c:axId val="511750144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="680718336"/>
+        <c:axId val="511654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,14 +7318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680721024"/>
+        <c:crossAx val="511750144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="680721024"/>
+        <c:axId val="511750144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,7 +7374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680718336"/>
+        <c:crossAx val="511654144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7510,7 +7588,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7804,6 +7882,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7813,7 +7894,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8106,6 +8187,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8149,7 +8233,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8443,6 +8527,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8452,7 +8539,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8745,6 +8832,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8788,7 +8878,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9082,6 +9172,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9091,7 +9184,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9384,6 +9477,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9406,11 +9502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681197952"/>
-        <c:axId val="681199488"/>
+        <c:axId val="520743936"/>
+        <c:axId val="522179328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="681197952"/>
+        <c:axId val="520743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9453,14 +9549,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681199488"/>
+        <c:crossAx val="522179328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="681199488"/>
+        <c:axId val="522179328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9509,7 +9605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681197952"/>
+        <c:crossAx val="520743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9723,7 +9819,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10017,6 +10113,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10026,7 +10125,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10319,6 +10418,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10362,7 +10464,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10656,6 +10758,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10665,7 +10770,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10958,6 +11063,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11001,7 +11109,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11295,6 +11403,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,7 +11415,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11597,6 +11708,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11619,11 +11733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681735680"/>
-        <c:axId val="681737600"/>
+        <c:axId val="553431424"/>
+        <c:axId val="553432960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="681735680"/>
+        <c:axId val="553431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11666,14 +11780,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681737600"/>
+        <c:crossAx val="553432960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="681737600"/>
+        <c:axId val="553432960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11722,7 +11836,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681735680"/>
+        <c:crossAx val="553431424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11936,7 +12050,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12230,6 +12344,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12239,7 +12356,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12532,6 +12649,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12575,7 +12695,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12869,6 +12989,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12878,7 +13001,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13171,6 +13294,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13214,7 +13340,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13508,6 +13634,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13517,7 +13646,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13810,6 +13939,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -13832,11 +13964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683284352"/>
-        <c:axId val="683302912"/>
+        <c:axId val="591053184"/>
+        <c:axId val="591055104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683284352"/>
+        <c:axId val="591053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13879,14 +14011,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683302912"/>
+        <c:crossAx val="591055104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683302912"/>
+        <c:axId val="591055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13935,7 +14067,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683284352"/>
+        <c:crossAx val="591053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14149,7 +14281,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14443,6 +14575,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14452,7 +14587,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14745,6 +14880,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14788,7 +14926,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15082,6 +15220,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15091,7 +15232,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15384,6 +15525,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15427,7 +15571,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15721,6 +15865,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15730,7 +15877,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16023,6 +16170,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16045,11 +16195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684046592"/>
-        <c:axId val="684049920"/>
+        <c:axId val="510413056"/>
+        <c:axId val="510414848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="684046592"/>
+        <c:axId val="510413056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16092,14 +16242,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684049920"/>
+        <c:crossAx val="510414848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="684049920"/>
+        <c:axId val="510414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16148,7 +16298,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684046592"/>
+        <c:crossAx val="510413056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16362,7 +16512,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16656,6 +16806,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16665,7 +16818,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16958,6 +17111,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17001,7 +17157,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17295,6 +17451,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17304,7 +17463,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17597,6 +17756,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17640,7 +17802,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17934,6 +18096,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17943,7 +18108,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18236,6 +18401,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18258,11 +18426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601966080"/>
-        <c:axId val="601967616"/>
+        <c:axId val="510434688"/>
+        <c:axId val="510436480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601966080"/>
+        <c:axId val="510434688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18305,14 +18473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601967616"/>
+        <c:crossAx val="510436480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601967616"/>
+        <c:axId val="510436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18361,7 +18529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601966080"/>
+        <c:crossAx val="510434688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18469,7 +18637,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18512,7 +18680,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18555,7 +18723,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18598,7 +18766,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18641,7 +18809,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18684,7 +18852,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18727,7 +18895,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18770,7 +18938,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19083,7 +19251,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23318,6 +23486,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J102" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23336,7 +23539,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23381,10 +23584,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -23411,16 +23614,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -28752,6 +28955,53 @@
         <v>53.51087465273141</v>
       </c>
       <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J102" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -28773,7 +29023,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28821,7 +29071,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -28848,19 +29098,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -34445,6 +34695,56 @@
       </c>
       <c r="P101" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J102" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -34465,7 +34765,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34512,19 +34812,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34578,7 +34878,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -39300,6 +39600,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M101" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K102" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L102" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M102" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -39321,7 +39662,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43556,6 +43897,41 @@
         <v>260.7091440429981</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I102" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J102" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K102" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -43574,7 +43950,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43622,7 +43998,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -43649,16 +44025,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -48990,6 +49366,53 @@
         <v>53.51087465273141</v>
       </c>
       <c r="O101" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="21">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I102" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J102" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K102" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L102" s="26">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="M102" s="27">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N102" s="27">
+        <v>64.519300193420989</v>
+      </c>
+      <c r="O102" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49011,7 +49434,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49053,13 +49476,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -49086,19 +49509,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49123,7 +49546,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -54682,6 +55105,56 @@
       </c>
       <c r="P101" s="27">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I102" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J102" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K102" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L102" s="26">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="M102" s="27">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="N102" s="27">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="O102" s="27">
+        <v>53.201875125729686</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -54702,7 +55175,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -54752,16 +55225,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -54785,7 +55258,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -54815,7 +55288,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -59537,6 +60010,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M101" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="12.75">
+      <c r="A102" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.2287860364336756</v>
+      </c>
+      <c r="D102" s="20">
+        <v>745111</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1814779.0382777185</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K102" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L102" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M102" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -169,6 +177,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -189,24 +205,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -895,7 +899,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1192,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,7 +1208,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1497,6 +1504,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1540,7 +1550,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1837,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1859,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2142,6 +2155,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2185,7 +2201,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2482,6 +2498,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,7 +2510,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2787,6 +2806,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2809,11 +2831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464642816"/>
-        <c:axId val="464644352"/>
+        <c:axId val="509650048"/>
+        <c:axId val="509776256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464642816"/>
+        <c:axId val="509650048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,14 +2878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464644352"/>
+        <c:crossAx val="509776256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464644352"/>
+        <c:axId val="509776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464642816"/>
+        <c:crossAx val="509650048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3148,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3423,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3457,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3728,6 +3753,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3771,7 +3799,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4068,6 +4096,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,7 +4108,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4373,6 +4404,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4416,7 +4450,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4713,6 +4747,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,7 +4759,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5018,6 +5055,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -5040,11 +5080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507541760"/>
-        <c:axId val="507556224"/>
+        <c:axId val="578881024"/>
+        <c:axId val="578928640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507541760"/>
+        <c:axId val="578881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,14 +5127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507556224"/>
+        <c:crossAx val="578928640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507556224"/>
+        <c:axId val="578928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5143,7 +5183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507541760"/>
+        <c:crossAx val="578881024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5357,7 +5397,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5654,6 +5694,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,7 +5706,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5959,6 +6002,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -6002,7 +6048,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6299,6 +6345,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6308,7 +6357,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6604,6 +6653,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6647,7 +6699,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6944,6 +6996,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6953,7 +7008,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7249,6 +7304,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7271,11 +7329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511654144"/>
-        <c:axId val="511750144"/>
+        <c:axId val="583971968"/>
+        <c:axId val="583973888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511654144"/>
+        <c:axId val="583971968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7318,14 +7376,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511750144"/>
+        <c:crossAx val="583973888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511750144"/>
+        <c:axId val="583973888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511654144"/>
+        <c:crossAx val="583971968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7588,7 +7646,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7885,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7894,7 +7955,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8190,6 +8251,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8233,7 +8297,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8530,6 +8594,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8539,7 +8606,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8835,6 +8902,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8878,7 +8948,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9175,6 +9245,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9184,7 +9257,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9480,6 +9553,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9502,11 +9578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520743936"/>
-        <c:axId val="522179328"/>
+        <c:axId val="584020352"/>
+        <c:axId val="584021888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520743936"/>
+        <c:axId val="584020352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,14 +9625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522179328"/>
+        <c:crossAx val="584021888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522179328"/>
+        <c:axId val="584021888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9605,7 +9681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520743936"/>
+        <c:crossAx val="584020352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9819,7 +9895,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10116,6 +10192,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10125,7 +10204,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10421,6 +10500,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10464,7 +10546,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10761,6 +10843,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10770,7 +10855,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11066,6 +11151,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11109,7 +11197,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11406,6 +11494,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11415,7 +11506,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11711,6 +11802,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11733,11 +11827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553431424"/>
-        <c:axId val="553432960"/>
+        <c:axId val="584060288"/>
+        <c:axId val="584483968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553431424"/>
+        <c:axId val="584060288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11780,14 +11874,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553432960"/>
+        <c:crossAx val="584483968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553432960"/>
+        <c:axId val="584483968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11836,7 +11930,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553431424"/>
+        <c:crossAx val="584060288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12050,7 +12144,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12347,6 +12441,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12356,7 +12453,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12652,6 +12749,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12695,7 +12795,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12992,6 +13092,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13001,7 +13104,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13297,6 +13400,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13340,7 +13446,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13637,6 +13743,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13646,7 +13755,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13942,6 +14051,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -13964,11 +14076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591053184"/>
-        <c:axId val="591055104"/>
+        <c:axId val="585269248"/>
+        <c:axId val="585271168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591053184"/>
+        <c:axId val="585269248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14011,14 +14123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591055104"/>
+        <c:crossAx val="585271168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591055104"/>
+        <c:axId val="585271168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14067,7 +14179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591053184"/>
+        <c:crossAx val="585269248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14281,7 +14393,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14578,6 +14690,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14587,7 +14702,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14883,6 +14998,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -14926,7 +15044,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15223,6 +15341,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15232,7 +15353,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15528,6 +15649,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15571,7 +15695,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15868,6 +15992,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15877,7 +16004,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16173,6 +16300,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16195,11 +16325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510413056"/>
-        <c:axId val="510414848"/>
+        <c:axId val="508876672"/>
+        <c:axId val="508878208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510413056"/>
+        <c:axId val="508876672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16242,14 +16372,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510414848"/>
+        <c:crossAx val="508878208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510414848"/>
+        <c:axId val="508878208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16298,7 +16428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510413056"/>
+        <c:crossAx val="508876672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16512,7 +16642,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16809,6 +16939,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16818,7 +16951,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17114,6 +17247,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17157,7 +17293,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17454,6 +17590,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17463,7 +17602,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17759,6 +17898,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17802,7 +17944,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18099,6 +18241,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18108,7 +18253,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18404,6 +18549,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18426,11 +18574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510434688"/>
-        <c:axId val="510436480"/>
+        <c:axId val="508931072"/>
+        <c:axId val="509477632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510434688"/>
+        <c:axId val="508931072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18473,14 +18621,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510436480"/>
+        <c:crossAx val="509477632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510436480"/>
+        <c:axId val="509477632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18529,7 +18677,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510434688"/>
+        <c:crossAx val="508931072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18637,7 +18785,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18680,7 +18828,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18723,7 +18871,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18766,7 +18914,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18809,7 +18957,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18852,7 +19000,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18895,7 +19043,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18938,7 +19086,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19251,7 +19399,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23521,6 +23669,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J103" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23539,7 +23722,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23581,13 +23764,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -23614,16 +23797,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23709,7 +23892,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -29002,6 +29185,53 @@
         <v>64.519300193420989</v>
       </c>
       <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J103" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -29023,7 +29253,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29065,13 +29295,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29098,19 +29328,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29200,7 +29430,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -34745,6 +34975,56 @@
       </c>
       <c r="P102" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J103" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -34765,7 +35045,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34812,19 +35092,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -34878,7 +35158,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -34935,7 +35215,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -39641,6 +39921,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M102" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K103" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L103" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M103" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -39662,7 +39983,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39704,7 +40025,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -39811,7 +40132,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>12</v>
@@ -43929,6 +44250,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K102" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I103" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J103" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K103" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -43950,7 +44306,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -43992,13 +44348,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44025,16 +44381,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44120,7 +44476,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -49413,6 +49769,53 @@
         <v>64.519300193420989</v>
       </c>
       <c r="O102" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="21">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I103" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J103" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K103" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L103" s="26">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="M103" s="27">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N103" s="27">
+        <v>74.316012831920972</v>
+      </c>
+      <c r="O103" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49434,7 +49837,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49476,13 +49879,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -49509,19 +49912,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -49546,7 +49949,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -49611,7 +50014,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -55155,6 +55558,56 @@
       </c>
       <c r="P102" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I103" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J103" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K103" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L103" s="26">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="M103" s="27">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="N103" s="27">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="O103" s="27">
+        <v>74.976992648986823</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -55175,7 +55628,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55222,19 +55675,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -55258,7 +55711,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -55288,7 +55741,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -55345,7 +55798,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -60051,6 +60504,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M102" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="12.75">
+      <c r="A103" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.2329284996624146</v>
+      </c>
+      <c r="D103" s="20">
+        <v>1031255</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1805667.904803097</v>
+      </c>
+      <c r="F103" s="21">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>0</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K103" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L103" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M103" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,19 +145,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -210,6 +206,14 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +903,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1199,6 +1203,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1215,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1507,6 +1514,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1550,7 +1560,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1850,6 +1860,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,7 +1872,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2158,6 +2171,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,7 +2217,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2501,6 +2517,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,7 +2529,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2809,6 +2828,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2831,11 +2853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509650048"/>
-        <c:axId val="509776256"/>
+        <c:axId val="427817984"/>
+        <c:axId val="428679936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509650048"/>
+        <c:axId val="427817984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,14 +2900,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509776256"/>
+        <c:crossAx val="428679936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509776256"/>
+        <c:axId val="428679936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509650048"/>
+        <c:crossAx val="427817984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3148,7 +3170,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3448,6 +3470,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,7 +3482,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3756,6 +3781,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3799,7 +3827,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4099,6 +4127,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4108,7 +4139,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4407,6 +4438,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4450,7 +4484,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4750,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4796,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5058,6 +5095,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -5080,11 +5120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578881024"/>
-        <c:axId val="578928640"/>
+        <c:axId val="466194816"/>
+        <c:axId val="466196352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578881024"/>
+        <c:axId val="466194816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5127,14 +5167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578928640"/>
+        <c:crossAx val="466196352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578928640"/>
+        <c:axId val="466196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578881024"/>
+        <c:crossAx val="466194816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5397,7 +5437,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5697,6 +5737,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5706,7 +5749,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6005,6 +6048,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -6048,7 +6094,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6348,6 +6394,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,7 +6406,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6656,6 +6705,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6699,7 +6751,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6999,6 +7051,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7008,7 +7063,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7307,6 +7362,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7329,11 +7387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583971968"/>
-        <c:axId val="583973888"/>
+        <c:axId val="470578304"/>
+        <c:axId val="470580608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583971968"/>
+        <c:axId val="470578304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,14 +7434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583973888"/>
+        <c:crossAx val="470580608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583973888"/>
+        <c:axId val="470580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7432,7 +7490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583971968"/>
+        <c:crossAx val="470578304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7646,7 +7704,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7946,6 +8004,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8016,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8254,6 +8315,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8297,7 +8361,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8597,6 +8661,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8606,7 +8673,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8905,6 +8972,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -8948,7 +9018,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9248,6 +9318,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9257,7 +9330,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9556,6 +9629,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9578,11 +9654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584020352"/>
-        <c:axId val="584021888"/>
+        <c:axId val="472804736"/>
+        <c:axId val="473281664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584020352"/>
+        <c:axId val="472804736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9625,14 +9701,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584021888"/>
+        <c:crossAx val="473281664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584021888"/>
+        <c:axId val="473281664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9681,7 +9757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584020352"/>
+        <c:crossAx val="472804736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9895,7 +9971,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10195,6 +10271,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10204,7 +10283,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10503,6 +10582,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10546,7 +10628,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10846,6 +10928,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10855,7 +10940,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11154,6 +11239,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11197,7 +11285,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11497,6 +11585,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11506,7 +11597,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11805,6 +11896,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11827,11 +11921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584060288"/>
-        <c:axId val="584483968"/>
+        <c:axId val="547238656"/>
+        <c:axId val="547240192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584060288"/>
+        <c:axId val="547238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11874,14 +11968,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584483968"/>
+        <c:crossAx val="547240192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584483968"/>
+        <c:axId val="547240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11930,7 +12024,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584060288"/>
+        <c:crossAx val="547238656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12144,7 +12238,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12444,6 +12538,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12453,7 +12550,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12752,6 +12849,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12795,7 +12895,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13095,6 +13195,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13104,7 +13207,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13403,6 +13506,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13446,7 +13552,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13746,6 +13852,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13755,7 +13864,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14054,6 +14163,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -14076,11 +14188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585269248"/>
-        <c:axId val="585271168"/>
+        <c:axId val="547289344"/>
+        <c:axId val="547305728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585269248"/>
+        <c:axId val="547289344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14123,14 +14235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585271168"/>
+        <c:crossAx val="547305728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585271168"/>
+        <c:axId val="547305728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14179,7 +14291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585269248"/>
+        <c:crossAx val="547289344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14393,7 +14505,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14693,6 +14805,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14702,7 +14817,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15001,6 +15116,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -15044,7 +15162,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15344,6 +15462,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15353,7 +15474,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15652,6 +15773,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15695,7 +15819,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15995,6 +16119,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16004,7 +16131,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16303,6 +16430,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16325,11 +16455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508876672"/>
-        <c:axId val="508878208"/>
+        <c:axId val="547523584"/>
+        <c:axId val="547542912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508876672"/>
+        <c:axId val="547523584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16372,14 +16502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508878208"/>
+        <c:crossAx val="547542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508878208"/>
+        <c:axId val="547542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16428,7 +16558,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508876672"/>
+        <c:crossAx val="547523584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16642,7 +16772,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16942,6 +17072,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16951,7 +17084,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17250,6 +17383,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17293,7 +17429,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17593,6 +17729,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17602,7 +17741,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17901,6 +18040,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -17944,7 +18086,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18244,6 +18386,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18253,7 +18398,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18552,6 +18697,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18574,11 +18722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508931072"/>
-        <c:axId val="509477632"/>
+        <c:axId val="466966400"/>
+        <c:axId val="466967936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508931072"/>
+        <c:axId val="466966400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18621,14 +18769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509477632"/>
+        <c:crossAx val="466967936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509477632"/>
+        <c:axId val="466967936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18677,7 +18825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508931072"/>
+        <c:crossAx val="466966400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18785,7 +18933,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18828,7 +18976,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18871,7 +19019,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18914,7 +19062,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18957,7 +19105,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19000,7 +19148,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19043,7 +19191,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19086,7 +19234,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,7 +19547,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23704,6 +23852,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J104" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23722,7 +23905,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23764,13 +23947,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -23797,16 +23980,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -23892,7 +24075,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -29232,6 +29415,53 @@
         <v>74.316012831920972</v>
       </c>
       <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J104" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -29253,7 +29483,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29295,13 +29525,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29328,19 +29558,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29430,7 +29660,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -35024,6 +35254,56 @@
         <v>74.976992648986823</v>
       </c>
       <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I104" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J104" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35045,7 +35325,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35092,19 +35372,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35128,7 +35408,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35158,7 +35438,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -35215,7 +35495,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -39962,6 +40242,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M103" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K104" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L104" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M104" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -39983,7 +40304,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40025,13 +40346,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -40132,7 +40453,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>12</v>
@@ -44285,6 +44606,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K103" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I104" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J104" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K104" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -44306,7 +44662,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44348,13 +44704,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44381,16 +44737,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -44476,7 +44832,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -49816,6 +50172,53 @@
         <v>74.316012831920972</v>
       </c>
       <c r="O103" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="21">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I104" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J104" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K104" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N104" s="27">
+        <v>92.546963528779443</v>
+      </c>
+      <c r="O104" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -49837,7 +50240,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -49879,13 +50282,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -49912,19 +50315,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50014,7 +50417,7 @@
         <v>0.95</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -55607,6 +56010,56 @@
         <v>74.976992648986823</v>
       </c>
       <c r="P103" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I104" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J104" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K104" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L104" s="26">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="M104" s="27">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="N104" s="27">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="O104" s="27">
+        <v>94.401190236399628</v>
+      </c>
+      <c r="P104" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -55628,7 +56081,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55675,7 +56128,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -55684,10 +56137,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -55741,7 +56194,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -55798,7 +56251,7 @@
       </c>
       <c r="N4" s="7"/>
       <c r="Q4" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>12</v>
@@ -60545,6 +60998,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M103" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75">
+      <c r="A104" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="25">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.2402678123945101</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10846671</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1808751.2091945638</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>0</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K104" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L104" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M104" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -145,15 +145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
+    <t>人工智能产业LOF</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -170,10 +166,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -209,12 +201,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回收资金</t>
+    <t>市值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>累计投入资金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -903,7 +895,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1206,6 +1198,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,7 +1210,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1517,6 +1512,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1560,7 +1558,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1863,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1873,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2174,6 +2175,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2217,7 +2221,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2520,6 +2524,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,7 +2536,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2831,6 +2838,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2853,11 +2863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427817984"/>
-        <c:axId val="428679936"/>
+        <c:axId val="561473024"/>
+        <c:axId val="561500160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427817984"/>
+        <c:axId val="561473024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,14 +2910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428679936"/>
+        <c:crossAx val="561500160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428679936"/>
+        <c:axId val="561500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2966,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427817984"/>
+        <c:crossAx val="561473024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3170,7 +3180,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3473,6 +3483,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,7 +3495,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3784,6 +3797,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3827,7 +3843,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4130,6 +4146,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,7 +4158,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4441,6 +4460,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4484,7 +4506,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4787,6 +4809,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,7 +4821,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5098,6 +5123,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -5120,11 +5148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466194816"/>
-        <c:axId val="466196352"/>
+        <c:axId val="562182400"/>
+        <c:axId val="669196288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466194816"/>
+        <c:axId val="562182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,14 +5195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466196352"/>
+        <c:crossAx val="669196288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466196352"/>
+        <c:axId val="669196288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5223,7 +5251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466194816"/>
+        <c:crossAx val="562182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5437,7 +5465,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5740,6 +5768,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,7 +5780,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6051,6 +6082,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -6094,7 +6128,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6397,6 +6431,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6406,7 +6443,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6708,6 +6745,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6751,7 +6791,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7054,6 +7094,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7063,7 +7106,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7365,6 +7408,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7387,11 +7433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470578304"/>
-        <c:axId val="470580608"/>
+        <c:axId val="708376448"/>
+        <c:axId val="708388736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470578304"/>
+        <c:axId val="708376448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7434,14 +7480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470580608"/>
+        <c:crossAx val="708388736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470580608"/>
+        <c:axId val="708388736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7490,7 +7536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470578304"/>
+        <c:crossAx val="708376448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7704,7 +7750,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8007,6 +8053,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8016,7 +8065,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8318,6 +8367,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8361,7 +8413,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8664,6 +8716,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8673,7 +8728,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8975,6 +9030,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -9018,7 +9076,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9321,6 +9379,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9330,7 +9391,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9632,6 +9693,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9654,11 +9718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472804736"/>
-        <c:axId val="473281664"/>
+        <c:axId val="708471424"/>
+        <c:axId val="708546944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472804736"/>
+        <c:axId val="708471424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9701,14 +9765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473281664"/>
+        <c:crossAx val="708546944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473281664"/>
+        <c:axId val="708546944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9757,7 +9821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472804736"/>
+        <c:crossAx val="708471424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9971,7 +10035,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10274,6 +10338,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10283,7 +10350,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10585,6 +10652,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10628,7 +10698,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10931,6 +11001,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10940,7 +11013,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11242,6 +11315,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11285,7 +11361,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11588,6 +11664,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11597,7 +11676,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11899,6 +11978,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -11921,11 +12003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547238656"/>
-        <c:axId val="547240192"/>
+        <c:axId val="708635648"/>
+        <c:axId val="709211264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547238656"/>
+        <c:axId val="708635648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11968,14 +12050,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547240192"/>
+        <c:crossAx val="709211264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547240192"/>
+        <c:axId val="709211264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12024,7 +12106,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547238656"/>
+        <c:crossAx val="708635648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12238,7 +12320,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12541,6 +12623,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12550,7 +12635,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12852,6 +12937,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12895,7 +12983,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13198,6 +13286,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13207,7 +13298,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13509,6 +13600,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13552,7 +13646,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13855,6 +13949,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13864,7 +13961,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14166,6 +14263,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -14188,11 +14288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547289344"/>
-        <c:axId val="547305728"/>
+        <c:axId val="539996928"/>
+        <c:axId val="539998464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547289344"/>
+        <c:axId val="539996928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14235,14 +14335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547305728"/>
+        <c:crossAx val="539998464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547305728"/>
+        <c:axId val="539998464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14291,7 +14391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547289344"/>
+        <c:crossAx val="539996928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14505,7 +14605,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14808,6 +14908,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14817,7 +14920,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15119,6 +15222,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -15162,7 +15268,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15465,6 +15571,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15474,7 +15583,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15776,6 +15885,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15819,7 +15931,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16122,6 +16234,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16131,7 +16246,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16433,6 +16548,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16455,11 +16573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547523584"/>
-        <c:axId val="547542912"/>
+        <c:axId val="541308800"/>
+        <c:axId val="541310336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547523584"/>
+        <c:axId val="541308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16502,14 +16620,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547542912"/>
+        <c:crossAx val="541310336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547542912"/>
+        <c:axId val="541310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16558,7 +16676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547523584"/>
+        <c:crossAx val="541308800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16772,7 +16890,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17075,6 +17193,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17084,7 +17205,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17386,6 +17507,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17429,7 +17553,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17732,6 +17856,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17741,7 +17868,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18043,6 +18170,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -18086,7 +18216,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18389,6 +18519,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18398,7 +18531,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18700,6 +18833,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18722,11 +18858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466966400"/>
-        <c:axId val="466967936"/>
+        <c:axId val="545754112"/>
+        <c:axId val="561455872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466966400"/>
+        <c:axId val="545754112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18769,14 +18905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466967936"/>
+        <c:crossAx val="561455872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466967936"/>
+        <c:axId val="561455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18825,7 +18961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466966400"/>
+        <c:crossAx val="545754112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19547,7 +19683,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23887,6 +24023,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J105" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -23905,7 +24076,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23947,10 +24118,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -23980,16 +24151,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29463,6 +29634,53 @@
       </c>
       <c r="O104" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J105" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29483,7 +29701,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29525,13 +29743,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29558,19 +29776,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -35304,6 +35522,56 @@
         <v>94.401190236399628</v>
       </c>
       <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J105" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35325,7 +35593,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35372,19 +35640,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35396,10 +35664,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>8</v>
@@ -35408,7 +35676,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35438,7 +35706,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40283,6 +40551,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M104" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K105" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L105" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M105" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -40304,7 +40613,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40346,13 +40655,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44641,6 +44950,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K104" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I105" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J105" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K105" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -44662,7 +45006,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -44704,13 +45048,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44737,16 +45081,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50220,6 +50564,53 @@
       </c>
       <c r="O104" s="27">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="21">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I105" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J105" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K105" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N105" s="27">
+        <v>70.828138094565318</v>
+      </c>
+      <c r="O105" s="27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -50240,7 +50631,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50285,10 +50676,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -50315,19 +50706,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -56060,6 +56451,56 @@
         <v>94.401190236399628</v>
       </c>
       <c r="P104" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I105" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J105" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K105" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L105" s="26">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="M105" s="27">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="N105" s="27">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="O105" s="27">
+        <v>83.272569167503974</v>
+      </c>
+      <c r="P105" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -56081,7 +56522,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56128,19 +56569,19 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -56194,7 +56635,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -61039,6 +61480,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M104" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75">
+      <c r="A105" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B105" s="25">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.2514924637746279</v>
+      </c>
+      <c r="D105" s="20">
+        <v>3159410</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1875856.8129367707</v>
+      </c>
+      <c r="F105" s="21">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>0</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K105" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L105" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M105" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -153,6 +153,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -169,11 +173,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
+    <t>SMA之ABS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市值</t>
+    <t>回收资金</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>累计投入资金</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1201,6 +1201,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1213,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1515,6 +1518,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1558,7 +1564,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1864,6 +1870,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +1882,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2178,6 +2187,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2221,7 +2233,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2527,6 +2539,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,7 +2551,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2841,6 +2856,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2863,11 +2881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561473024"/>
-        <c:axId val="561500160"/>
+        <c:axId val="485071488"/>
+        <c:axId val="485090432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561473024"/>
+        <c:axId val="485071488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2928,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561500160"/>
+        <c:crossAx val="485090432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561500160"/>
+        <c:axId val="485090432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2984,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561473024"/>
+        <c:crossAx val="485071488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3180,7 +3198,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3486,6 +3504,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,7 +3516,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3800,6 +3821,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3843,7 +3867,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4149,6 +4173,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,7 +4185,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4463,6 +4490,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4506,7 +4536,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4812,6 +4842,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,7 +4854,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5126,6 +5159,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -5148,11 +5184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562182400"/>
-        <c:axId val="669196288"/>
+        <c:axId val="485335040"/>
+        <c:axId val="485336576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562182400"/>
+        <c:axId val="485335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,14 +5231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669196288"/>
+        <c:crossAx val="485336576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669196288"/>
+        <c:axId val="485336576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,7 +5287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562182400"/>
+        <c:crossAx val="485335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5465,7 +5501,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5771,6 +5807,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,7 +5819,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6085,6 +6124,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -6128,7 +6170,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6434,6 +6476,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6488,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6748,6 +6793,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6791,7 +6839,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7097,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7106,7 +7157,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7411,6 +7462,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7433,11 +7487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708376448"/>
-        <c:axId val="708388736"/>
+        <c:axId val="499301760"/>
+        <c:axId val="544193536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708376448"/>
+        <c:axId val="499301760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7480,14 +7534,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708388736"/>
+        <c:crossAx val="544193536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708388736"/>
+        <c:axId val="544193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,7 +7590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708376448"/>
+        <c:crossAx val="499301760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7750,7 +7804,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8056,6 +8110,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8065,7 +8122,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8370,6 +8427,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8413,7 +8473,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8719,6 +8779,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8728,7 +8791,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9033,6 +9096,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -9076,7 +9142,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9382,6 +9448,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9391,7 +9460,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9696,6 +9765,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9718,11 +9790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708471424"/>
-        <c:axId val="708546944"/>
+        <c:axId val="563329280"/>
+        <c:axId val="563332224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708471424"/>
+        <c:axId val="563329280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,14 +9837,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708546944"/>
+        <c:crossAx val="563332224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708546944"/>
+        <c:axId val="563332224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9821,7 +9893,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708471424"/>
+        <c:crossAx val="563329280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10035,7 +10107,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10341,6 +10413,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10350,7 +10425,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10655,6 +10730,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10698,7 +10776,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11004,6 +11082,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11094,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11318,6 +11399,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11361,7 +11445,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11667,6 +11751,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11676,7 +11763,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11981,6 +12068,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -12003,11 +12093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708635648"/>
-        <c:axId val="709211264"/>
+        <c:axId val="563361280"/>
+        <c:axId val="563362816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708635648"/>
+        <c:axId val="563361280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12050,14 +12140,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709211264"/>
+        <c:crossAx val="563362816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709211264"/>
+        <c:axId val="563362816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12106,7 +12196,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708635648"/>
+        <c:crossAx val="563361280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12320,7 +12410,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12626,6 +12716,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12635,7 +12728,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12940,6 +13033,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -12983,7 +13079,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13289,6 +13385,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13298,7 +13397,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13603,6 +13702,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13646,7 +13748,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13952,6 +14054,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13961,7 +14066,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14266,6 +14371,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -14288,11 +14396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539996928"/>
-        <c:axId val="539998464"/>
+        <c:axId val="563387392"/>
+        <c:axId val="563405568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539996928"/>
+        <c:axId val="563387392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14335,14 +14443,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539998464"/>
+        <c:crossAx val="563405568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539998464"/>
+        <c:axId val="563405568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14391,7 +14499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539996928"/>
+        <c:crossAx val="563387392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14605,7 +14713,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14911,6 +15019,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14920,7 +15031,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15225,6 +15336,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -15268,7 +15382,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15574,6 +15688,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15583,7 +15700,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15888,6 +16005,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -15931,7 +16051,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16237,6 +16357,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16246,7 +16369,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16551,6 +16674,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16573,11 +16699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541308800"/>
-        <c:axId val="541310336"/>
+        <c:axId val="563967872"/>
+        <c:axId val="564502528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541308800"/>
+        <c:axId val="563967872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16620,14 +16746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541310336"/>
+        <c:crossAx val="564502528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541310336"/>
+        <c:axId val="564502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16676,7 +16802,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541308800"/>
+        <c:crossAx val="563967872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16890,7 +17016,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17196,6 +17322,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17205,7 +17334,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17510,6 +17639,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17553,7 +17685,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17859,6 +17991,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17868,7 +18003,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18173,6 +18308,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -18216,7 +18354,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18522,6 +18660,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18531,7 +18672,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18836,6 +18977,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -18858,11 +19002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545754112"/>
-        <c:axId val="561455872"/>
+        <c:axId val="482459648"/>
+        <c:axId val="482461184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545754112"/>
+        <c:axId val="482459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18905,14 +19049,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561455872"/>
+        <c:crossAx val="482461184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561455872"/>
+        <c:axId val="482461184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18961,7 +19105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545754112"/>
+        <c:crossAx val="482459648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19683,7 +19827,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24058,6 +24202,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J106" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24076,7 +24255,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24118,13 +24297,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -24151,16 +24330,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29681,6 +29860,53 @@
       </c>
       <c r="O105" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J106" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -29701,7 +29927,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29743,13 +29969,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -29788,7 +30014,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -35572,6 +35798,56 @@
         <v>83.272569167503974</v>
       </c>
       <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I106" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J106" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35593,7 +35869,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35640,13 +35916,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>32</v>
@@ -35664,10 +35940,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>8</v>
@@ -35676,7 +35952,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35706,7 +35982,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40592,6 +40868,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M105" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K106" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L106" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M106" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -40613,7 +40930,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40661,7 +40978,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -44985,6 +45302,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K105" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I106" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J106" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K106" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -45006,7 +45358,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45054,7 +45406,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -45081,16 +45433,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -50611,6 +50963,53 @@
       </c>
       <c r="O105" s="27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="21">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I106" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J106" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K106" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="M106" s="27">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N106" s="27">
+        <v>67.652800290658575</v>
+      </c>
+      <c r="O106" s="27">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -50631,7 +51030,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50679,7 +51078,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -50718,7 +51117,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -56501,6 +56900,56 @@
         <v>83.272569167503974</v>
       </c>
       <c r="P105" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I106" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J106" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K106" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L106" s="26">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="M106" s="27">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="N106" s="27">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="O106" s="27">
+        <v>73.71030032376305</v>
+      </c>
+      <c r="P106" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -56522,7 +56971,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56575,7 +57024,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>32</v>
@@ -56635,7 +57084,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -61521,6 +61970,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M105" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75">
+      <c r="A106" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B106" s="25">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.2602598832481278</v>
+      </c>
+      <c r="D106" s="20">
+        <v>3566154</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1890263.9004151097</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>0</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K106" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L106" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M106" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>

--- a/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel4meancn.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -149,14 +149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -177,6 +169,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>RSV</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -895,7 +899,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1204,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1220,7 @@
               <c:f>'模型四 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1521,6 +1528,9 @@
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>782.67846849814737</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>782.67846849814737</c:v>
                 </c:pt>
               </c:numCache>
@@ -1564,7 +1574,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1873,6 +1883,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1895,7 @@
               <c:f>'模型四 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,6 +2203,9 @@
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1240.6008762862457</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1240.6008762862457</c:v>
                 </c:pt>
               </c:numCache>
@@ -2233,7 +2249,7 @@
               <c:f>'模型四 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2542,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,7 +2570,7 @@
               <c:f>'模型四 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2859,6 +2878,9 @@
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>457.92240778809833</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>457.92240778809833</c:v>
                 </c:pt>
               </c:numCache>
@@ -2881,11 +2903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485071488"/>
-        <c:axId val="485090432"/>
+        <c:axId val="505464704"/>
+        <c:axId val="505471744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485071488"/>
+        <c:axId val="505464704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,14 +2950,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485090432"/>
+        <c:crossAx val="505471744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485090432"/>
+        <c:axId val="505471744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +3006,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485071488"/>
+        <c:crossAx val="505464704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3198,7 +3220,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3507,6 +3529,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,7 +3541,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3824,6 +3849,9 @@
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1081.9760781597654</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1081.9760781597654</c:v>
                 </c:pt>
               </c:numCache>
@@ -3867,7 +3895,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4176,6 +4204,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,7 +4216,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,6 +4524,9 @@
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1938.211964032281</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1938.211964032281</c:v>
                 </c:pt>
               </c:numCache>
@@ -4536,7 +4570,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4845,6 +4879,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,7 +4891,7 @@
               <c:f>'模型四 (1)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5162,6 +5199,9 @@
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>856.23588587251561</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>856.23588587251561</c:v>
                 </c:pt>
               </c:numCache>
@@ -5184,11 +5224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485335040"/>
-        <c:axId val="485336576"/>
+        <c:axId val="506795520"/>
+        <c:axId val="506797056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485335040"/>
+        <c:axId val="506795520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,14 +5271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485336576"/>
+        <c:crossAx val="506797056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485336576"/>
+        <c:axId val="506797056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485335040"/>
+        <c:crossAx val="506795520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5501,7 +5541,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5810,6 +5850,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,7 +5862,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6127,6 +6170,9 @@
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>717.1927699657906</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>717.1927699657906</c:v>
                 </c:pt>
               </c:numCache>
@@ -6170,7 +6216,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6479,6 +6525,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6488,7 +6537,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6796,6 +6845,9 @@
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1152.2841821809159</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1152.2841821809159</c:v>
                 </c:pt>
               </c:numCache>
@@ -6839,7 +6891,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7148,6 +7200,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,7 +7212,7 @@
               <c:f>'模型四 (1)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7465,6 +7520,9 @@
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>435.09141221512527</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>435.09141221512527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7487,11 +7545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499301760"/>
-        <c:axId val="544193536"/>
+        <c:axId val="517780224"/>
+        <c:axId val="517782528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499301760"/>
+        <c:axId val="517780224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7534,14 +7592,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544193536"/>
+        <c:crossAx val="517782528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544193536"/>
+        <c:axId val="517782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,7 +7648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499301760"/>
+        <c:crossAx val="517780224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7804,7 +7862,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8113,6 +8171,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8122,7 +8183,7 @@
               <c:f>'模型四 (1)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8430,6 +8491,9 @@
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>366.42697665235454</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>366.42697665235454</c:v>
                 </c:pt>
               </c:numCache>
@@ -8473,7 +8537,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8782,6 +8846,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,7 +8858,7 @@
               <c:f>'模型四 (1)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9099,6 +9166,9 @@
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>579.4237932103814</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>579.4237932103814</c:v>
                 </c:pt>
               </c:numCache>
@@ -9142,7 +9212,7 @@
               <c:f>'模型四 (1)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9451,6 +9521,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9460,7 +9533,7 @@
               <c:f>'模型四 (1)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9768,6 +9841,9 @@
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>212.99681655802686</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>212.99681655802686</c:v>
                 </c:pt>
               </c:numCache>
@@ -9790,11 +9866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563329280"/>
-        <c:axId val="563332224"/>
+        <c:axId val="595792256"/>
+        <c:axId val="595793792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563329280"/>
+        <c:axId val="595792256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9837,14 +9913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563332224"/>
+        <c:crossAx val="595793792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563332224"/>
+        <c:axId val="595793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9893,7 +9969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563329280"/>
+        <c:crossAx val="595792256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10107,7 +10183,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10416,6 +10492,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,7 +10504,7 @@
               <c:f>'模型四 (3)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10733,6 +10812,9 @@
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>155.51321719002138</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>155.51321719002138</c:v>
                 </c:pt>
               </c:numCache>
@@ -10776,7 +10858,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11085,6 +11167,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11094,7 +11179,7 @@
               <c:f>'模型四 (3)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11402,6 +11487,9 @@
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>260.7091440429981</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>260.7091440429981</c:v>
                 </c:pt>
               </c:numCache>
@@ -11445,7 +11533,7 @@
               <c:f>'模型四 (3)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11754,6 +11842,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11763,7 +11854,7 @@
               <c:f>'模型四 (3)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12071,6 +12162,9 @@
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>105.19592685297673</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>105.19592685297673</c:v>
                 </c:pt>
               </c:numCache>
@@ -12093,11 +12187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563361280"/>
-        <c:axId val="563362816"/>
+        <c:axId val="595855232"/>
+        <c:axId val="595856768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563361280"/>
+        <c:axId val="595855232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12140,14 +12234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563362816"/>
+        <c:crossAx val="595856768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563362816"/>
+        <c:axId val="595856768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12196,7 +12290,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563361280"/>
+        <c:crossAx val="595855232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12410,7 +12504,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12719,6 +12813,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12728,7 +12825,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13036,6 +13133,9 @@
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>228.82879320428773</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>228.82879320428773</c:v>
                 </c:pt>
               </c:numCache>
@@ -13079,7 +13179,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13388,6 +13488,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13397,7 +13500,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13705,6 +13808,9 @@
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>425.75844436164391</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>425.75844436164391</c:v>
                 </c:pt>
               </c:numCache>
@@ -13748,7 +13854,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -14057,6 +14163,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14066,7 +14175,7 @@
               <c:f>'模型四 (3)平均线计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14374,6 +14483,9 @@
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>196.92965115735618</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>196.92965115735618</c:v>
                 </c:pt>
               </c:numCache>
@@ -14396,11 +14508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563387392"/>
-        <c:axId val="563405568"/>
+        <c:axId val="596109184"/>
+        <c:axId val="596110720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563387392"/>
+        <c:axId val="596109184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14443,14 +14555,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563405568"/>
+        <c:crossAx val="596110720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563405568"/>
+        <c:axId val="596110720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14499,7 +14611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563387392"/>
+        <c:crossAx val="596109184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14713,7 +14825,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15022,6 +15134,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15031,7 +15146,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15339,6 +15454,9 @@
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>143.77000931573409</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>143.77000931573409</c:v>
                 </c:pt>
               </c:numCache>
@@ -15382,7 +15500,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -15691,6 +15809,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15700,7 +15821,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16008,6 +16129,9 @@
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>242.17499191669597</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>242.17499191669597</c:v>
                 </c:pt>
               </c:numCache>
@@ -16051,7 +16175,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -16360,6 +16484,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16369,7 +16496,7 @@
               <c:f>'模型四 (3)平均线计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16677,6 +16804,9 @@
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>98.404982600961887</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>98.404982600961887</c:v>
                 </c:pt>
               </c:numCache>
@@ -16699,11 +16829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563967872"/>
-        <c:axId val="564502528"/>
+        <c:axId val="600802048"/>
+        <c:axId val="601266816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563967872"/>
+        <c:axId val="600802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16746,14 +16876,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564502528"/>
+        <c:crossAx val="601266816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564502528"/>
+        <c:axId val="601266816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16802,7 +16932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563967872"/>
+        <c:crossAx val="600802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17016,7 +17146,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17325,6 +17455,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17334,7 +17467,7 @@
               <c:f>'模型四 (3)平均线成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17642,6 +17775,9 @@
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>75.378225802571194</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>75.378225802571194</c:v>
                 </c:pt>
               </c:numCache>
@@ -17685,7 +17821,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -17994,6 +18130,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18003,7 +18142,7 @@
               <c:f>'模型四 (3)平均线成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18311,6 +18450,9 @@
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>125.02031660046136</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>125.02031660046136</c:v>
                 </c:pt>
               </c:numCache>
@@ -18354,7 +18496,7 @@
               <c:f>'模型四 (3)平均线成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -18663,6 +18805,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18672,7 +18817,7 @@
               <c:f>'模型四 (3)平均线成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18980,6 +19125,9 @@
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>49.642090797890162</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>49.642090797890162</c:v>
                 </c:pt>
               </c:numCache>
@@ -19002,11 +19150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482459648"/>
-        <c:axId val="482461184"/>
+        <c:axId val="505785728"/>
+        <c:axId val="505787520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482459648"/>
+        <c:axId val="505785728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19049,14 +19197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482461184"/>
+        <c:crossAx val="505787520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482461184"/>
+        <c:axId val="505787520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19105,7 +19253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482459648"/>
+        <c:crossAx val="505785728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19827,7 +19975,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24237,6 +24385,41 @@
         <v>1240.6008762862457</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>782.67846849814737</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1240.6008762862457</v>
+      </c>
+      <c r="J107" s="22">
+        <v>457.92240778809833</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1240.6008762862457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -24255,7 +24438,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24297,13 +24480,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -24330,16 +24513,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -29906,6 +30089,53 @@
         <v>67.652800290658575</v>
       </c>
       <c r="O106" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>1081.9760781597654</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="J107" s="22">
+        <v>856.23588587251561</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1938.211964032281</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="M107" s="27">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N107" s="27">
+        <v>63.365781700810651</v>
+      </c>
+      <c r="O107" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -29927,7 +30157,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29972,10 +30202,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -30014,7 +30244,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -35848,6 +36078,56 @@
         <v>73.71030032376305</v>
       </c>
       <c r="P106" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>717.1927699657906</v>
+      </c>
+      <c r="I107" s="22">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="J107" s="22">
+        <v>435.09141221512527</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1152.2841821809159</v>
+      </c>
+      <c r="L107" s="26">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="M107" s="27">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="N107" s="27">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="O107" s="27">
+        <v>64.562273357270726</v>
+      </c>
+      <c r="P107" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -35869,7 +36149,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35919,16 +36199,16 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -35952,7 +36232,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -35982,7 +36262,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -40909,6 +41189,47 @@
         <v>212.99681655802686</v>
       </c>
       <c r="M106" s="21">
+        <v>579.4237932103814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="20">
+        <v>1387054</v>
+      </c>
+      <c r="E107" s="20">
+        <v>1888206.2111501612</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>366.42697665235454</v>
+      </c>
+      <c r="K107" s="22">
+        <v>579.4237932103814</v>
+      </c>
+      <c r="L107" s="22">
+        <v>212.99681655802686</v>
+      </c>
+      <c r="M107" s="21">
         <v>579.4237932103814</v>
       </c>
     </row>
@@ -40930,7 +41251,7 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40972,13 +41293,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -45337,6 +45658,41 @@
         <v>105.19592685297673</v>
       </c>
       <c r="K106" s="21">
+        <v>260.7091440429981</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>155.51321719002138</v>
+      </c>
+      <c r="I107" s="22">
+        <v>260.7091440429981</v>
+      </c>
+      <c r="J107" s="22">
+        <v>105.19592685297673</v>
+      </c>
+      <c r="K107" s="21">
         <v>260.7091440429981</v>
       </c>
     </row>
@@ -45358,7 +45714,7 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -45403,10 +45759,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -45433,16 +45789,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -51009,6 +51365,53 @@
         <v>67.652800290658575</v>
       </c>
       <c r="O106" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="21">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>228.82879320428773</v>
+      </c>
+      <c r="I107" s="22">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="J107" s="22">
+        <v>196.92965115735618</v>
+      </c>
+      <c r="K107" s="21">
+        <v>425.75844436164391</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="M107" s="27">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N107" s="27">
+        <v>63.365781700810651</v>
+      </c>
+      <c r="O107" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -51030,7 +51433,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -51075,10 +51478,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
@@ -51117,7 +51520,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="18" customFormat="1" ht="15" customHeight="1">
@@ -56950,6 +57353,56 @@
         <v>73.71030032376305</v>
       </c>
       <c r="P106" s="27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>143.77000931573409</v>
+      </c>
+      <c r="I107" s="22">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="J107" s="22">
+        <v>98.404982600961887</v>
+      </c>
+      <c r="K107" s="21">
+        <v>242.17499191669597</v>
+      </c>
+      <c r="L107" s="26">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="M107" s="27">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="N107" s="27">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="O107" s="27">
+        <v>64.562273357270726</v>
+      </c>
+      <c r="P107" s="27">
         <v>0.95</v>
       </c>
     </row>
@@ -56971,7 +57424,7 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -57021,16 +57474,16 @@
         <v>20</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
@@ -57054,7 +57507,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -57084,7 +57537,7 @@
         <v>1550</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
@@ -62011,6 +62464,47 @@
         <v>49.642090797890162</v>
       </c>
       <c r="M106" s="21">
+        <v>125.02031660046136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="12.75">
+      <c r="A107" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.269731613128438</v>
+      </c>
+      <c r="D107" s="20">
+        <v>1387054</v>
+      </c>
+      <c r="E107" s="20">
+        <v>1888206.2111501612</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="22">
+        <v>75.378225802571194</v>
+      </c>
+      <c r="K107" s="22">
+        <v>125.02031660046136</v>
+      </c>
+      <c r="L107" s="22">
+        <v>49.642090797890162</v>
+      </c>
+      <c r="M107" s="21">
         <v>125.02031660046136</v>
       </c>
     </row>
